--- a/!parsed_items_100/1299/1299_-1-100.xlsx
+++ b/!parsed_items_100/1299/1299_-1-100.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -650,21 +650,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Вагинальные шарики в силиконовой</t>
+          <t>Регулируемые зажимы для сосков</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-9572-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>id-9579-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
@@ -674,15 +682,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9579/9579_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепные и очень красивые вагинальные шарики, которые доставят вам сильное эротическое и эстетическое удовольствие.Их основное назначение - тренировать тонус мышц влагалища (просто вставляете в себя и занимаетесь домашними делами, мышцы непроизвольно будут напрягаться, удерживая шарики).А еще их можно использовать во время любовной игры. Отдайте их в руки партнеру, и пусть он сам поместит их в вас, одновременно лаская ваше тело. Шарики можно оставить во влагалище и во время анального секса, через тонкую стеночку партнер будет их чувствовать, а вы получите сразу двойное удовольствие.Сделаны из очень приятного на ощупь, нежного силикона. Имеют гибкую сцепку и силиконовый шнурок для удобного доставания. Вес двух шариков 64 г, диаметр шарика 3,5 см, вставная длина 11 см.Попробуйте использовать с ними смазку на водной основе так гораздо приятнее. Вагинальные шарики в силиконовой оболочке Silicone Pleasure Balls.  Вагинальные шарики в силиконовой оболочке Silicone Pleasure Balls. Модель: 50shades-40166. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: черный с серебряным. Материал: пластик, силикон. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Универсальные регулируемые зажимы для сосков The Pinch Adjustable из оригинальной коллекции Fifty Shades of Grey, которая посвящена мировому бестселлеру 50 оттенков серого. Концы зажимов покрыты мягким силиконом что делает их пригодным для новичков, а плавный механизм позволяет комфортно регулировать степень давления. Сжатие легко настраивается во время ношения для мгновенного ослабления или наиболее сильного воздействия. Идеальны в качестве эротического подарка для вашего партнера. Регулируемые зажимы для сосков Adjustable Nipple Clamps.  Регулируемые зажимы для сосков Adjustable Nipple Clamps. Модель: 50shades-40186. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный с черным. Материал: металл, силикон. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -697,7 +709,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>пластик, силикон</t>
+          <t>металл, силикон</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -714,15 +726,9 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -741,7 +747,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>шарики, атласный мешочек для хранения</t>
+          <t>два зажима, атласный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -761,7 +767,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -772,27 +778,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Регулируемые зажимы для сосков</t>
+          <t>Фиксаторы-наручники Fantasy His</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-9579-1299</t>
+          <t>id-13553-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -804,15 +810,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13553/13553_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13553/13553_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13553/13553_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальные регулируемые зажимы для сосков The Pinch Adjustable из оригинальной коллекции Fifty Shades of Grey, которая посвящена мировому бестселлеру 50 оттенков серого. Концы зажимов покрыты мягким силиконом что делает их пригодным для новичков, а плавный механизм позволяет комфортно регулировать степень давления. Сжатие легко настраивается во время ношения для мгновенного ослабления или наиболее сильного воздействия. Идеальны в качестве эротического подарка для вашего партнера. Регулируемые зажимы для сосков Adjustable Nipple Clamps.  Регулируемые зажимы для сосков Adjustable Nipple Clamps. Модель: 50shades-40186. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный с черным. Материал: металл, силикон. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Наручники Totally His из оригинальной коллекции 50 оттенков серого.Прочные и безопасные наручники фиксируют с помощью зажимов и липучки.Мягкая подкладка делает использование комфортным, а роскошная атласная отделка еще и эффектным.Вы можете соединить манжеты Totally His с любым другим аксессуаром для связывания этой коллекции.Манжеты снабжены быстроразъемными зажимами на случай, если вам понадобится немедленно освободиться.В комплект входит атласный мешок для хранения. Фиксаторы-наручники Fantasy His.  Фиксаторы-наручники Fantasy His. Модель: 50shades-52413. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серым. Материал: нейлон, атлас, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -827,7 +837,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>металл, силикон</t>
+          <t>нейлон, атлас, металл</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -865,7 +875,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>два зажима, атласный мешочек для хранения</t>
+          <t>фиксаторы, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -885,7 +895,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Анальные шарики</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -901,24 +911,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Фиксаторы-наручники Fantasy His</t>
+          <t>Набор силиконовых шариков разного веса</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-13553-1299</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13552-1299</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>99999</v>
@@ -928,15 +930,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13552/13552_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13552/13552_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13552/13552_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13552/13552_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13552/13552_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наручники Totally His из оригинальной коллекции 50 оттенков серого.Прочные и безопасные наручники фиксируют с помощью зажимов и липучки.Мягкая подкладка делает использование комфортным, а роскошная атласная отделка еще и эффектным.Вы можете соединить манжеты Totally His с любым другим аксессуаром для связывания этой коллекции.Манжеты снабжены быстроразъемными зажимами на случай, если вам понадобится немедленно освободиться.В комплект входит атласный мешок для хранения. Фиксаторы-наручники Fantasy His.  Фиксаторы-наручники Fantasy His. Модель: 50shades-52413. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с серым. Материал: нейлон, атлас, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">С шариками Beyond Arous из оригинальной коллекции Fifty Shades of Grey, которая посвящена мировому бестселлеру 50 оттенков серого вы можете улучшить тонус вагинальных мышц и насладиться интенсивной стимуляцией. Шарики имеют 6 различных комбинаций веса для прогрессивного обучения, укрепления мышц тазового дна и получения наиболее сильных оргазмов.С четырьмя шариками имеющими различный вес вы легко можете подобрать комфортный для вас начальный уровень, а затем, имея прогресс, продолжить тренировки без покупки новых шариков. Со временем и вы, и ваш партнер почувствует все преимущества сильных вагинальных мышц. Наконец, на последнем уровне вы можете начать носить шарики без соединителя. Особенности:Шарики разного веса 15 гр, 25 гр, 35 гр, 55 гр, что позволяет объединять их для достижения различных вариантов 40гр, 50гр, 60гр, 70гр, 80гр, 90гр в соответствии с вашим уровнем опыта!.Набор силиконовых шариков разного веса Beyond Aroused.  Набор силиконовых шариков разного веса Beyond Aroused. Модель: 50shades-52427. Секс-игрушки. Шарики &gt; Анальные. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: белый, серый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -951,7 +957,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>нейлон, атлас, металл</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -975,21 +981,35 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>134</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>134</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>134</v>
+      </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>фиксаторы, мешочек для хранения</t>
+          <t>4 шарика разного веса, силиконовая стяжка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1009,7 +1029,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Анальные шарики</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1020,17 +1040,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Набор силиконовых шариков разного веса</t>
+          <t>Анальная вибровтулка на дистанционном</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-13552-1299</t>
+          <t>id-19665-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1044,30 +1064,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19665/19665_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">С шариками Beyond Arous из оригинальной коллекции Fifty Shades of Grey, которая посвящена мировому бестселлеру 50 оттенков серого вы можете улучшить тонус вагинальных мышц и насладиться интенсивной стимуляцией. Шарики имеют 6 различных комбинаций веса для прогрессивного обучения, укрепления мышц тазового дна и получения наиболее сильных оргазмов.С четырьмя шариками имеющими различный вес вы легко можете подобрать комфортный для вас начальный уровень, а затем, имея прогресс, продолжить тренировки без покупки новых шариков. Со временем и вы, и ваш партнер почувствует все преимущества сильных вагинальных мышц. Наконец, на последнем уровне вы можете начать носить шарики без соединителя. Особенности:Шарики разного веса 15 гр, 25 гр, 35 гр, 55 гр, что позволяет объединять их для достижения различных вариантов 40гр, 50гр, 60гр, 70гр, 80гр, 90гр в соответствии с вашим уровнем опыта!.Набор силиконовых шариков разного веса Beyond Aroused.  Набор силиконовых шариков разного веса Beyond Aroused. Модель: 50shades-52427. Секс-игрушки. Шарики &gt; Анальные. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: белый, серый, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Новая эксклюзивная коллекция, вдохновленная романом Э. Л. Джеймс 50 оттенков свободы,  это лучшие эротические игрушки, роскошные аксессуары и всегда смелые решения.Классическая форма, нежное силиконовое покрытие и небывалая мощность! Анальная вибровтулка Feel So Alive подойдет как новичкам, так и опытным любителям анальных игр. Все материалы, использованные в производстве, абсолютно безопасны и гипоаллергенны.Управляйте удовольствием на расстоянии! В комплект входит пульт ДУ, что позволит вам использовать вибровтулку за пределами вашей спальни, а 8 режимов работы и 12 уровней интенсивности стимуляции сделают процесс игры увлекательным и разнообразным.Полностью заряженное устройство способно проработать без перерыва целый час! А перезаряжаемый аккумулятор позволит вам использовать вибровтулку Feel So Alive снова и снова. Анальная вибровтулка на дистанционном управлении Fifty Shades Freed Feel So Alive (8 режимов + 12 скоростей).  Анальная вибровтулка на дистанционном управлении Fifty Shades Freed Feel So Alive (8 режимов + 12 скоростей). Модель: 50shades-69149. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: фиолетовый, золотистый. Материал: высококачественный силикон,  пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон,  пластик</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1084,42 +1108,38 @@
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.6</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI5" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>134</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>134</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>134</v>
-      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>4 шарика разного веса, силиконовая стяжка, мешочек для хранения</t>
+          <t>пробка, пульт управления, зарядное usb-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1139,7 +1159,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1155,12 +1175,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Анальная вибровтулка на дистанционном</t>
+          <t>Серебристые шарики Inner Goddess Silver</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-19665-1299</t>
+          <t>id-23157-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1174,30 +1194,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23157/23157_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23157/23157_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23157/23157_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23157/23157_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Новая эксклюзивная коллекция, вдохновленная романом Э. Л. Джеймс 50 оттенков свободы,  это лучшие эротические игрушки, роскошные аксессуары и всегда смелые решения.Классическая форма, нежное силиконовое покрытие и небывалая мощность! Анальная вибровтулка Feel So Alive подойдет как новичкам, так и опытным любителям анальных игр. Все материалы, использованные в производстве, абсолютно безопасны и гипоаллергенны.Управляйте удовольствием на расстоянии! В комплект входит пульт ДУ, что позволит вам использовать вибровтулку за пределами вашей спальни, а 8 режимов работы и 12 уровней интенсивности стимуляции сделают процесс игры увлекательным и разнообразным.Полностью заряженное устройство способно проработать без перерыва целый час! А перезаряжаемый аккумулятор позволит вам использовать вибровтулку Feel So Alive снова и снова. Анальная вибровтулка на дистанционном управлении Fifty Shades Freed Feel So Alive (8 режимов + 12 скоростей).  Анальная вибровтулка на дистанционном управлении Fifty Shades Freed Feel So Alive (8 режимов + 12 скоростей). Модель: 50shades-69149. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: фиолетовый, золотистый. Материал: высококачественный силикон,  пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Гигиеничные стильные шарики Inner Goddess Silver Jiggle Balls, сделанные из серебристого пластика в окантовке из черного бархатистого силикона, подойдут не только для тренировки вагинальных мышц, но и для анальных удовольствий обоих партнеров. Шарики легко моются после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Серебристые шарики Inner Goddess Silver Jiggle Balls.  Серебристые шарики Inner Goddess Silver Jiggle Balls. Модель: 50shades-74926. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: серебряный с черным. Материал: пластик, силикон. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>высококачественный силикон,  пластик</t>
+          <t>пластик, силикон</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1215,23 +1239,23 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>14.96</v>
+        <v>4.95</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.6</v>
+        <v>4.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.6</v>
+        <v>4.5</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>3.52</v>
+        <v>3.74</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
@@ -1245,7 +1269,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>пробка, пульт управления, зарядное usb-устройство, мешочек для хранения</t>
+          <t>шарики, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1265,7 +1289,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Анальные шарики</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1281,12 +1305,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Серебристые шарики Inner Goddess Silver</t>
+          <t>Стеклянные шарики в силиконовой</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-23157-1299</t>
+          <t>id-23155-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1300,15 +1324,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23155/23155_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23155/23155_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23155/23155_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23155/23155_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23155/23155_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гигиеничные стильные шарики Inner Goddess Silver Jiggle Balls, сделанные из серебристого пластика в окантовке из черного бархатистого силикона, подойдут не только для тренировки вагинальных мышц, но и для анальных удовольствий обоих партнеров. Шарики легко моются после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Серебристые шарики Inner Goddess Silver Jiggle Balls.  Серебристые шарики Inner Goddess Silver Jiggle Balls. Модель: 50shades-74926. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: серебряный с черным. Материал: пластик, силикон. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Гигиеничные шарики Inner Goddess Glass Pleasure, сделанные из прозрачного закаленного стекла, подойдут как для тренировки вагинальных мышц, так и для анальных удовольствий обоих партнеров. Шарики находятся в специальной силиконовой и не менее гигиеничной сцепке, поэтому без проблем вынимаются для мытья после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Стеклянные шарики в силиконовой оболочке Inner Goddess Glass Pleasure.  Стеклянные шарики в силиконовой оболочке Inner Goddess Glass Pleasure. Модель: 50shades-74935. Секс-игрушки. Шарики &gt; Анальные. Шарики &gt; Стеклянные, металлические. Цвет: прозрачный с черным. Материал: высококачественный силикон с бархатистой поверхностью, стекло. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1323,7 +1351,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>пластик, силикон</t>
+          <t>высококачественный силикон с бархатистой поверхностью, стекло</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1340,24 +1368,18 @@
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
@@ -1391,7 +1413,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Анальные шарики</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1402,17 +1424,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Стеклянные шарики в силиконовой</t>
+          <t>Меняющие цвет вагинальные шарики Inner</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-23155-1299</t>
+          <t>id-23293-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1426,15 +1448,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23293/23293_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гигиеничные шарики Inner Goddess Glass Pleasure, сделанные из прозрачного закаленного стекла, подойдут как для тренировки вагинальных мышц, так и для анальных удовольствий обоих партнеров. Шарики находятся в специальной силиконовой и не менее гигиеничной сцепке, поэтому без проблем вынимаются для мытья после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Стеклянные шарики в силиконовой оболочке Inner Goddess Glass Pleasure.  Стеклянные шарики в силиконовой оболочке Inner Goddess Glass Pleasure. Модель: 50shades-74935. Секс-игрушки. Шарики &gt; Анальные. Шарики &gt; Стеклянные, металлические. Цвет: прозрачный с черным. Материал: высококачественный силикон с бархатистой поверхностью, стекло. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">.Меняющие цвет вагинальные шарики Inner Goddess Colour-Changing.  Меняющие цвет вагинальные шарики Inner Goddess Colour-Changing. Модель: 50shades-74941. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: темно-фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1449,7 +1475,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, стекло</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1466,32 +1492,48 @@
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>90</v>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>шарики, мешочек для хранения</t>
+          <t>шарики со смещенным центром тяжести, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1522,17 +1564,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Меняющие цвет вагинальные шарики Inner</t>
+          <t>Шарики со смещенным центром тяжести</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-23293-1299</t>
+          <t>id-23156-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1546,15 +1588,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23156/23156_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23156/23156_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23156/23156_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23156/23156_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Меняющие цвет вагинальные шарики Inner Goddess Colour-Changing.  Меняющие цвет вагинальные шарики Inner Goddess Colour-Changing. Модель: 50shades-74941. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: темно-фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Гигиеничные стильные шарики Inner Goddess Kegel Toner, сделанные из серебристого пластика в окантовке из черного бархатистого силикона, подойдут не только для тренировки вагинальных мышц, но и для анальных удовольствий обоих партнеров. Шарики легко моются после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Шарики со смещенным центром тяжести Inner Goddess Kegel Toner.  Шарики со смещенным центром тяжести Inner Goddess Kegel Toner. Модель: 50shades-74942. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Шарики &gt; Анальные. Цвет: черный с серебристым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1569,7 +1615,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1587,47 +1633,37 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>8.800000000000001</v>
+        <v>11.33</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>3.63</v>
+        <v>3.74</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>шарики со смещенным центром тяжести, мешочек для хранения</t>
+          <t>шарики, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1647,7 +1683,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1663,12 +1699,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Шарики со смещенным центром тяжести</t>
+          <t>Перезаряжаемая анальная вибровтулка</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-23156-1299</t>
+          <t>id-25028-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1682,30 +1718,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25028/25028_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25028/25028_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25028/25028_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25028/25028_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гигиеничные стильные шарики Inner Goddess Kegel Toner, сделанные из серебристого пластика в окантовке из черного бархатистого силикона, подойдут не только для тренировки вагинальных мышц, но и для анальных удовольствий обоих партнеров. Шарики легко моются после использования. В комплекте есть атласный фирменный мешочек для хранения шариков. Шарики со смещенным центром тяжести Inner Goddess Kegel Toner.  Шарики со смещенным центром тяжести Inner Goddess Kegel Toner. Модель: 50shades-74942. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Шарики &gt; Анальные. Цвет: черный с серебристым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Анальная вибровтулка Relentless входящая в официальную линейку секс-игрушек Shades-of-Grey понравится, как начинающим, так и более опытным пользователям анальных стимуляторов.Классический дизайн этой анальной вибровтулки обеспечивает комфортное и безболезненное введение внутрь.А широкое основание позволяет не беспокоиться за безопасное использование, даже при самой интенсивной близости. Перезаряжаемая анальная вибровтулка Relentless на ДУ (6 режимов, 10 скоростей).  Перезаряжаемая анальная вибровтулка Relentless на ДУ (6 режимов, 10 скоростей). Модель: 50shades-80007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1723,23 +1763,27 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>11.33</v>
+        <v>14.85</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.3</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>10.3</v>
+        <v>13.5</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
       <c r="AF10" t="n">
-        <v>3.74</v>
+        <v>0.33</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
@@ -1753,7 +1797,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>шарики, мешочек для хранения</t>
+          <t>стимулятор простаты, зарядное USB-устройство, дистанционный пульт управления, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1773,7 +1817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1789,12 +1833,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Перезаряжаемая анальная вибровтулка</t>
+          <t>Перезаряжаемый универсальный вибратор</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-25028-1299</t>
+          <t>id-25064-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1808,15 +1852,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25064/25064_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25064/25064_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25064/25064_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25064/25064_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25064/25064_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальная вибровтулка Relentless входящая в официальную линейку секс-игрушек Shades-of-Grey понравится, как начинающим, так и более опытным пользователям анальных стимуляторов.Классический дизайн этой анальной вибровтулки обеспечивает комфортное и безболезненное введение внутрь.А широкое основание позволяет не беспокоиться за безопасное использование, даже при самой интенсивной близости. Перезаряжаемая анальная вибровтулка Relentless на ДУ (6 режимов, 10 скоростей).  Перезаряжаемая анальная вибровтулка Relentless на ДУ (6 режимов, 10 скоростей). Модель: 50shades-80007. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Элитная продукция &gt; Анальные втулки. Элитная продукция. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Relentless Vibrations Remote Couple's Vibrator выпущен в официальной линейке секс-игрушек Shades-of-Grey и способен разнообразить интимную жизнь влюбленной пары и привнести в нее нечто новое.Его форма весьма необычна и идеально подходит как для чувственной стимуляции при погружении внутрь, так и для длительной прелюдии. Вы можете использовать его в качестве мини-вибратора для сосков, клитора, мужчина может согнуть усики массажера, обхватив яички, а сам вибратор разместить над членом. Такое расположение массажера унесет обоих партнеров на вершину блаженства. . Перезаряжаемый универсальный вибратор для пар Relentless на ДУ (10 режимов, 6 скоростей).  Перезаряжаемый универсальный вибратор для пар Relentless на ДУ (10 режимов, 6 скоростей). Модель: 50shades-80008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: черный с серебристым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1831,7 +1879,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1846,31 +1894,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.74</v>
+      </c>
       <c r="Y11" t="n">
-        <v>14.85</v>
+        <v>18.37</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>16.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>13.5</v>
+        <v>16.7</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1883,7 +1927,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>стимулятор простаты, зарядное USB-устройство, дистанционный пульт управления, мешочек для хранения</t>
+          <t>вибратор, зарядное USB-устройство, пульт дистанционного управления, инструкция, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1903,7 +1947,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1914,21 +1958,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Перезаряжаемый универсальный вибратор</t>
+          <t>Элегантные атласные наручники с</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-25064-1299</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>id-25148-1299</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>99999</v>
@@ -1938,30 +1990,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25148/25148_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25148/25148_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25148/25148_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relentless Vibrations Remote Couple's Vibrator выпущен в официальной линейке секс-игрушек Shades-of-Grey и способен разнообразить интимную жизнь влюбленной пары и привнести в нее нечто новое.Его форма весьма необычна и идеально подходит как для чувственной стимуляции при погружении внутрь, так и для длительной прелюдии. Вы можете использовать его в качестве мини-вибратора для сосков, клитора, мужчина может согнуть усики массажера, обхватив яички, а сам вибратор разместить над членом. Такое расположение массажера унесет обоих партнеров на вершину блаженства. . Перезаряжаемый универсальный вибратор для пар Relentless на ДУ (10 режимов, 6 скоростей).  Перезаряжаемый универсальный вибратор для пар Relentless на ДУ (10 режимов, 6 скоростей). Модель: 50shades-80008. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: черный с серебристым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Переливающиеся серебристые атласные манжеты-наручники с нежной черной кружевной отделкой.Комфортно ощущается даже на самой нежной коже. Деликатно, но надежно удерживают руки. Обеспечивает высокий комфорт при длительном ношении.Элегантные атласные наручники с кружевом и цепочкой Play Nice.  Элегантные атласные наручники с кружевом и цепочкой Play Nice. Модель: 50shades-80023. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: серый, черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>полиэстер, металл</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1976,21 +2032,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>16.7</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
@@ -2009,7 +2055,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство, пульт дистанционного управления, инструкция, мешочек для хранения</t>
+          <t>наручники, соединительная цепь</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2029,7 +2075,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2045,12 +2091,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Элегантные атласные наручники с</t>
+          <t>Атласный ошейник с зажимами для сосков</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-25148-1299</t>
+          <t>id-25150-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2072,15 +2118,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25150/25150_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25150/25150_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25150/25150_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Переливающиеся серебристые атласные манжеты-наручники с нежной черной кружевной отделкой.Комфортно ощущается даже на самой нежной коже. Деликатно, но надежно удерживают руки. Обеспечивает высокий комфорт при длительном ношении.Элегантные атласные наручники с кружевом и цепочкой Play Nice.  Элегантные атласные наручники с кружевом и цепочкой Play Nice. Модель: 50shades-80023. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: серый, черный. Материал: полиэстер, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Переливающийся серебристый атласный ошейник с нежной черной кружевной отделкой и регулируемыми зажимами для сосков.Комфортно ощущается даже на самой нежной коже. Зажимы регулируются.Высокий комфорт при длительном ношении. Атласный ошейник с зажимами для сосков Play Nice.  Атласный ошейник с зажимами для сосков Play Nice. Модель: 50shades-80024. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серый, черный, серебристый. Материал: 100% полиэстер, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2095,7 +2145,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>полиэстер, металл</t>
+          <t>100% полиэстер, металл</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2133,7 +2183,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>наручники, соединительная цепь</t>
+          <t>ошейник, зажимы для сосков с цпочками</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2153,7 +2203,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2164,29 +2214,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Атласный ошейник с зажимами для сосков</t>
+          <t>Игральные кубики для пар Play Nice</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-25150-1299</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25147-1299</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>99999</v>
@@ -2196,15 +2238,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25147/25147_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Переливающийся серебристый атласный ошейник с нежной черной кружевной отделкой и регулируемыми зажимами для сосков.Комфортно ощущается даже на самой нежной коже. Зажимы регулируются.Высокий комфорт при длительном ношении. Атласный ошейник с зажимами для сосков Play Nice.  Атласный ошейник с зажимами для сосков Play Nice. Модель: 50shades-80024. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серый, черный, серебристый. Материал: 100% полиэстер, металл. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Эти игральные кубики позволят разнообразить вашу прелюдию и привнести в нее нечто новое. Игральные кубики для пар Play Nice.  Игральные кубики для пар Play Nice. Модель: 50shades-80168. Секс-игрушки. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Цвет: серый, белый, черный. Материал: ABS пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2219,7 +2265,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>100% полиэстер, металл</t>
+          <t>ABS пластик</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2257,7 +2303,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>ошейник, зажимы для сосков с цпочками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2277,28 +2323,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50 SHADES OF GRAY</t>
+          <t>HIDDEN DESIRE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Игральные кубики для пар Play Nice</t>
+          <t>Эластичный темный мастурбатор Super Wet</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-25147-1299</t>
+          <t>id-26748-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2312,15 +2358,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26748/26748_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26748/26748_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26748/26748_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26748/26748_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эти игральные кубики позволят разнообразить вашу прелюдию и привнести в нее нечто новое. Игральные кубики для пар Play Nice.  Игральные кубики для пар Play Nice. Модель: 50shades-80168. Секс-игрушки. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Цвет: серый, белый, черный. Материал: ABS пластик. Батареек нет в комплекте. Бренд: 50 SHADES OF GRAY. </t>
+          <t xml:space="preserve">Вам нравится жесткая, влажная и реалистичная мастурбация? Тогда вам понравится Super Wet Travel Beaver из коллекции Bangers от Hidden Desire! Этот ручной мастурбатор изготовлен из ультра-реалистичной кожи: уникального материала TPR, который кажется очень гладким и скользким, когда вы добавляете воду. Компактный Super Wet Travel Beaver с реалистичным влагалищным отверстием, красивыми женскими складками и впечатляющим внутренним каналом готов к естественному удовольствию в пути, когда и где вы пожелаете! (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Эластичный темный мастурбатор Super Wet Travel Beaver.  Эластичный темный мастурбатор Super Wet Travel Beaver. Модель: 5. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: темный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2335,7 +2385,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>ABS пластик</t>
+          <t>термопластичный эластомер</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2352,15 +2402,25 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7</v>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2393,28 +2453,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HIDDEN DESIRE</t>
+          <t>ADRIEN LASTIC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Эластичный темный мастурбатор Super Wet</t>
+          <t>Анальный стимулятор с двойной</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-26748-1299</t>
+          <t>id-27815-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2428,15 +2488,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27815/27815_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27815/27815_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27815/27815_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27815/27815_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27815/27815_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравится жесткая, влажная и реалистичная мастурбация? Тогда вам понравится Super Wet Travel Beaver из коллекции Bangers от Hidden Desire! Этот ручной мастурбатор изготовлен из ультра-реалистичной кожи: уникального материала TPR, который кажется очень гладким и скользким, когда вы добавляете воду. Компактный Super Wet Travel Beaver с реалистичным влагалищным отверстием, красивыми женскими складками и впечатляющим внутренним каналом готов к естественному удовольствию в пути, когда и где вы пожелаете! (Наши эксперты говорят, что эта качественная игрушка может показаться даже лучше, чем настоящая, просто не говорите об этом жене или девушке, иначе у вас могут возникнуть неприятные проблемы . .).Эластичный темный мастурбатор Super Wet Travel Beaver.  Эластичный темный мастурбатор Super Wet Travel Beaver. Модель: 5. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: темный. Материал: термопластичный эластомер. Батареек нет в комплекте. Бренд: HIDDEN DESIRE. </t>
+          <t xml:space="preserve">аллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс. Если вы хотите, чтобы он был немного теплее, просто поместите свою игрушку под горячую воду (макс. 2 минуты), чтобы ствол стал мягче. Если, наоборот, вы хотите, чтобы он был тверже, поместите его в холодильник. Анальный стимулятор с двойной плотностью на присоске DUAL DENSITY.  Анальный стимулятор с двойной плотностью на присоске DUAL DENSITY. Модель: adrien-24059. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2451,7 +2515,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>термопластичный эластомер</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2479,13 +2543,17 @@
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12.65</v>
+      </c>
       <c r="AF16" t="n">
-        <v>7.7</v>
+        <v>3.08</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -2535,12 +2603,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Анальный стимулятор с двойной</t>
+          <t>Стимулятор с двойной плотностью на</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-27815-1299</t>
+          <t>id-28023-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2554,10 +2622,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28023/28023_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28023/28023_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28023/28023_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28023/28023_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">аллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс. Если вы хотите, чтобы он был немного теплее, просто поместите свою игрушку под горячую воду (макс. 2 минуты), чтобы ствол стал мягче. Если, наоборот, вы хотите, чтобы он был тверже, поместите его в холодильник. Анальный стимулятор с двойной плотностью на присоске DUAL DENSITY.  Анальный стимулятор с двойной плотностью на присоске DUAL DENSITY. Модель: adrien-24059. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
+          <t xml:space="preserve">Фаллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс. Если вы хотите, чтобы он был немного теплее, просто поместите свою игрушку под горячую воду (макс. 2 минуты), чтобы ствол стал мягче. Если, наоборот, вы хотите, чтобы он был тверже, поместите его в холодильник.Двойная плотностьТермореактивная системаSilexpan силиконНе содержит фталатовэргономичный.Стимулятор с двойной плотностью на присоске Hitsens 6 DUAL DENSITY.  Стимулятор с двойной плотностью на присоске Hitsens 6 DUAL DENSITY. Модель: adrien-24063. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2612,10 +2684,10 @@
         <v>12.65</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -2649,7 +2721,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2660,17 +2732,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Стимулятор с двойной плотностью на</t>
+          <t>Перезаряжаемый фаллоимитатор с</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-28023-1299</t>
+          <t>id-27436-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2684,10 +2756,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фаллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс. Если вы хотите, чтобы он был немного теплее, просто поместите свою игрушку под горячую воду (макс. 2 минуты), чтобы ствол стал мягче. Если, наоборот, вы хотите, чтобы он был тверже, поместите его в холодильник.Двойная плотностьТермореактивная системаSilexpan силиконНе содержит фталатовэргономичный.Стимулятор с двойной плотностью на присоске Hitsens 6 DUAL DENSITY.  Стимулятор с двойной плотностью на присоске Hitsens 6 DUAL DENSITY. Модель: adrien-24063. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
+          <t xml:space="preserve">Фаллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс.В дополнении у игрушки есть вибрация и перезаряжаемый аккумулятор. Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов).  Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов). Модель: adrien-24511. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2725,27 +2801,27 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>14.85</v>
+        <v>19.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.65</v>
+        <v>17.05</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.19</v>
+        <v>4.18</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
@@ -2759,7 +2835,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2779,28 +2855,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ADRIEN LASTIC</t>
+          <t>AFRODIZA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Перезаряжаемый фаллоимитатор с</t>
+          <t>Чай Afrodiza №1 Гуарана (15 саше)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-27436-1299</t>
+          <t>id-24746-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2814,69 +2890,59 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фаллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс.В дополнении у игрушки есть вибрация и перезаряжаемый аккумулятор. Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов).  Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов). Модель: adrien-24511. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
+          <t xml:space="preserve">Гуарана является эффективным природным стимулятором. Бразильские индейцы использовали специфические свойства Гуараны еще за долго до того, как это растение открыли колонизаторы. Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ.Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ. Состав: индийский черный чай, молотые плоды гуараны, цедра апельсина, натуральный ароматизатор апельсин. Чай Afrodiza №1 Гуарана (15 саше).  Чай Afrodiza №1 Гуарана (15 саше). Модель: afrodiza-101. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Сенегал</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
+          <t>75 г</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>75 г</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2889,7 +2955,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>15 фильтр-саше</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2909,7 +2975,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2920,17 +2986,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Чай Afrodiza №1 Гуарана (15 саше)</t>
+          <t>Чай Afrodiza №4 Йохимбе (15 саше)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-24746-1299</t>
+          <t>id-24748-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2944,10 +3010,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гуарана является эффективным природным стимулятором. Бразильские индейцы использовали специфические свойства Гуараны еще за долго до того, как это растение открыли колонизаторы. Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ.Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ. Состав: индийский черный чай, молотые плоды гуараны, цедра апельсина, натуральный ароматизатор апельсин. Чай Afrodiza №1 Гуарана (15 саше).  Чай Afrodiza №1 Гуарана (15 саше). Модель: afrodiza-101. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
+          <t xml:space="preserve">На протяжении веков коренными племенами стран Западной Африки Йохимбе применялся для придания выносливости и дополнительной энергии. Содержащийся в напитке алкалоид Йохимбин повышает двигательную активность и улучшает работу сердца. Этот алкалоид стимулирует активность либидо, вызывая приток мужской энергии.Состав: индийский черный чай, молотая кора йохимбе, стевия, натуральный ароматизатор манго. Чай Afrodiza №4 Йохимбе (15 саше).  Чай Afrodiza №4 Йохимбе (15 саше). Модель: afrodiza-104. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3025,28 +3095,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Виброяйца</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AFRODIZA</t>
+          <t>ALIVE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Чай Afrodiza №3 Катуаба и Тонгкат Али</t>
+          <t>Вибро-яйцо на дистанционном управлении</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-24747-1299</t>
+          <t>id-26932-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3060,55 +3130,69 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Индейцы традиционно применяли отвар коры Катуабы при нервозности, упадке сил, а также при проблемах сексуального здоровья. В Бразилии Катуаба и по настоящий день используется в качестве природного стимулятора и мягкого афродизиака. Тонгкат Али - суперфуд из стран Юго-Восточной Азии, также известный, как малайзийский женьшень. Состав: индийский черный чай, молотая кора катуабы и тонгкат али, имбирь, натуральный ароматизатор питахайя. Чай Afrodiza №3 Катуаба и Тонгкат Али (15 саше).  Чай Afrodiza №3 Катуаба и Тонгкат Али (15 саше). Модель: afrodiza-103. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
+          <t xml:space="preserve">Простой и удобный пульт управления имеет две кнопки  одна включает и выключает виброяйцо, другая предназначена для переключения между режимами вибрации. Виброяйцо Magic Egg 2.0 имеет один двигатель, который способен создавать очень мощную вибрацию. Игрушка изготовлена из ABS пластика и покрыта снаружи медицинским силиконом. Медицинский силикон безопасен для здоровья женщины, не имеет в своем составе фталатов, не вызывает раздражения и аллергии. Игрушка отлично подходит для игр в одиночку или с партнером. Эргономичное, компактное, надёжное и очень мощное виброяйцо Magic Egg 2.0 подарит Вам море удовольствия и сотни умопомрачительных оргазмов!.Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов).  Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов). Модель: alive-40523. Секс-игрушки. Женские стимуляторы &gt; Вибро-яйца. Цвет: фиолетовый. Материал: ABS пластик. AAA x 2 шт (в комплекте), 23 A (12 V) x 1 шт (в комплекте)Бренд: ALIVE. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Сенегал</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>ABS пластик</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>75 г</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>75 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH21" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3121,7 +3205,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>15 фильтр-саше</t>
+          <t>вибро-яйцо, пульт дистанционного управления</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3141,32 +3225,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AFRODIZA</t>
+          <t>ALLURE LINGERIE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Чай Afrodiza №4 Йохимбе (15 саше)</t>
+          <t>Синий атласный комплект с бабочками</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-24748-1299</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>id-20106-1299</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>99999</v>
@@ -3176,42 +3268,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20106/20106_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">На протяжении веков коренными племенами стран Западной Африки Йохимбе применялся для придания выносливости и дополнительной энергии. Содержащийся в напитке алкалоид Йохимбин повышает двигательную активность и улучшает работу сердца. Этот алкалоид стимулирует активность либидо, вызывая приток мужской энергии.Состав: индийский черный чай, молотая кора йохимбе, стевия, натуральный ароматизатор манго. Чай Afrodiza №4 Йохимбе (15 саше).  Чай Afrodiza №4 Йохимбе (15 саше). Модель: afrodiza-104. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
+          <t xml:space="preserve">.Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг).  Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг). Модель: allure-S-100smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: синий, черный. Материал: 45% нейлон, 55% полиэстер. Батареек нет в комплекте. Бренд: ALLURE LINGERIE. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Сенегал</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>45% нейлон, 55% полиэстер</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>75 г</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>75 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -3237,7 +3333,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>15 фильтр-саше</t>
+          <t>Манжеты, стринги</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3257,28 +3353,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Виброяйца</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ALIVE</t>
+          <t>АЛТАВЕДЪ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Вибро-яйцо на дистанционном управлении</t>
+          <t>Концентрат в капсулах НАТУРВЕДЪ №6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-26932-1299</t>
+          <t>id-28311-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3292,32 +3388,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Простой и удобный пульт управления имеет две кнопки  одна включает и выключает виброяйцо, другая предназначена для переключения между режимами вибрации. Виброяйцо Magic Egg 2.0 имеет один двигатель, который способен создавать очень мощную вибрацию. Игрушка изготовлена из ABS пластика и покрыта снаружи медицинским силиконом. Медицинский силикон безопасен для здоровья женщины, не имеет в своем составе фталатов, не вызывает раздражения и аллергии. Игрушка отлично подходит для игр в одиночку или с партнером. Эргономичное, компактное, надёжное и очень мощное виброяйцо Magic Egg 2.0 подарит Вам море удовольствия и сотни умопомрачительных оргазмов!.Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов).  Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов). Модель: alive-40523. Секс-игрушки. Женские стимуляторы &gt; Вибро-яйца. Цвет: фиолетовый. Материал: ABS пластик. AAA x 2 шт (в комплекте), 23 A (12 V) x 1 шт (в комплекте)Бренд: ALIVE. </t>
+          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствуетпрофилактике простатита и воспалений мочеполовых путей.восстановлению эректильной функции и увеличению сперматогенеза.повышению полового влечения, удлинению полового акта, выносливости и работоспособности. нормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного тракта.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой. Пантогематоген способствует восстановлению гормонального баланса и эректильной дисфункции, снижает риск заболеваний мужской половой системы, усиливает половое влечение.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, простатита, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красный корень  негормональный стимулятор половой активности, способствующий увеличению сексуальной силы и восстановлению репродуктивной функции.Женьшень нормализует обменные процессы и функцию сердечно-сосудистой системы, улучшает кроветворение, обладает тонизирующими и восстанавливающими свойствами.Трибулус стимулирует работу половой системы, восстанавливает и улучшает потенцию, удлиняет время эрекции. Стимулирует сперматогенез, увеличивая количество сперматозоидов и их подвижность.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт). Модель: alta-03. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>ABS пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
@@ -3332,25 +3428,15 @@
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>7</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3363,7 +3449,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт дистанционного управления</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3383,40 +3469,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ALLURE LINGERIE</t>
+          <t>АЛТАВЕДЪ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Синий атласный комплект с бабочками</t>
+          <t>Травяной концентрат с Л-аргинином</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-20106-1299</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-28018-1299</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>99999</v>
@@ -3426,42 +3504,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг).  Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг). Модель: allure-S-100smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: синий, черный. Материал: 45% нейлон, 55% полиэстер. Батареек нет в комплекте. Бренд: ALLURE LINGERIE. </t>
+          <t xml:space="preserve">Натуральный травяной концентрат Фитоведъ №1 с Пантогематогеном и Л-аргинином  эффективное средство для укрепления иммунитета и поддержания сексуального здоровья. Благодаря активным компонентам в составе бальзама:повышается умственная и физическая работоспособностьзамедляются процессы возрастных изменений мышц, костей и суставовактивизируются защитные силы организма и иммунной системыоказывается положительное влияние на нервную системуулучшается половая и репродуктивная функции.Пантогематоген  это уникальный натуральный продукт на основе крови алтайского марала: источник витаминов А, Е, аминокислот, липидов, пептидов, макро и микроэлементов. Помогает организму восстанавливать уровень гемоглобина в крови, повышает выносливость, ускоряет процесс заживления и регенерации тканей, повышает половую функцию и укрепляет иммунитет. Пантовая кровь алтайского марала обладает интенсивным восстанавливающим, тонизирующим и противовоспалительным действием.Красный корень содержит активные компоненты, направленные на восстановление функций половой системы, предотвращение воспалительных, бактериальных, вирусных процессов, импотенции, гормональных нарушений. Восстанавливает умственную и физическую активность, предупреждает изменения предстательной железы.Зверобой используют в качестве антибактериального, антисептического, болеутоляющего, ранозаживляющего, противоревматического, мочегонного, желчегонного, вяжущего, противоглистного средства, а также как регенерирующий препарат. Применяется при заболеваниях: сердца, ревматизма, простуды, гриппа, головных болей, заболеваний печени, желудка, мочевого пузыря, ночного недержания мочи, геморроя, воспаления женских половых органов. Зверобой положительно влияет на нервную систему и обладает антидепрессивным эффектом. Это делает зверобой ещё ценнее, так как он почти не имеет противопоказаний и не вызывает побочных явлений, в отличие от успокоительных лекарств химического происхождения.Чага  насыщает витаминами, полезные компоненты чаги способствуют укреплению иммунитета, улучшают состояние больных при опухолях любой локализации. Восстанавливающие процессы в тканях происходят за счет общеукрепляющих, тонизирующих свойств чаги. Содержит железо, магний, марганец, калий, ионы меди, алюминия, серебра, кобальта, цинка и никеля. Способствует снятию обострения хронических заболеваний и восстановлению функций желудочно-кишечного тракта, повышению общего иммунного статуса.Люцерна содержит омега-3 и омега-6 аминокислоты, витамины С, Е, В. Оказывает благоприятное воздействие на структуру волос, здоровье глаз, строение ногтевой пластины и ее укрепление. Восстанавливает энергетический баланс после перенесенных заболеваний, укрепляет кровеносные сосуды, способствует профилактике сахарного диабета. Укрепляет иммунитет, снимает боль в суставах, активизирует клетки организма на борьбу с вирусом или инфекциейЛ-аргинин  одна из самых важных аминокислот в нашем организме. Играет важную роль в процессах обмена веществ, усиливает выработку соматотропина (гормона роста). У мужчин усиливает приток крови к половым органам и увеличивается количество семенной жидкости, благодаря чему создаются оптимальные условия для продолжительной и устойчивой эрекции.Черника рекомендуется при заболевании глаз (катаракты, ночной слепоты, увеитов, ретинопатий), болезней сердечно-сосудистой системы (атеросклероза, артериальной гипертензии, ишемической болезни сердца, тромбозов, варикозной болезни вен), железодефицитной анемии, нарушений обмена веществ (сахарного диабета 2 типа, подагры, ожирения), неврологических патологий (старческой деменции, болезни Альцгеймера).Концентрат Фитоведъ №1 оказывает эффективное действие:при импотенции.при дегенеративных изменениях предстательной железы.при нарушении мочеиспускания.при нарушении сперматогенеза.при воспалительных процессах органов мочеполовой системы у мужчин и женщин.при бесплодии.при нарушении образования тестостерона у мужчин.при нарушении функций и состояния органов эндокринной системы (гипофиз, щитовидная железа, кора надпочечников, яичники или яички).при общей слабости.при железодефицитной анемии.при сниженном иммунитете.при хронической усталости, депрессивных состояниях.при нарушении обменных процессов (повышенном содержании сахара в крови, лишней массе тела).Состав: пантогематоген (кровь марала), водный настой лекарственных растений: красный корень, зверобой, чага, люцерна, лист черники, корень солодки, крапива, сахар, Л-аргинин, сорбат калия, аскорбиновая кислота. Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл).  Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл). Модель: alta-10. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Увеличение количества спермы. Препараты и возбудители &gt; Предотвращение простатита. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>45% нейлон, 55% полиэстер</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3487,7 +3569,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>Манжеты, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3507,7 +3589,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3518,17 +3600,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Травяной концентрат с Л-аргинином</t>
+          <t>Струя бобровая Сила Мужчины (60 капсул)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-28018-1299</t>
+          <t>id-27273-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3542,10 +3624,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральный травяной концентрат Фитоведъ №1 с Пантогематогеном и Л-аргинином  эффективное средство для укрепления иммунитета и поддержания сексуального здоровья. Благодаря активным компонентам в составе бальзама:повышается умственная и физическая работоспособностьзамедляются процессы возрастных изменений мышц, костей и суставовактивизируются защитные силы организма и иммунной системыоказывается положительное влияние на нервную системуулучшается половая и репродуктивная функции.Пантогематоген  это уникальный натуральный продукт на основе крови алтайского марала: источник витаминов А, Е, аминокислот, липидов, пептидов, макро и микроэлементов. Помогает организму восстанавливать уровень гемоглобина в крови, повышает выносливость, ускоряет процесс заживления и регенерации тканей, повышает половую функцию и укрепляет иммунитет. Пантовая кровь алтайского марала обладает интенсивным восстанавливающим, тонизирующим и противовоспалительным действием.Красный корень содержит активные компоненты, направленные на восстановление функций половой системы, предотвращение воспалительных, бактериальных, вирусных процессов, импотенции, гормональных нарушений. Восстанавливает умственную и физическую активность, предупреждает изменения предстательной железы.Зверобой используют в качестве антибактериального, антисептического, болеутоляющего, ранозаживляющего, противоревматического, мочегонного, желчегонного, вяжущего, противоглистного средства, а также как регенерирующий препарат. Применяется при заболеваниях: сердца, ревматизма, простуды, гриппа, головных болей, заболеваний печени, желудка, мочевого пузыря, ночного недержания мочи, геморроя, воспаления женских половых органов. Зверобой положительно влияет на нервную систему и обладает антидепрессивным эффектом. Это делает зверобой ещё ценнее, так как он почти не имеет противопоказаний и не вызывает побочных явлений, в отличие от успокоительных лекарств химического происхождения.Чага  насыщает витаминами, полезные компоненты чаги способствуют укреплению иммунитета, улучшают состояние больных при опухолях любой локализации. Восстанавливающие процессы в тканях происходят за счет общеукрепляющих, тонизирующих свойств чаги. Содержит железо, магний, марганец, калий, ионы меди, алюминия, серебра, кобальта, цинка и никеля. Способствует снятию обострения хронических заболеваний и восстановлению функций желудочно-кишечного тракта, повышению общего иммунного статуса.Люцерна содержит омега-3 и омега-6 аминокислоты, витамины С, Е, В. Оказывает благоприятное воздействие на структуру волос, здоровье глаз, строение ногтевой пластины и ее укрепление. Восстанавливает энергетический баланс после перенесенных заболеваний, укрепляет кровеносные сосуды, способствует профилактике сахарного диабета. Укрепляет иммунитет, снимает боль в суставах, активизирует клетки организма на борьбу с вирусом или инфекциейЛ-аргинин  одна из самых важных аминокислот в нашем организме. Играет важную роль в процессах обмена веществ, усиливает выработку соматотропина (гормона роста). У мужчин усиливает приток крови к половым органам и увеличивается количество семенной жидкости, благодаря чему создаются оптимальные условия для продолжительной и устойчивой эрекции.Черника рекомендуется при заболевании глаз (катаракты, ночной слепоты, увеитов, ретинопатий), болезней сердечно-сосудистой системы (атеросклероза, артериальной гипертензии, ишемической болезни сердца, тромбозов, варикозной болезни вен), железодефицитной анемии, нарушений обмена веществ (сахарного диабета 2 типа, подагры, ожирения), неврологических патологий (старческой деменции, болезни Альцгеймера).Концентрат Фитоведъ №1 оказывает эффективное действие:при импотенции.при дегенеративных изменениях предстательной железы.при нарушении мочеиспускания.при нарушении сперматогенеза.при воспалительных процессах органов мочеполовой системы у мужчин и женщин.при бесплодии.при нарушении образования тестостерона у мужчин.при нарушении функций и состояния органов эндокринной системы (гипофиз, щитовидная железа, кора надпочечников, яичники или яички).при общей слабости.при железодефицитной анемии.при сниженном иммунитете.при хронической усталости, депрессивных состояниях.при нарушении обменных процессов (повышенном содержании сахара в крови, лишней массе тела).Состав: пантогематоген (кровь марала), водный настой лекарственных растений: красный корень, зверобой, чага, люцерна, лист черники, корень солодки, крапива, сахар, Л-аргинин, сорбат калия, аскорбиновая кислота. Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл).  Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл). Модель: alta-10. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Увеличение количества спермы. Препараты и возбудители &gt; Предотвращение простатита. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Концентрат Натурведъ № 31 Мужская сила  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для мужского здоровья и долголетия.Концентрат способствует:профилактике простатита и воспалений мочеполовых путейвосстановлению эректильной функции и увеличению сперматогенезанормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного трактаспособствует выработке тестостеронаулучшает приток крови к органам малого таза и увеличивает потенциюоказывает эффективное противовоспалительное действиеЭкстракт бобровой струи  природный антибиотик и адаптоген, оказывает высокую эффективность при всех формах полового бессилия, активизирует защитные силы организма, увеличивает работоспособность, омолаживает и очищает организм, обладает регенерирующим и восстанавливающим действием, улучшая работу каждого органа и организма в целом.L-аргинин расширяет кровеносные сосуды полового члена и усиливает приток крови к органам малого таза. В результате этого возникает твердая и длительная эрекция, увеличивается продолжительность полового акта. Помимо улучшения потенции, аргинин влияет на состав спермы и предотвращает мужское бесплодие. Аминокислота повышает уровень гормона роста соматотропина  основного вещества, которое отвечает за белковый синтез в мышечной ткани. Она также помогает спортсменам и бодибилдерам приобрести красивое рельефное тело. L-аргинин укрепляет иммунитет и борется со старением.Экстракт йохимбе используется как афродизиак (стимулирует половые органы мужчин, оказывает положительный эффект в лечении психогенной и функциональной эректильной дисфункции), способствует сжиганию жира, позволяет тренироваться дольше и интенсивнее. Обладает общим стимулирующим воздействием на организм, оказывает возбуждающее воздействие на ЦНС, улучшая когнитивные функции, ментальную концентрацию.Экстракт тонгкат али используется для повышения уровня тестостерона, эрекции, улучшения сексуальной жизни, при импотенции и прочих дисфункциях. Рекомендуется при простатите и раннем семяизвержении. Отвечает за выработку половых гормонов, а это в свою очередь помогает повысить общий тонус организма, улучшается самочувствие, прибавляются силы и желание.Экстракт красного корня способен длительное время поддерживать активную половую жизнь мужчины, оказывая стимулирующее действие на потенцию, помогает расслаблению гладкой мускулатуры протоков предстательной железы. Это восстанавливает процесс оттока простатического секрета, и улучшает кровоснабжение органов мочеполовой системы. Активизирует сексуальные возможности мужчины, восстанавливает его организм после тяжелых физических нагрузок, устраняет застои жидкости в простате, усиливает кровообращение во всей репродуктивной системе.Экстракт зверобоя ускоряет артериальный и венозный кровоток, расширяется просвет кровеносного русла, что положительно сказывается на качестве кровенаполнения полового члена при возбуждении. Так же эффективен при эректильной дисфункции психогенного характера, вызванной депрессивным состоянием и стрессами.Способ применения: по 1 капсуле 2 раза в день во время еды. Продолжительность курса 1 месяц, кратность приема не более 4 раз в год.Противопоказания: индивидуальная непереносимость компонентов.Состав: экстракт бобровой струи, L-аргинин, экстракт йохимбе, экстракт тонгкат али, экстракт красного корня, экстракт зверобоя, янтарная кислота, витамин С.Форма выпуска: в упаковке 60 капсул по 0,5 г. Струя бобровая Сила Мужчины (60 капсул).  Струя бобровая Сила Мужчины (60 капсул). Модель: alta-87-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Улучшение качества спермы. Препараты и возбудители &gt; Усиление выносливости. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3567,17 +3653,13 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3603,7 +3685,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>60 капсул</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3623,7 +3705,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3634,17 +3716,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Струя бобровая Сила Мужчины (60 капсул)</t>
+          <t>Струя бобровая Здоровье Женщины 60</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-27273-1299</t>
+          <t>id-27274-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3658,10 +3740,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Концентрат Натурведъ № 31 Мужская сила  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для мужского здоровья и долголетия.Концентрат способствует:профилактике простатита и воспалений мочеполовых путейвосстановлению эректильной функции и увеличению сперматогенезанормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного трактаспособствует выработке тестостеронаулучшает приток крови к органам малого таза и увеличивает потенциюоказывает эффективное противовоспалительное действиеЭкстракт бобровой струи  природный антибиотик и адаптоген, оказывает высокую эффективность при всех формах полового бессилия, активизирует защитные силы организма, увеличивает работоспособность, омолаживает и очищает организм, обладает регенерирующим и восстанавливающим действием, улучшая работу каждого органа и организма в целом.L-аргинин расширяет кровеносные сосуды полового члена и усиливает приток крови к органам малого таза. В результате этого возникает твердая и длительная эрекция, увеличивается продолжительность полового акта. Помимо улучшения потенции, аргинин влияет на состав спермы и предотвращает мужское бесплодие. Аминокислота повышает уровень гормона</t>
+          <t xml:space="preserve">Концентрат Натурведъ № 32 Здоровье женщины  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для женского здоровья и долголетия.Сбалансированный комплекс активных компонентов способствует:профилактике и уменьшению гормональных сбоев, симптомов ПМС и климатерических проявленийуменьшению воспалений и укреплению антивирусной защиты организмаснижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действиемвосстановлению функций и работы мочеполовой системы женщиныповышению либидо.Экстракт бобровой струи оказывает высокую эффективность при проблемах в половой сфере, активизирует защитные силы организма и укрепляет иммунитет.Экстракт горянки снимает воспаления мочеполовых путей, улучшает отток желчи и способствует выведению мелких конкрементов, повышает защитные силы организма, способствует восстановлению при хронической усталости, замедляет процессы старения и благотворно воздействует на кожу и волосы, ускоряет выздоровление после тяжелых болезней, препятствует развитию онкологических процессов, восстанавливает и поддерживает водный баланс в клетках эпидермиса, помогает вывести отеки за счет мочегонного действия.Экстракт заманихи эффективен при физических и психических проблемах у женщин в период менопаузы, при синдроме поликистозных яичников, восстановлении менструального цикла. Расслабляет гладкую мускулатуру, что снижает менструальные боли. Так же усиливает половое влечение. Оказывает бодрящее, тонизирующее действие, мобилизует защитные силы организма.Экстракт красной щётки помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и предклимактерических проявлений.Экстракт боровой матки улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях. Биологически активные вещества, входящие в состав боровой матки, участвуют во многих процессах женского организма, благотворно влияют на обмен веществ и энергетический обмен, повышают иммунитет. Содержание фитогормонов восстанавливает женскую репродуктивную систему, приостанавливает развитие опухолей, помогает при климаксе. Противовоспалительные, регенерирующие способности нашли свое применение при болезнях ЖКТ. Сильный природный антиоксидант позволяет сохранить природную красоту на долгие годы.Способ применения: по 1 капсуле 2 раза в день во время еды. Продолжительность курса 1 месяц, кратность приема не более 4 раз в год.Противопоказания: индивидуальная непереносимость компонентов, беременность, лактация.Состав: экстракт бобровой струи, экстракт горянки, экстракт заманихи, экстракт красной щётки, экстракт боровой матки, янтарная кислота, витамин С.Форма выпуска: в упаковке 60 капсул по 0,5 г. Струя бобровая Здоровье Женщины (60 капсул).  Струя бобровая Здоровье Женщины (60 капсул). Модель: alta-87-2. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3735,7 +3821,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3751,12 +3837,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Струя бобровая Здоровье Женщины 60</t>
+          <t>Концентрат в капсулах НАТУРВЕДЪ №7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-27274-1299</t>
+          <t>id-27603-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3770,10 +3856,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Концентрат Натурведъ № 32 Здоровье женщины  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для женского здоровья и долголетия.Сбалансированный комплекс активных компонентов способствует:профилактике и уменьшению гормональных сбоев, симптомов ПМС и климатерических проявленийуменьшению воспалений и укреплению антивирусной защиты организмаснижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действиемвосстановлению функций и работы мочеполовой системы женщиныповышению либидо.Экстракт бобровой струи оказывает высокую эффективность при проблемах в половой сфере, активизирует защитные силы организма и укрепляет иммунитет.Экстракт горянки снимает воспаления мочеполовых путей, улучшает отток желчи и способствует выведению мелких конкрементов, повышает защитные силы организма, способствует восстановлению при хронической усталости, замедляет процессы старения и благотворно воздействует на кожу и волосы, ускоряет выздоровление после тяжелых болезней, препятствует развитию онкологических процессов, восстанавливает и поддерживает водный баланс в клетках эпидермиса, помогает вывести отеки за счет мочегонного действия.Экстракт заманихи эффективен при физических и психических проблемах у женщин в период менопаузы, при синдроме поликистозных яичников, восстановлении менструального цикла. Расслабляет гладкую мускулатуру, что снижает менструальные боли. Так же усиливает половое влечение. Оказывает бодрящее, тонизирующее действие, м</t>
+          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствует профилактике гормональных сбоев.улучшению работы органов эндокринной системы, выступает в качестве мощного противодействия оксидативному стрессу, не допуская развития онкологических новообразований.снижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действием.восстановлению репродуктивной функции и работы мочеполовой системы в целом.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой.Пантогематоген восстанавливает гормональный баланс и либидо, возвращая чувствительность интимных мест.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красная щётка помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и климактерических проявлений.Боровая матка улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт). Модель: alta-88. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3827,7 +3917,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>60 капсул</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3847,7 +3937,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Возбуждающие средства</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3858,17 +3948,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Концентрат в капсулах НАТУРВЕДЪ №7</t>
+          <t>Струя бобровая с живицей кедра 30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-27603-1299</t>
+          <t>id-27838-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3882,10 +3972,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствует профилактике гормональных сбоев.улучшению работы органов эндокринной системы, выступает в качестве мощного противодействия оксидативному стрессу, не допуская развития онкологических новообразований.снижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действием.восстановлению репродуктивной функции и работы мочеполовой системы в целом.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой.Пантогематоген восстанавливает гормональный баланс и либидо, возвращая чувствительность интимных мест.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красная щётка помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и климактерических проявлений.Боровая матка улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт). Модель: alta-88. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Живица кедра  это мощнейший антиоксидант природного происхождения и прекрасный иммуностимулятор. Регулярное употребление живицы включает процесс регенерации на клеточном уровне. Кедровая живица бережно очищает весь организм, восстанавливая структуру и функцию клеток печени и поджелудочной железы, выводит из организма соли тяжёлых металлов. Она обладает общеукрепляющим действием, снижает синдром хронической усталости, повышает умственную и физическую работоспособность, нормализует сердечную деятельность, в том числе при инфаркте миокарда.Витамин С весьма важен для нормальной работы сердечно-сосудистой системы, поскольку укрепляет сосудистую стенку и мешает развитию атеросклероза. Аскорбиновая кислота предохраняет организм от инфекций, укрепляя иммунитет, удлиняет продолжительность жизни. В случае курения, потребность в суточной дозе витамина С гораздо возрастает.Показания к применению:заболевания бронхо-легочной системы.неврологические расстройства.заболевания урологического характера у мужчин (простатит, импотенция, геморрой).гинекологические проблемы у женщин (молочница, миома и другие).болезни органов мочеполовой системы (цистит, пиелонефрит и другие).заболевания опорно-двигательного аппарата (травмы, восстановительный послеоперационный период).болезни органов зрения (катаракта, конъюнктивит, возрастное снижение качества зрения).заболевания сердечно-сосудистой системы (артериальная гипертензия, инфаркты, инсульты).сахарный диабет.гепатиты А и В.заболевания желудочно-кишечного тракта (язва желудка, поджелудочная железа).тромбофлебит.Способ применения: употреблять внутрь по 1капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок). Струя бобровая с живицей кедра (30 капсул).  Струя бобровая с живицей кедра (30 капсул). Модель: alta-89. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Усиление выносливости. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3939,7 +4033,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>30 купсул</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3965,22 +4059,22 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>АЛТАВЕДЪ</t>
+          <t>АЛВИТТА</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Струя бобровая с живицей кедра 30</t>
+          <t>Сироп боровой матки с красной щеткой и</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-27838-1299</t>
+          <t>id-22026-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3994,10 +4088,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Живица кедра  это мощнейший антиоксидант природного происхо</t>
+          <t xml:space="preserve">Сироп боровой матки с красной щеткой и шалфеем Женская стать - это натуральный профилактический напиток, обогащенный витамином С. Уникальная по своему составу и воздействию композиция, состоящая из боровой матки и красной щетки, считающихся женскими растениями, с добавлением клевера, шалфея и кедрового ореха в комплексе способствует сохранению и восстановлению женской молодости и привлекательности, словно бы поворачивая время вспять.Лист боровой матки (ортилия однобокая) - это природный источник женского гормона прогестерона, в том числе отвечающего за способность к оплодотворению и вынашиванию ребенка. Успешно используется при гормональном дисбалансе женщины в любом возрасте.Корень красной щетки (родиола четырехчленная) богат микро - и макроэлементами, витаминами, способствует нормализации гормонального баланса и устранению патологий, спровоцированных сбоями в работе эндокринной системы.Лист шалфея природный женский фитоэстроген. Сироп боровой матки с красной щеткой и шалфеем Женская стать (200 мл).  Сироп боровой матки с красной щеткой и шалфеем "Женская стать" (200 мл). Модель: alvitta-72. Косметика, препараты. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛВИТТА. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4019,13 +4117,17 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -4051,7 +4153,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>30 капсул</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4071,28 +4173,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>АЛВИТТА</t>
+          <t>AMOR</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Сироп боровой матки с красной щеткой и</t>
+          <t>Классические презервативы AMOR NATURE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-22026-1299</t>
+          <t>id-24872-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4106,49 +4208,63 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24872/24872_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сироп боровой матки с красной щеткой и шалфеем Женская стать - это натуральный профилактический напиток, обогащенный витамином С. Уникальная по своему составу и воздействию композиция, состоящая из боровой матки и красной щетки, считающихся женскими растениями, с добавлением клевера, шалфея и кедрового ореха в комплексе способствует сохранению и восстановлению женской молодости и привлекательности, словно бы поворачивая время вспять.Лист боровой матки (ортилия однобокая) - это природный источник женского гормона прогестерона, в том числе отвечающего за способность к оплодотворению и вынашиванию ребенка. Успешно используется при гормональном дисбалансе женщины в любом возрасте.Корень красной щетки (родиола четырехчленная) богат микро - и макроэлементами, витаминами, способствует нормализации гормонального баланса и устранению патологий, спровоцированных сбоями в работе эндокринной системы.Лист шалфея природный женский фитоэстроген. Сироп боровой матки с красной щеткой и шалфеем Женская стать (200 мл).  Сироп боровой матки с красной щеткой и шалфеем "Женская стать" (200 мл). Модель: alvitta-72. Косметика, препараты. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛВИТТА. </t>
+          <t xml:space="preserve">Классические презервативы AMOR Nature обеспечивают прочную защиту и комфорт с 1968 года. Идеально для тех, кто ценит постоянство и простоту.    Гладкие, бесцветные, без запаха.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.СТАБИЛЬНО ВЫСОКОЕ КАЧЕСТВО ОТ AMOR- собственное производство латекса и готовой продукции обеспечивает 100% контроль производства- трехэтапная проверка электроникой готовой продукции.Классические презервативы AMOR NATURE 18 см (3 шт).  Классические презервативы AMOR NATURE 18 см (3 шт). Модель: amor-1001. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>18</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -4167,7 +4283,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4203,12 +4319,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Классические презервативы AMOR NATURE</t>
+          <t>Ароматизированные презервативы AMOR</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-24872-1299</t>
+          <t>id-24878-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4222,10 +4338,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24878/24878_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические презервативы AMOR Nature обеспечивают прочную защиту и комфорт с 1968 года. Идеально для тех, кто ценит постоянство и простоту.    Гладкие, бесцветные, без запаха.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.СТАБИЛЬНО ВЫСОКОЕ КАЧЕСТВО ОТ AMOR- собственное производство латекса и готовой продукции обеспечивает 100% контроль производства- трехэтапная проверка электроникой готовой продукции.Классические презервативы AMOR NATURE 18 см (3 шт).  Классические презервативы AMOR NATURE 18 см (3 шт). Модель: amor-1001. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
+          <t xml:space="preserve">Коллекция презервативов AMOR Fruit с тонкими ароматами для ярких, красочных впечатлений. Идеально для тех, кто стремится к легкости и игре.    Ароматизированные, цветные, гладкие.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.1 презерватив с ароматом апельсина, розового цвета1 презерватив с ароматом шоколада, черного цвета1 презерватив с ароматом банана, желтого цвета.Ароматизированные презервативы AMOR FRUIT 18 см (3 шт).  Ароматизированные презервативы AMOR FRUIT 18 см (3 шт). Модель: amor-1003. Презервативы. Презервативы &gt; Ароматизированные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4313,32 +4433,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AMOR</t>
+          <t>AMOR EL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ароматизированные презервативы AMOR</t>
+          <t>Бесшовное мини-платье с фантазийным</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-24878-1299</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+          <t>id-27873-1299</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>99999</v>
@@ -4348,15 +4476,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллекция презервативов AMOR Fruit с тонкими ароматами для ярких, красочных впечатлений. Идеально для тех, кто стремится к легкости и игре.    Ароматизированные, цветные, гладкие.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.1 презерватив с ароматом апельсина, розового цвета1 презерватив с ароматом шоколада, черного цвета1 презерватив с ароматом банана, желтого цвета.Ароматизированные презервативы AMOR FRUIT 18 см (3 шт).  Ароматизированные презервативы AMOR FRUIT 18 см (3 шт). Модель: amor-1003. Презервативы. Презервативы &gt; Ароматизированные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
+          <t xml:space="preserve">Эротическое мини-платье с глубоким круглым вырезом. Дизайн в виде кружевного рисунка и дополнен имитацией шнуровки спереди. Благодаря использованию большего количества нейлона белье сохраняет очертания, не деформируется, растягивается и выгодно облегает фигуру. А за счет эластана, даже после сильного растяжения, оно не деформируются, и всегда принимает исходную форму.Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на упаковке. Бесшовное мини-платье с фантазийным узором.  Бесшовное мини-платье с фантазийным узором. Модель: amor-el-071slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4371,7 +4503,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4386,21 +4518,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W32" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X32" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>18</v>
-      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -4419,7 +4541,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4439,7 +4561,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4455,12 +4577,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Бесшовное мини-платье с фантазийным</t>
+          <t>Колготки с имтацией чулок и пояса Amor</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-27873-1299</t>
+          <t>id-25285-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4482,15 +4604,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое мини-платье с глубоким круглым вырезом. Дизайн в виде кружевного рисунка и дополнен имитацией шнуровки спереди. Благодаря использованию большего количества нейлона белье сохраняет очертания, не деформируется, растягивается и выгодно облегает фигуру. А за счет эластана, даже после сильного растяжения, оно не деформируются, и всегда принимает исходную форму.Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на упаковке. Бесшовное мини-платье с фантазийным узором.  Бесшовное мини-платье с фантазийным узором. Модель: amor-el-071slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией на упаковке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-101slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4505,7 +4631,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>94% нейлон, 6% спандекс</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4543,7 +4669,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4584,7 +4710,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-25285-1299</t>
+          <t>id-25282-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4606,10 +4732,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией на упаковке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-101slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на этикетке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-102slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4687,7 +4817,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -4703,12 +4833,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Колготки с имтацией чулок и пояса Amor</t>
+          <t>Комплект эротического белья</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-25282-1299</t>
+          <t>id-25535-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4730,30 +4860,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на этикетке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-102slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Комплект эротического белья, состоящего из кружевного бюстгальтера с вырезами в районе сосков и элегантных ажурных стринг с игривым вырезом. Комплект эротического белья.  Комплект эротического белья. Модель: amor-el-3010-1slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>94% нейлон, 6% спандекс</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4791,7 +4925,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4811,13 +4945,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AMOR EL</t>
+          <t>ANAIS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4827,22 +4961,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Комплект эротического белья</t>
+          <t>Черные откровенные трусики Jill с</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-25535-1299</t>
+          <t>id-16562-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -4854,30 +4988,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья, состоящего из кружевного бюстгальтера с вырезами в районе сосков и элегантных ажурных стринг с игривым вырезом. Комплект эротического белья.  Комплект эротического белья. Модель: amor-el-3010-1slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">.Черные откровенные трусики Jill с бантом на ягодицах L.  Черные откровенные трусики Jill с бантом на ягодицах L. Модель: anais-1206lb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: ANAIS. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -4915,7 +5053,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4935,40 +5073,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ANAIS</t>
+          <t>ARLETTE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Черные откровенные трусики Jill с</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-16562-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-22301-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -4978,30 +5108,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22301/22301_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные откровенные трусики Jill с бантом на ягодицах L.  Черные откровенные трусики Jill с бантом на ягодицах L. Модель: anais-1206lb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: ANAIS. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 3 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (3 шт).  Презервативы Arlette Light ультратонкие № 1 (3 шт). Модель: arlette-801. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5075,12 +5209,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-22301-1299</t>
+          <t>id-22304-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5094,10 +5228,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22304/22304_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 3 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (3 шт).  Презервативы Arlette Light ультратонкие № 1 (3 шт). Модель: arlette-801. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 3! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Практичная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (3 шт).  Презервативы Arlette Classic классические № 2 (3 шт). Модель: arlette-802. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5191,12 +5329,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-22304-1299</t>
+          <t>id-22293-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5210,10 +5348,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22293/22293_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 3! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Практичная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (3 шт).  Презервативы Arlette Classic классические № 2 (3 шт). Модель: arlette-802. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт). Модель: arlette-803. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5233,7 +5375,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5250,9 +5392,15 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -5271,7 +5419,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5307,12 +5455,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Точечные презервативы Arlette Dotted №</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-22293-1299</t>
+          <t>id-22291-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5326,10 +5474,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22291/22291_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт). Модель: arlette-803. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (3 шт).  Точечные презервативы Arlette Dotted № 4 (3 шт). Модель: arlette-804. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5429,12 +5581,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Точечные презервативы Arlette Dotted №</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-22291-1299</t>
+          <t>id-22302-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5448,10 +5600,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22302/22302_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (3 шт).  Точечные презервативы Arlette Dotted № 4 (3 шт). Модель: arlette-804. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 6 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (6 шт).  Презервативы Arlette Light ультратонкие № 1 (6 шт). Модель: arlette-806. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5471,7 +5627,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5488,15 +5644,9 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
@@ -5515,7 +5665,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5551,12 +5701,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-22302-1299</t>
+          <t>id-22305-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5570,10 +5720,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22305/22305_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 6 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (6 шт).  Презервативы Arlette Light ультратонкие № 1 (6 шт). Модель: arlette-806. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 6! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день.Презервативы Arlette Classic классические № 2 (6 шт).  Презервативы Arlette Classic классические № 2 (6 шт). Модель: arlette-807. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5667,12 +5821,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-22305-1299</t>
+          <t>id-22294-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5686,10 +5840,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22294/22294_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 6! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день.Презервативы Arlette Classic классические № 2 (6 шт).  Презервативы Arlette Classic классические № 2 (6 шт). Модель: arlette-807. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт). Модель: arlette-808. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5709,7 +5867,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5726,9 +5884,15 @@
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="Y43" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -5747,7 +5911,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>6 презервативов</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5783,12 +5947,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Точечные презервативы Arlette Dotted №</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22294-1299</t>
+          <t>id-22292-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5802,10 +5966,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22292/22292_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт). Модель: arlette-808. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (6 шт).  Точечные презервативы Arlette Dotted № 4 (6 шт). Модель: arlette-809. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5905,12 +6073,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Точечные презервативы Arlette Dotted №</t>
+          <t>Презервативы Arlette Strong</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-22292-1299</t>
+          <t>id-22299-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5924,15 +6092,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22299/22299_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (6 шт).  Точечные презервативы Arlette Dotted № 4 (6 шт). Модель: arlette-809. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 6 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (6 шт).  Презервативы Arlette Strong ультрапрочные № 5 (6 шт). Модель: arlette-810. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5947,7 +6119,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -5991,7 +6163,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6027,12 +6199,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Strong</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22299-1299</t>
+          <t>id-22303-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6046,15 +6218,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22303/22303_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 6 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (6 шт).  Презервативы Arlette Strong ультрапрочные № 5 (6 шт). Модель: arlette-810. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 12 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (12 шт).  Презервативы Arlette Light ультратонкие № 1 (12 шт). Модель: arlette-812. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6086,15 +6262,9 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
@@ -6149,12 +6319,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-22296-1299</t>
+          <t>id-22306-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6168,10 +6338,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22306/22306_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увеличенные презервативы Arlette XXL №6 подходят мужчинам, которым повезло с размером. Их длина и диаметр больше стандартных - увеличены до 200х56 мм. Это обеспечивает максимально комфортные ощущения. Презервативы быстро надеваются, не сдавливают пенис и не съезжают во время секса. Гладкая поверхность придает процессу легкость скольжения. Высокое качество латекса гарантирует полноценную защиту обоим партнерам. Приятный аромат без запаха резины не отвлекает от достоинств интимной встречи. Удобная упаковка с 6-ю презервативами спокойно помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Увеличенные презервативы Arlette XXL помогут доказать, что размер имеет значение. Презервативы увеличенного размера Arlette XXL № 6 (6 шт).  Презервативы увеличенного размера Arlette XXL № 6 (6 шт). Модель: arlette-811. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic №12. Их гладкая поверхность дает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (12 шт).  Презервативы Arlette Classic классические № 2 (12 шт). Модель: arlette-813. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6208,25 +6382,15 @@
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6275,12 +6439,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22303-1299</t>
+          <t>id-22295-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6294,10 +6458,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22295/22295_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 12 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (12 шт).  Презервативы Arlette Light ультратонкие № 1 (12 шт). Модель: arlette-812. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт). Модель: arlette-814. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6317,7 +6485,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6334,9 +6502,15 @@
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="Y48" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
@@ -6355,7 +6529,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 презервативов</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6391,12 +6565,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы Arlette Strong</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22306-1299</t>
+          <t>id-22300-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6410,15 +6584,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22300/22300_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic №12. Их гладкая поверхность дает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (12 шт).  Презервативы Arlette Classic классические № 2 (12 шт). Модель: arlette-813. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 12 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (12 шт).  Презервативы Arlette Strong ультрапрочные № 5 (12 шт). Модель: arlette-816. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6450,9 +6628,15 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
@@ -6507,12 +6691,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Презервативы увеличенного размера</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-22295-1299</t>
+          <t>id-22297-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6526,10 +6710,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22297/22297_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт). Модель: arlette-814. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Увеличенные презервативы Arlette XXL № 12 подходят мужчинам, которым повезло с размером. Их длина и диаметр больше стандартных - увеличены до 200х56 мм. Это дарит максимально комфортные ощущения. Презервативы быстро надеваются, не сдавливают пенис и не съезжают во время секса. Гладкая поверхность придает процессу легкость скольжения. Высокое качество латекса гарантирует полноценную защиту обоим партнерам. Приятный аромат без запаха резины не отвлекает от достоинств интимной встречи. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Увеличенные презервативы Arlette XXL помогут доказать, что размер имеет значение. Презервативы увеличенного размера Arlette XXL № 6 (12 шт).  Презервативы увеличенного размера Arlette XXL № 6 (12 шт). Модель: arlette-817. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6549,7 +6737,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6567,20 +6755,24 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="n">
-        <v>20.35</v>
+        <v>22</v>
       </c>
       <c r="Z50" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
+      <c r="AF50" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>5.6</v>
+      </c>
       <c r="AH50" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6593,7 +6785,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>12 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -6634,7 +6826,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-22300-1299</t>
+          <t>id-22298-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6648,10 +6840,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22298/22298_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 12 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (12 шт).  Презервативы Arlette Strong ультрапрочные № 5 (12 шт). Модель: arlette-816. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 3 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (3 шт).  Презервативы Arlette Strong ультрапрочные № 5 (3 шт). Модель: arlette-821. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6735,28 +6931,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ARLETTE</t>
+          <t>АРТ КОНСЕРВЫ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера</t>
+          <t>Лубрикант на водной основе КЛЕЙ ДЛЯ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-22297-1299</t>
+          <t>id-27388-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6770,10 +6966,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увеличенные презервативы Arlette XXL № 12 подходят мужчинам, которым повезло с размером. Их длина и диаметр больше стандартных - увеличены до 200х56 мм. Это дарит максимально комфортные ощущения. Презервативы быстро надеваются, не сдавливают пенис и не съезжают во время секса. Гладкая поверхность придает процессу легкость скольжения. Высокое качество латекса гарантирует полноценную защиту обоим партнерам. Приятный аромат без запаха резины не отвлекает от достоинств интимной встречи. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Увеличенные презервативы Arlette XXL помогут доказать, что размер имеет значение. Презервативы увеличенного размера Arlette XXL № 6 (12 шт).  Презервативы увеличенного размера Arlette XXL № 6 (12 шт). Модель: arlette-817. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">В паре произошел разлад? На помощь придет Клей для отношений. Отношения охладели? Клей для отношений поможет их оживить.Клей для отношений - это интимный лубрикант, помогающий склеить и укрепить отношения. Качественный, безопасный состав повышает уровень комфорта и удовольствия в интимной близости.Яркая упаковка с оригинальным дизайном не только имеет привлекательный вид, но и гарантированно помогает разрядить обстановку и наладить контакт. Упаковка стилизована под тюбик клея. На лицевой стороне присутствует шуточная инструкция по применению. Клей для отношений может стать отличным подарком для половинки по поводу и без повода.Сертифицированный товар производится в России и имеет уникальный состав, не нарушает pH баланс естественной флоры. Достойная цена и высокое качество лубриканта на водной основе сделали его востребованным среди мужчин и женщин. Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл).  Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл). Модель: art-99. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: АРТ КОНСЕРВЫ. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6791,44 +6991,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6861,28 +7051,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ARLETTE</t>
+          <t>ART STYLE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Strong</t>
+          <t>Пудра для бережного хранения</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-22298-1299</t>
+          <t>id-20360-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6896,15 +7086,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20360/20360_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 3 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (3 шт).  Презервативы Arlette Strong ультрапрочные № 5 (3 шт). Модель: arlette-821. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Пудра предназначена для ухода и защиты изделий из самого нежного материала, имитирующего настоящую кожу. Впитывая влагу, пудра предотвращает преждевременное разрушение материала и сохраняет текстуру бархатистой. Способ применения: вымыть и просушить игрушку с помощью салфетки. Присыпать пудрой, равномерно распределяя ее по поверхности. Состав: кукурузный крахмал. Пудра для бережного хранения секс-игрушек Powder (30 г).  Пудра для бережного хранения секс-игрушек Powder (30 г). Модель: artstyle-040012. Секс-игрушки. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ART STYLE. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6917,11 +7111,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
@@ -6936,15 +7126,9 @@
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
@@ -6983,28 +7167,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>АРТ КОНСЕРВЫ</t>
+          <t>ARUELLE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе КЛЕЙ ДЛЯ</t>
+          <t>Пижама женская DOMINIQUE XXL 52</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-27388-1299</t>
+          <t>id-28312-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -7018,42 +7202,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">В паре произошел разлад? На помощь придет Клей для отношений. Отношения охладели? Клей для отношений поможет их оживить.Клей для отношений - это интимный лубрикант, помогающий склеить и укрепить отношения. Качественный, безопасный состав повышает уровень комфорта и удовольствия в интимной близости.Яркая упаковка с оригинальным дизайном не только имеет привлекательный вид, но и гарантированно помогает разрядить обстановку и наладить контакт. Упаковка стилизована под тюбик клея. На лицевой стороне присутствует шуточная инструкция по применению. Клей для отношений может стать отличным подарком для половинки по поводу и без повода.Сертифицированный товар производится в России и имеет уникальный состав, не нарушает pH баланс естественной флоры. Достойная цена и высокое качество лубриканта на водной основе сделали его востребованным среди мужчин и женщин. Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл).  Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл). Модель: art-99. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: АРТ КОНСЕРВЫ. </t>
+          <t xml:space="preserve">Добавьте изысканности в свой день с помощью этой элегантной и романтичной пижамы Dominique. Верхняя часть пижамы украшена нежным кружевом. Штаны с карманами и эластичным поясом, дополнительно украшены небольшим бантиком. Пижама женская DOMINIQUE XXL (52 размер).  Пижама женская DOMINIQUE XXL (52 размер). Модель: aruelle-dominiquexxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 62% вискоза, 38% полиэстер. Батареек нет в комплекте. Бренд: ARUELLE. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Латвия</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>62% вискоза, 38% полиэстер</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -7079,7 +7267,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>майка и штаны</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7099,32 +7287,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ART STYLE</t>
+          <t>AVANUA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Пудра для бережного хранения</t>
+          <t>Корсаж на косточках с открытой грудью</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-20360-1299</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+          <t>id-12081-1299</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>99999</v>
@@ -7134,28 +7330,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12081/12081_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пудра предназначена для ухода и защиты изделий из самого нежного материала, имитирующего настоящую кожу. Впитывая влагу, пудра предотвращает преждевременное разрушение материала и сохраняет текстуру бархатистой. Способ применения: вымыть и просушить игрушку с помощью салфетки. Присыпать пудрой, равномерно распределяя ее по поверхности. Состав: кукурузный крахмал. Пудра для бережного хранения секс-игрушек Powder (30 г).  Пудра для бережного хранения секс-игрушек Powder (30 г). Модель: artstyle-040012. Секс-игрушки. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ART STYLE. </t>
+          <t xml:space="preserve">Мегасексуальная модель! Корсаж, который станет №1 в твоём арсенале для обольщений.  Белье выполнено из эластичной ткани с виниловым напылением. Корсаж сделан таким образом, что грудь прекрасно поддерживается, но при этом остается полностью открытой. Кроме того, его не нужно снимать во время любовных игр .).Корсаж на косточках с открытой грудью Debora SM.  Корсаж на косточках с открытой грудью Debora SM. Модель: avanua-03229smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 95% полиэстер, 5% эластан (наподобие винила). Батареек нет в комплекте. Бренд: AVANUA. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>95% полиэстер, 5% эластан (наподобие винила)</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
@@ -7191,7 +7395,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>корсаж, стринги</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7211,13 +7415,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>AVANUA</t>
+          <t>BACI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7227,22 +7431,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Корсаж на косточках с открытой грудью</t>
+          <t>Вишневый комплект с юбочкой</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-12081-1299</t>
+          <t>id-14755-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7254,15 +7458,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мегасексуальная модель! Корсаж, который станет №1 в твоём арсенале для обольщений.  Белье выполнено из эластичной ткани с виниловым напылением. Корсаж сделан таким образом, что грудь прекрасно поддерживается, но при этом остается полностью открытой. Кроме того, его не нужно снимать во время любовных игр .).Корсаж на косточках с открытой грудью Debora SM.  Корсаж на косточках с открытой грудью Debora SM. Модель: avanua-03229smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 95% полиэстер, 5% эластан (наподобие винила). Батареек нет в комплекте. Бренд: AVANUA. </t>
+          <t xml:space="preserve">.Вишневый комплект с юбочкой.  Вишневый комплект с юбочкой. Модель: baci-1039sl. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Цвет: вишневый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7277,7 +7485,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>95% полиэстер, 5% эластан (наподобие винила)</t>
+          <t>100% нейлон</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7315,7 +7523,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>корсаж, стринги</t>
+          <t>лиф, юбочка</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7335,7 +7543,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7351,22 +7559,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Вишневый комплект с юбочкой</t>
+          <t>Бюстгальтер на плотных чашечках 32 B</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-14755-1299</t>
+          <t>id-15569-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7378,10 +7586,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вишневый комплект с юбочкой.  Вишневый комплект с юбочкой. Модель: baci-1039sl. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Цвет: вишневый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бюстгальтер на плотных чашечках 32 B.  Бюстгальтер на плотных чашечках 32 B. Модель: baci-1058-32b. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7399,11 +7611,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>100% нейлон</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
@@ -7439,7 +7647,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>лиф, юбочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7475,12 +7683,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Бюстгальтер на плотных чашечках 32 B</t>
+          <t>Бюстгальтер кружевной на косточках 32 С</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-15569-1299</t>
+          <t>id-15568-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7502,10 +7710,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер на плотных чашечках 32 B.  Бюстгальтер на плотных чашечках 32 B. Модель: baci-1058-32b. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бюстгальтер кружевной на косточках 32 С.  Бюстгальтер кружевной на косточках 32 С. Модель: baci-1103-32c. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7595,22 +7807,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Бюстгальтер кружевной на косточках 32 С</t>
+          <t>Бюстгальтер в цветочек на косточках 36</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-15568-1299</t>
+          <t>id-15570-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7622,10 +7834,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер кружевной на косточках 32 С.  Бюстгальтер кружевной на косточках 32 С. Модель: baci-1103-32c. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бюстгальтер в цветочек на косточках 36 D.  Бюстгальтер в цветочек на косточках 36 D. Модель: baci-1108-36d. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: черный, красный, зеленый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7699,7 +7915,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -7715,12 +7931,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Бюстгальтер в цветочек на косточках 36</t>
+          <t>Комплект белья Mafia</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-15570-1299</t>
+          <t>id-3848-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7742,10 +7958,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер в цветочек на косточках 36 D.  Бюстгальтер в цветочек на косточках 36 D. Модель: baci-1108-36d. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: черный, красный, зеленый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Особый покрой для особых случаев - привлекательный ярко-розовый комплект бебидолл из слегка прозрачного материала поражает тонкой черной каймой и экстремально укороченным дизайном. Цветные стринги G-образной формы с милым бантиком дополняют чувственный гарнитур.Комплект белья Mafia.  Комплект белья Mafia. Модель: baci-237slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый с черным. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7799,7 +8019,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Топ, стринги</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7835,22 +8055,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Комплект белья Mafia</t>
+          <t>Бежевый комплект с черным кружевом ML</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-3848-1299</t>
+          <t>id-10782-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -7862,10 +8082,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Особый покрой для особых случаев - привлекательный ярко-розовый комплект бебидолл из слегка прозрачного материала поражает тонкой черной каймой и экстремально укороченным дизайном. Цветные стринги G-образной формы с милым бантиком дополняют чувственный гарнитур.Комплект белья Mafia.  Комплект белья Mafia. Модель: baci-237slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый с черным. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бежевый комплект с черным кружевом ML.  Бежевый комплект с черным кружевом ML. Модель: baci-877mlb. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: бежевый, черный. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7919,7 +8143,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>Топ, стринги</t>
+          <t>лиф на косточках, стринги</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7939,7 +8163,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -7955,22 +8179,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Бежевый комплект с черным кружевом ML</t>
+          <t>Черная маскарадная маска со стразами</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-10782-1299</t>
+          <t>id-12726-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -7982,10 +8206,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12726/12726_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бежевый комплект с черным кружевом ML.  Бежевый комплект с черным кружевом ML. Модель: baci-877mlb. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: бежевый, черный. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Черная маскарадная маска со стразами Masq Madame.  Черная маскарадная маска со стразами Masq Madame. Модель: baci-masq-5. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: металл, стразы. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -8003,7 +8231,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>металл, стразы</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
@@ -8039,7 +8271,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>лиф на косточках, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8059,40 +8291,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Секс куклы</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BACI</t>
+          <t>BAILE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Черная маскарадная маска со стразами</t>
+          <t>Реалистичная секс-кукла Margo</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-12726-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25846-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8102,15 +8326,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_12_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная маскарадная маска со стразами Masq Madame.  Черная маскарадная маска со стразами Masq Madame. Модель: baci-masq-5. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: металл, стразы. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Привет всем! Я Margo, и я буду твоим спасателем сегодня! Я девушка живущая мечтой и весело проводящая время на солнце! Я авантюрная и общительная, я люблю танцевать, я люблю плавать, и я люблю играть. В старших классах я была капитаном команды черлидеров, и у меня все еще есть пластичность движений, но скажу тебе так - плавать веселее, одежда тебя не стесняет! Я не буду лгать, я горжусь своим телом, мне нравится, какая у меня узкая талия, какие у меня большие классные сиськи, и насколько я сильная и гибкая. Я хвастаюсь своим телом, но не обманывайся - только мой единственный сможет прикоснуться ко мне. Может показаться, что я дикая тусовщица и не особо разборчива в связях, но я однолюбка, и я очень надеюсь, что мой мужчина это ты!Хочешь узнать меня немного ближе?● у меня нежная кожа из реалистичного материала● я могу меняться по твоему настроению  у меня сменный парик● я могу обнимать тебя и принимать разные позы  у меня гибкие конечности● я могу принимать тебя тремя способами  орально, анально и вагинально● глубина влагалища 18 см, глубина ануса 18 см, глубина полости рта 15 см● мои параметры: 93х56х89 см, рост 168 см, длина стопы 21 см, вес 37 кгВо избежание окрашивания и деформации поверхности куклы рекомендуется использовать бельё и принадлежности, идущие в комплекте. Реалистичная секс-кукла Margo.  Реалистичная секс-кукла Margo. Модель: baile-00012693. Секс-игрушки. Секс куклы &gt; Живые куклы. Цвет: светлокожая блондинка. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -8125,7 +8353,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>металл, стразы</t>
+          <t>нежный TPE (вторая кожа)</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8147,8 +8375,12 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>19.8</v>
+      </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr">
@@ -8156,14 +8388,24 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
+      <c r="AI63" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>37000</v>
+      </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>нижнее белье, парик, расческа, белая комбинация, USB-нагреватель, очищающее устройство, белые перчатки, типсы</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8183,7 +8425,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Секс куклы</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8194,17 +8436,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Реалистичная секс-кукла Margo</t>
+          <t>Смуглый фаллоимитатор-реалистик на</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-25846-1299</t>
+          <t>id-26512-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8218,10 +8460,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_9_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Привет всем! Я Margo, и я буду твоим спасателем сегодня! Я девушка живущая мечтой и весело проводящая время на солнце! Я авантюрная и общительная, я люблю танцевать, я люблю плавать, и я люблю играть. В старших классах я была капитаном команды черлидеров, и у меня все еще есть пластичность движений, но скажу тебе так - плавать веселее, одежда тебя не стесняет! Я не буду лгать, я горжусь своим телом, мне нравится, какая у меня узкая талия, какие у меня большие классные сиськи, и насколько я сильная и гибкая. Я хвастаюсь своим телом, но не обманывайся - только мой единственный сможет прикоснуться ко мне. Может показаться, что я дикая тусовщица и не особо разборчива в связях, но я однолюбка, и я очень надеюсь, что мой мужчина это ты!Хочешь узнать меня немного ближе?● у меня нежная кожа из реалистичного материала● я могу меняться по твоему настроению  у меня сменный парик● я могу обнимать тебя и принимать разные позы  у меня гибкие конечности● я могу принимать тебя тремя способами  орально, анально и вагинально● глубина влагалища 18 см, глубина ануса 18 см, глубина полости рта 15 см● мои параметры: 93х56х89 см, рост 168 см, длина стопы 21 см, вес 37 кгВо избежание окрашивания и деформации поверхности куклы рекомендуется использовать бельё и принадлежности, идущие в комплекте. Реалистичная секс-кукла Margo.  Реалистичная секс-кукла Margo. Модель: baile-00012693. Секс-игрушки. Секс куклы &gt; Живые куклы. Цвет: светлокожая блондинка. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Этот потрясающий супер мягкий и реалистичный фаллоимитатор с реалистичной кожей имеет великолепную гибкую форму, которая потрясающе ощущается в руке и еще более приятна в спальне! Идеальный для вагинального или анального проникновения, этот соблазнительный фаллоимитатор имеет крепкую присоску у основания для возможности использовать его на разных гладких поверхностях. Смуглый фаллоимитатор-реалистик на присоске Baron.  Смуглый фаллоимитатор-реалистик на присоске Baron. Модель: baile-008101n. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: смуглый. Материал: гибкий TPR. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8231,17 +8477,17 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа)</t>
+          <t>гибкий TPR</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8258,42 +8504,38 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="n">
+        <v>4.235</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>3.85</v>
+      </c>
       <c r="AH64" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI64" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>37000</v>
-      </c>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>нижнее белье, парик, расческа, белая комбинация, USB-нагреватель, очищающее устройство, белые перчатки, типсы</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8313,7 +8555,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8324,17 +8566,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Смуглый фаллоимитатор-реалистик на</t>
+          <t>Мастурбатор-вагина в форме фонарика</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-26512-1299</t>
+          <t>id-19241-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8348,10 +8590,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот потрясающий супер мягкий и реалистичный фаллоимитатор с реалистичной кожей имеет великолепную гибкую форму, которая потрясающе ощущается в руке и еще более приятна в спальне! Идеальный для вагинального или анального проникновения, этот соблазнительный фаллоимитатор имеет крепкую присоску у основания для возможности использовать его на разных гладких поверхностях. Смуглый фаллоимитатор-реалистик на присоске Baron.  Смуглый фаллоимитатор-реалистик на присоске Baron. Модель: baile-008101n. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: смуглый. Материал: гибкий TPR. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Ваши мечты наконец осуществились! Что может быть лучше, чем киска из материала, имитирующего живое тело. Испытайте вершину блаженства. Супермягкая плоть точно такая же как реальная, только лучше. Теплая как живое тело вагина обнимает вашу плоть. Специальные воздушные полости внутри создают эффект посасывания при использовании. Наслаждение гарантировано. Мастурбатор-вагина в форме фонарика Baby Pussy.  Мастурбатор-вагина в форме фонарика Baby Pussy. Модель: baile-00900t27n. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8371,7 +8617,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>гибкий TPR</t>
+          <t>нежный TPE (вторая кожа), пластик</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8389,23 +8635,23 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="n">
-        <v>17.05</v>
+        <v>25.85</v>
       </c>
       <c r="Z65" t="n">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="n">
-        <v>4.235</v>
+        <v>8.085000000000001</v>
       </c>
       <c r="AG65" t="n">
-        <v>3.85</v>
+        <v>7.35</v>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
@@ -8455,12 +8701,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в форме фонарика</t>
+          <t>Вагина-реалистик в тубе с вибрацией</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-19241-1299</t>
+          <t>id-13493-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8471,13 +8717,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
+          <t>вагина-мастурбатор, пульт  управления</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13493/13493_13493_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ваши мечты наконец осуществились! Что может быть лучше, чем киска из материала, имитирующего живое тело. Испытайте вершину блаженства. Супермягкая плоть точно такая же как реальная, только лучше. Теплая как живое тело вагина обнимает вашу плоть. Специальные воздушные полости внутри создают эффект посасывания при использовании. Наслаждение гарантировано. Мастурбатор-вагина в форме фонарика Baby Pussy.  Мастурбатор-вагина в форме фонарика Baby Pussy. Модель: baile-00900t27n. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Для мужчин, которые не отказывают себе в исполнении эротических желаний, предлагаем замечательный реалистичный мастурбатор. Эта секс-игрушка выполнена в виде женской вагины из материала, имитирующего настоящую кожу. Мастурбатор имеет рельефную внутреннюю поверхность, что позволит ласкать и возбуждать пенис. Растягивается до нужных размеров. Секс-игрушка имеет несколько различных режимов вибрации, легко регулирующихся с помощью выносного пульта управления, который входит в комплект. Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима).  Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима). Модель: baile-00900t29z. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: черный, телесный. TPR (вторая кожа), пластикБренд: BAILE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8487,19 +8737,15 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>нежный TPE (вторая кожа), пластик</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
@@ -8515,24 +8761,20 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="n">
-        <v>25.85</v>
+        <v>27.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="AA66" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="n">
-        <v>8.085000000000001</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8545,7 +8787,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> глубина проникновения 23 см, внутренний диаметр 1 см, макс. ширина 9,4 см</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8581,12 +8823,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Вагина-реалистик в тубе с вибрацией</t>
+          <t>Вакуумный мастурбатор-анус 55 в корпусе</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-13493-1299</t>
+          <t>id-26936-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8597,13 +8839,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>вагина-мастурбатор, пульт  управления</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для мужчин, которые не отказывают себе в исполнении эротических желаний, предлагаем замечательный реалистичный мастурбатор. Эта секс-игрушка выполнена в виде женской вагины из материала, имитирующего настоящую кожу. Мастурбатор имеет рельефную внутреннюю поверхность, что позволит ласкать и возбуждать пенис. Растягивается до нужных размеров. Секс-игрушка имеет несколько различных режимов вибрации, легко регулирующихся с помощью выносного пульта управления, который входит в комплект. Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима).  Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима). Модель: baile-00900t29z. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: черный, телесный. TPR (вторая кожа), пластикБренд: BAILE. </t>
+          <t xml:space="preserve">Мастурбатор из реалистичного материала, напоминающего по ощущениям кожу человека, помещён в пластиковый корпус. Отверстие на вершине корпуса позволяет как нагнетать вакуум во время использования мастурбатора, так и быстро его сбрасывать. Вставка мастурбатора имеет богатый внутренний рельеф и может использоваться в ручном режиме вне корпуса. Форма мастурбатора делает удобным его использование, он не скользит в руках. Вакуумный мастурбатор-анус 55 в корпусе.  Вакуумный мастурбатор-анус 55 в корпусе. Модель: baile-00900t58-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8613,15 +8859,19 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>нежный TPR (вторая кожа), пластик</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
@@ -8637,20 +8887,24 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="n">
-        <v>27.5</v>
+        <v>19.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AA67" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
+      <c r="AF67" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>6.3</v>
+      </c>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8663,7 +8917,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> глубина проникновения 23 см, внутренний диаметр 1 см, макс. ширина 9,4 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8699,12 +8953,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Вакуумный мастурбатор-анус 55 в корпусе</t>
+          <t>Мастурбатор-ротик Baile Pretty Love</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-26936-1299</t>
+          <t>id-25752-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8718,10 +8972,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мастурбатор из реалистичного материала, напоминающего по ощущениям кожу человека, помещён в пластиковый корпус. Отверстие на вершине корпуса позволяет как нагнетать вакуум во время использования мастурбатора, так и быстро его сбрасывать. Вставка мастурбатора имеет богатый внутренний рельеф и может использоваться в ручном режиме вне корпуса. Форма мастурбатора делает удобным его использование, он не скользит в руках. Вакуумный мастурбатор-анус 55 в корпусе.  Вакуумный мастурбатор-анус 55 в корпусе. Модель: baile-00900t58-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Представляем Вашему вниманию вакуумную колбу - мастурбатор-ротик с вакуумной чашкой Pretty Love. Достигните новых высот чувственного удовольствия с этим сверхмягким высококачественным продуктом, который по ощущениям ничем не хуже настоящего минета. Мягкие, но очень эластичные вставки и рукава в стильном и удобном внешнем футляре позволяют контролировать всасывание. Используйте с вашей любимой смазкой на водной основе для достижения наилучших результатов. Сам рукав снимается с футляра, что упрощает очистку. Мастурбатор-ротик Baile Pretty Love.  Мастурбатор-ротик Baile Pretty Love. Модель: baile-00900t58-2. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8731,17 +8989,17 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа), пластик</t>
+          <t>нежный TPR (вторая кожа)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -8759,23 +9017,23 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="n">
-        <v>19.8</v>
+        <v>19.58</v>
       </c>
       <c r="Z68" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AA68" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="n">
-        <v>6.93</v>
+        <v>6.82</v>
       </c>
       <c r="AG68" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
@@ -8825,12 +9083,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Мастурбатор-ротик Baile Pretty Love</t>
+          <t>Мастурбатор вагина-анус с вибрацией</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-25752-1299</t>
+          <t>id-21762-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -8844,10 +9102,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_9_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Представляем Вашему вниманию вакуумную колбу - мастурбатор-ротик с вакуумной чашкой Pretty Love. Достигните новых высот чувственного удовольствия с этим сверхмягким высококачественным продуктом, который по ощущениям ничем не хуже настоящего минета. Мягкие, но очень эластичные вставки и рукава в стильном и удобном внешнем футляре позволяют контролировать всасывание. Используйте с вашей любимой смазкой на водной основе для достижения наилучших результатов. Сам рукав снимается с футляра, что упрощает очистку. Мастурбатор-ротик Baile Pretty Love.  Мастурбатор-ротик Baile Pretty Love. Модель: baile-00900t58-2. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Мастурбатор с двумя любовными отверстиями, реалистичным анусом и узкой девственной вагиной. Текстурированные любовные отверстия обеспечивают максимально реалистичные ощущения, приводящие к фантастическому оргазму. Мастурбатор выполнен из материала напоминающего на ощупь человеческую кожу. Оснащен съемными виброяйцами с проводным пультом управления и классической многоскоростной аибрацией. Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt.  Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt. Модель: baile-009141z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8857,12 +9119,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -8882,27 +9144,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="W69" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>18.15</v>
+      </c>
       <c r="Y69" t="n">
-        <v>19.58</v>
+        <v>16.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>17.8</v>
+        <v>15</v>
       </c>
       <c r="AA69" t="n">
-        <v>17.8</v>
+        <v>15</v>
       </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="AD69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8915,7 +9181,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вагина-мастурбатор, 2 вибро-яйца, пудра для бережного хранения игрушки</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -8951,12 +9217,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Мастурбатор вагина-анус с вибрацией</t>
+          <t>Мастурбатор анус с яичками Crazy Bull</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-21762-1299</t>
+          <t>id-26937-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -8970,10 +9236,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мастурбатор с двумя любовными отверстиями, реалистичным анусом и узкой девственной вагиной. Текстурированные любовные отверстия обеспечивают максимально реалистичные ощущения, приводящие к фантастическому оргазму. Мастурбатор выполнен из материала напоминающего на ощупь человеческую кожу. Оснащен съемными виброяйцами с проводным пультом управления и классической многоскоростной аибрацией. Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt.  Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt. Модель: baile-009141z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Супермягкая плоть точно такая же, как реальная, только лучше. Теплая как живое тело попка обнимает вашу плоть, делает восхитительный массаж, и вы улетаете в мир удовольствия. Мастурбатор анус с яичками Crazy Bull.  Мастурбатор анус с яичками Crazy Bull. Модель: baile-009151. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8983,12 +9253,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -9009,28 +9279,24 @@
         </is>
       </c>
       <c r="W70" t="n">
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="X70" t="n">
-        <v>18.15</v>
+        <v>8.25</v>
       </c>
       <c r="Y70" t="n">
-        <v>16.5</v>
+        <v>14.85</v>
       </c>
       <c r="Z70" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr">
@@ -9045,7 +9311,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>вагина-мастурбатор, 2 вибро-яйца, пудра для бережного хранения игрушки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9081,12 +9347,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Мастурбатор анус с яичками Crazy Bull</t>
+          <t>Небольшой полуторс вагина-анус с</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-26937-1299</t>
+          <t>id-25214-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9100,10 +9366,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супермягкая плоть точно такая же, как реальная, только лучше. Теплая как живое тело попка обнимает вашу плоть, делает восхитительный массаж, и вы улетаете в мир удовольствия. Мастурбатор анус с яичками Crazy Bull.  Мастурбатор анус с яичками Crazy Bull. Модель: baile-009151. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Небольшой полуторс Crazy Bull Jessica имитирует попку молоденькой девушки с эротично разорванным сексуальным бельем в черную сеточку. Кто откажется от такого эксперимента?Мастурбатор имеет две заманчивые дырочки, в которые можно входить поочередно. Внутри дырочек восхитительный тоннель любви с диковинным рельефом для остроты ощущений. В комплекте идут два вибро-яйца, которые усиливают ощущения, приводя к неминуемому яркому оргазму. Вибрация классическая многоскоростная, управляется колесиком на пульте.Кстати, материал, из которого сделан полуторс, имитирует нежную кожу человека, быстро принимает температуру тела, поэтому ощущения будут максимально реалистичными! Вы еще раздумываете?.Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica.  Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica. Модель: baile-009182z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный с черным. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9139,24 +9409,32 @@
         </is>
       </c>
       <c r="W71" t="n">
-        <v>7.5</v>
+        <v>0.16</v>
       </c>
       <c r="X71" t="n">
-        <v>8.25</v>
+        <v>0.176</v>
       </c>
       <c r="Y71" t="n">
-        <v>14.85</v>
+        <v>17.05</v>
       </c>
       <c r="Z71" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>15.95</v>
+      </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr">
@@ -9171,7 +9449,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>полуторс, сеточка для мастубатора, пульт управления с двумя вибро-яичками</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9191,7 +9469,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9202,17 +9480,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Небольшой полуторс вагина-анус с</t>
+          <t>G-вибратор с вибрирующей головкой и</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-25214-1299</t>
+          <t>id-26931-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9226,10 +9504,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Небольшой полуторс Crazy Bull Jessica имитирует попку молоденькой девушки с эротично разорванным сексуальным бельем в черную сеточку. Кто откажется от такого эксперимента?Мастурбатор имеет две заманчивые дырочки, в которые можно входить поочередно. Внутри дырочек восхитительный тоннель любви с диковинным рельефом для остроты ощущений. В комплекте идут два вибро-яйца, которые усиливают ощущения, приводя к неминуемому яркому оргазму. Вибрация классическая многоскоростная, управляется колесиком на пульте.Кстати, материал, из которого сделан полуторс, имитирует нежную кожу человека, быстро принимает температуру тела, поэтому ощущения будут максимально реалистичными! Вы еще раздумываете?.Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica.  Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica. Модель: baile-009182z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный с черным. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Вибратор Bruno выполнен из 100% силикона, оснащен двумя вибраторами которые имеют 7 различных программ управления. Уникальный дизайн игрушки позволяет во время использования максимально воздействовать на зону точки G, при этом не прекращая стимулировать клитор. G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов).  G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов). Модель: baile-014218-1. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9249,7 +9531,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9264,35 +9546,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W72" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.176</v>
-      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="n">
-        <v>17.05</v>
+        <v>22</v>
       </c>
       <c r="Z72" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>9.9</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="n">
-        <v>14.5</v>
+        <v>10.3</v>
       </c>
       <c r="AE72" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
+        <v>11.33</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2.25</v>
+      </c>
       <c r="AH72" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9305,7 +9583,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>полуторс, сеточка для мастубатора, пульт управления с двумя вибро-яичками</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9341,12 +9619,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>G-вибратор с вибрирующей головкой и</t>
+          <t>Небольшой перезаряжаемый вибратор для G</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-26931-1299</t>
+          <t>id-27782-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9360,10 +9638,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_9_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Bruno выполнен из 100% силикона, оснащен двумя вибраторами которые имеют 7 различных программ управления. Уникальный дизайн игрушки позволяет во время использования максимально воздействовать на зону точки G, при этом не прекращая стимулировать клитор. G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов).  G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов). Модель: baile-014218-1. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Небольшой рельефный вибрато с увеличенной головкой для массажа точки G. Вибратор имеет 30 режимов вибрации и управляется при помощи одной кнопки.Сделан массажер из гигиеничного бархатистого силикона без запаха. С эти материалом рекомендуется использовать смазку на водной основе. Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов).  Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов). Модель: baile-014358. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9383,7 +9665,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9401,27 +9683,23 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="n">
-        <v>22</v>
+        <v>15.95</v>
       </c>
       <c r="Z73" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="n">
-        <v>2.475</v>
+        <v>2.915</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
@@ -9435,7 +9713,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9471,12 +9749,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Небольшой перезаряжаемый вибратор для G</t>
+          <t>Изогнутый вибратор для G-стимуляции</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-27782-1299</t>
+          <t>id-21016-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9490,10 +9768,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Небольшой рельефный вибрато с увеличенной головкой для массажа точки G. Вибратор имеет 30 режимов вибрации и управляется при помощи одной кнопки.Сделан массажер из гигиеничного бархатистого силикона без запаха. С эти материалом рекомендуется использовать смазку на водной основе. Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов).  Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов). Модель: baile-014358. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Изогнутый вибратор со скошенной головкой для прямой стимуляции точки G.Моторчик, расположенный в верхней части вибратора, позволяет насладиться в полной мере 12-ю программами стимуляции.Высококачественный силикон и пластик, из которых выполнена игрушка, делают вибратор долговечным и легким в уходе. Кейс для хранения ELMER также предусмотрен производителем и идет в комплекте.Вибратор работает от встроенного аккумулятора, который может быть повторно заряжен с помощью USB кабеля. Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора).  Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора). Модель: baile-014412. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия, серебро. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9513,7 +9795,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9531,23 +9813,23 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="n">
-        <v>15.95</v>
+        <v>22</v>
       </c>
       <c r="Z74" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AA74" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="n">
-        <v>2.915</v>
+        <v>3.85</v>
       </c>
       <c r="AG74" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="AH74" t="inlineStr">
         <is>
@@ -9597,12 +9879,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Изогнутый вибратор для G-стимуляции</t>
+          <t>Перезаряжаемый G-вибратор с</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-21016-1299</t>
+          <t>id-26949-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9616,10 +9898,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изогнутый вибратор со скошенной головкой для прямой стимуляции точки G.Моторчик, расположенный в верхней части вибратора, позволяет насладиться в полной мере 12-ю программами стимуляции.Высококачественный силикон и пластик, из которых выполнена игрушка, делают вибратор долговечным и легким в уходе. Кейс для хранения ELMER также предусмотрен производителем и идет в комплекте.Вибратор работает от встроенного аккумулятора, который может быть повторно заряжен с помощью USB кабеля. Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора).  Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора). Модель: baile-014412. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия, серебро. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Утончённый и элегантный дизайн разработан с учётом женской анатомии. Изгиб головки стимулирует точку G. Мягкий и нежный силикон приятен к телу, а также прост в уходе. Вибратор генерирует разряды микротока, которые ощущаются как нежное покалывание. Электростимуляция сокращает интимные мышцы, таким образом повышая их тонус. Оргазм с вибратором Hector глубокий и насыщенный, благодаря притоку крови и кислорода к органам тазового дна.Игрушка имеет 7 режимов вибрации, 5 режимов электростимуляции. Работает Hector от встроенного перезаряжаемого аккумулятора. Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов).  Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов). Модель: baile-014765. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Вибраторы и фаллоимитаторы &gt; С электростимуляцией. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9639,7 +9925,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9657,23 +9943,23 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="n">
-        <v>22</v>
+        <v>21.45</v>
       </c>
       <c r="Z75" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="n">
-        <v>3.85</v>
+        <v>3.52</v>
       </c>
       <c r="AG75" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AH75" t="inlineStr">
         <is>
@@ -9687,7 +9973,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9723,12 +10009,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Перезаряжаемый G-вибратор с</t>
+          <t>Вибратор для точки G с клиторальным</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-26949-1299</t>
+          <t>id-25818-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9742,10 +10028,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_7_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Утончённый и элегантный дизайн разработан с учётом женской анатомии. Изгиб головки стимулирует точку G. Мягкий и нежный силикон приятен к телу, а также прост в уходе. Вибратор генерирует разряды микротока, которые ощущаются как нежное покалывание. Электростимуляция сокращает интимные мышцы, таким образом повышая их тонус. Оргазм с вибратором Hector глубокий и насыщенный, благодаря притоку крови и кислорода к органам тазового дна.Игрушка имеет 7 режимов вибрации, 5 режимов электростимуляции. Работает Hector от встроенного перезаряжаемого аккумулятора. Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов).  Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов). Модель: baile-014765. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Вибраторы и фаллоимитаторы &gt; С электростимуляцией. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Эта игрушка привлечет ваше внимание - целых 30 функций вибрации! Да, Cerberus  знает как устроить шоу. Позвольте основной части вибратора наполнить вас удовольствием, пока маленький отросток вибрирует на вашем клиторе. Переключайтесь между скоростями и пульсациями одним нажатием кнопки, найдите тот, который подойдет вам больше всего!.Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора).  Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора). Модель: baile-014795. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9765,7 +10055,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -9783,23 +10073,27 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="n">
-        <v>21.45</v>
+        <v>22.77</v>
       </c>
       <c r="Z76" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA76" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AD76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>11</v>
+      </c>
       <c r="AF76" t="n">
-        <v>3.52</v>
+        <v>3.08</v>
       </c>
       <c r="AG76" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AH76" t="inlineStr">
         <is>
@@ -9833,7 +10127,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -9844,17 +10138,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Вибратор для точки G с клиторальным</t>
+          <t>Двусторонний мини-мастурбатор Fantastic</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-25818-1299</t>
+          <t>id-25059-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9868,10 +10162,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_6_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта игрушка привлечет ваше внимание - целых 30 функций вибрации! Да, Cerberus  знает как устроить шоу. Позвольте основной части вибратора наполнить вас удовольствием, пока маленький отросток вибрирует на вашем клиторе. Переключайтесь между скоростями и пульсациями одним нажатием кнопки, найдите тот, который подойдет вам больше всего!.Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора).  Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора). Модель: baile-014795. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Инновационные мини мастурбаторы готовы подарить вам мощный кульминационный момент. Раскройте Fantastic Egg Hard Boiled и насладитесь целым рядом новых ощущений с тонко стимулирующей внутренней текстурой мастурбатора. Изготовленный из сверх эластичного материала, не содержащего фталатов, который может растягиваться, чтобы соответствовать буквально любому размеру пениса.Egg Hard Boiled - фантастическое удовольствие, которое понравится всем и каждому. Яйца двусторонние - просто выверните их и получите совершенно другие ощущения!.Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled.  Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled. Модель: baile-014832-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9881,17 +10179,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -9906,31 +10204,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="W77" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4.73</v>
+      </c>
       <c r="Y77" t="n">
-        <v>22.77</v>
+        <v>9.35</v>
       </c>
       <c r="Z77" t="n">
-        <v>20.7</v>
+        <v>8.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>20.7</v>
+        <v>8.5</v>
       </c>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9963,7 +10257,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -9974,17 +10268,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Двусторонний мини-мастурбатор Fantastic</t>
+          <t>Мега мощный перезаряжаемый</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-25059-1299</t>
+          <t>id-28002-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -9998,10 +10292,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_11_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационные мини мастурбаторы готовы подарить вам мощный кульминационный момент. Раскройте Fantastic Egg Hard Boiled и насладитесь целым рядом новых ощущений с тонко стимулирующей внутренней текстурой мастурбатора. Изготовленный из сверх эластичного материала, не содержащего фталатов, который может растягиваться, чтобы соответствовать буквально любому размеру пениса.Egg Hard Boiled - фантастическое удовольствие, которое понравится всем и каждому. Яйца двусторонние - просто выверните их и получите совершенно другие ощущения!.Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled.  Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled. Модель: baile-014832-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Этот очаровательный вибро-массажер имеет супер мощный двигатель для сильных вибраций! С его прекрасной круглой головкой стимулятор можно использовать для массажа любых зон. WAND имеет 5 скоростей и 7 настроек вибрации, которыми Вы управляете с помощью кнопок на ручке.Игрушка производит очень мощную вибрацию, но которая, благодаря идеально рассчитанной конструкции, не передается в ручку массажера, что делает его уникальным среди других аналогов! Так же стоит отметить саму рукоятку массажера. Она имеет закругленную форму, за счет чего массажер удобно лежит в руке, а не скользит, благодаря комбинированной поверхности. То есть рукоятка сделана не только из пластика, она со вставкой из силикона, как и сама головка.Массажер работает от встроенного перезаряжаемого аккумулятора, поэтому забудьте о неудобных проводах, которые привязывают Вас к месту у розетки.WAND может быть идеальным подарком буквально для любого человека, ведь кто-то мечтает о расслабляющем массаже после тяжелого дня, кто-то об антицеллюлитном массаже, а кто-то о жаркой и возбуждающей стимуляции клитора, которая приведет к мощному оргазму!.Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей).  Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей). Модель: baile-014848. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10011,17 +10309,17 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>эластичный TPE</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10036,27 +10334,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W78" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X78" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
-        <v>9.35</v>
+        <v>26.95</v>
       </c>
       <c r="Z78" t="n">
-        <v>8.5</v>
+        <v>24.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>8.5</v>
+        <v>24.5</v>
       </c>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
+      <c r="AF78" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AH78" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10069,7 +10367,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>массажер, зарядное USB-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10100,17 +10398,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Мега мощный перезаряжаемый</t>
+          <t>Вибратор-кролик с вакуумным</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-28002-1299</t>
+          <t>id-28000-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -10124,10 +10422,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_8_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот очаровательный вибро-массажер имеет супер мощный двигатель для сильных вибраций! С его прекрасной круглой головкой стимулятор можно использовать для массажа любых зон. WAND имеет 5 скоростей и 7 настроек вибрации, которыми Вы управляете с помощью кнопок на ручке.Игрушка производит очень мощную вибрацию, но которая, благодаря идеально рассчитанной конструкции, не передается в ручку массажера, что делает его уникальным среди других аналогов! Так же стоит отметить саму рукоятку массажера. Она имеет закругленную форму, за счет чего массажер удобно лежит в руке, а не скользит, благодаря комбинированной поверхности. То есть рукоятка сделана не только из пластика, она со вставкой из силикона, как и сама головка.Массажер работает от встроенного перезаряжаемого аккумулятора, поэтому забудьте о неудобных проводах, которые привязывают Вас к месту у розетки.WAND может быть идеальным подарком буквально для любого человека, ведь кто-то мечтает о расслабляющем массаже после тяжелого дня, кто-то об антицеллюлитном массаже, а кто-то о жаркой и возбуждающей стимуляции клитора, которая приведет к мощному оргазму!.Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей).  Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей). Модель: baile-014848. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Вы хотите одновременно ощущать невероятные ощущения от оральных ласк, наслаждаясь проникновением? На ваши запросы ответит симпатичный вибратор с вакуумным стимулятором клитора и с необычным силиконовым язычком на головке, чтобы доставить еще более интенсивное возбуждение и удовольствие.Phoenix имеет 4 режима вакуумной стимуляции и 7 режимов вибрации основного массажера. Работает от батареек.Сделана игрушка из гигиеничного силикона без запаха с бархатистой поверхностью. Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов).  Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов). Модель: baile-014854. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10147,7 +10449,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10165,23 +10467,27 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="n">
-        <v>26.95</v>
+        <v>23.1</v>
       </c>
       <c r="Z79" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="AA79" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AD79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF79" t="n">
-        <v>4.95</v>
+        <v>3.355</v>
       </c>
       <c r="AG79" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="AH79" t="inlineStr">
         <is>
@@ -10195,7 +10501,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>массажер, зарядное USB-устройство, мешочек для хранения</t>
+          <t>стимулятор, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10215,7 +10521,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -10231,12 +10537,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Вибратор-кролик с вакуумным</t>
+          <t>Вибро-зажимы для сосков с</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-28000-1299</t>
+          <t>id-28134-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10250,10 +10556,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_10_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вы хотите одновременно ощущать невероятные ощущения от оральных ласк, наслаждаясь проникновением? На ваши запросы ответит симпатичный вибратор с вакуумным стимулятором клитора и с необычным силиконовым язычком на головке, чтобы доставить еще более интенсивное возбуждение и удовольствие.Phoenix имеет 4 режима вакуумной стимуляции и 7 режимов вибрации основного массажера. Работает от батареек.Сделана игрушка из гигиеничного силикона без запаха с бархатистой поверхностью. Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов).  Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов). Модель: baile-014854. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Потрясающие вибро-зажимы для сосков с электростимуляцией Romantic Wave II доставят Вам огромное удовольствие, если Вы получаете кайф от стимуляции сосков! Сила сжатия не регулируется, она оптимальна и достаточна. Тут акцент делается на вибрацию (представлено 7 режимов вибрации) и электростимуляцию (имеется 3 степени интенсивности).Мощные функции вибрации добавят острые ощущения, чтобы вы были на грани и за его пределами.Зажимы работают от встроенного перезаряжаемого аккумулятора. Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.).  Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.). Модель: baile-014861. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Шоковая терапия (электростимуляция). Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10273,7 +10583,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10288,31 +10598,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+      <c r="W80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1.65</v>
+      </c>
       <c r="Y80" t="n">
-        <v>23.1</v>
+        <v>5.94</v>
       </c>
       <c r="Z80" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="AA80" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
-      <c r="AD80" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>3.355</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10325,7 +10631,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>стимулятор, мешочек для хранения</t>
+          <t>два зажима, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10345,7 +10651,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10361,12 +10667,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Вибро-зажимы для сосков с</t>
+          <t>Вакуумно-вибрационный стимулятор Pretty</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-28134-1299</t>
+          <t>id-28029-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10380,10 +10686,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающие вибро-зажимы для сосков с электростимуляцией Romantic Wave II доставят Вам огромное удовольствие, если Вы получаете кайф от стимуляции сосков! Сила сжатия не регулируется, она оптимальна и достаточна. Тут акцент делается на вибрацию (представлено 7 режимов вибрации) и электростимуляцию (имеется 3 степени интенсивности).Мощные функции вибрации добавят острые ощущения, чтобы вы были на грани и за его пределами.Зажимы работают от встроенного перезаряжаемого аккумулятора. Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.).  Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.). Модель: baile-014861. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Шоковая терапия (электростимуляция). Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Великолепная игрушка, которая должна быть в арсенале каждой пары! Подходит как для совместного использования, так и для соло стимуляции. Вибро-йцо может использоваться во время прелюдии как мужчиной, так и женщиной, а вот вакуумный стимулятор по достоинству оценят женщины. С ним каждая сможет испытать оргазм за считанные секунды! Вакуумный клиторальный стимулятор имеет петельку, которую можно надевать на палец для более удобной стимуляции. Каждый массажер имеет по 12 режимов, так что Вы сможете подобрать для себя любимую комбинацию.Сделаны стимуляторы из гигиеничного высококачественного силикона без запаха с нежной бархатистой поверхностью. Пульт сделан из бархатистого пластика. Вакуумно-вибрационный стимулятор Pretty Love (12 режимов).  Вакуумно-вибрационный стимулятор Pretty Love (12 режимов). Модель: baile-014925. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10403,7 +10713,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10418,27 +10728,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X81" t="n">
-        <v>1.65</v>
-      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>5.94</v>
+        <v>7.7</v>
       </c>
       <c r="Z81" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AA81" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
+      <c r="AF81" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH81" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10451,7 +10761,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>два зажима, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10471,7 +10781,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -10482,17 +10792,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Вакуумно-вибрационный стимулятор Pretty</t>
+          <t>Страпон с вибрацией Ultra Passionate</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-28029-1299</t>
+          <t>id-26514-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10506,10 +10816,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_9_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепная игрушка, которая должна быть в арсенале каждой пары! Подходит как для совместного использования, так и для соло стимуляции. Вибро-йцо может использоваться во время прелюдии как мужчиной, так и женщиной, а вот вакуумный стимулятор по достоинству оценят женщины. С ним каждая сможет испытать оргазм за считанные секунды! Вакуумный клиторальный стимулятор имеет петельку, которую можно надевать на палец для более удобной стимуляции. Каждый массажер имеет по 12 режимов, так что Вы сможете подобрать для себя любимую комбинацию.Сделаны стимуляторы из гигиеничного высококачественного силикона без запаха с нежной бархатистой поверхностью. Пульт сделан из бархатистого пластика. Вакуумно-вибрационный стимулятор Pretty Love (12 режимов).  Вакуумно-вибрационный стимулятор Pretty Love (12 режимов). Модель: baile-014925. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Поднимите свои игры с проникновением на новый уровень и побалуйте себя сеансом с потрясающим страпоном. Восхитительный фаллоимитатора с вибрацией покрыт прожилками и имеет головку идеальной формы, чтобы обеспечить вам максимальную стимуляцию и проникновение. С супермягким и реалистичным дилдо с реалистичной кожей вы получите удовольствие в совершенстве. В комплект входит фаллоимитатор для страпона, удобные и регулируемые эластичные ремни-трусики, мощный, но бесшумный вибратор. Страпон с вибрацией Ultra Passionate Harness.  Страпон с вибрацией Ultra Passionate Harness. Модель: baile-022064z. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; С вибрацией. Цвет: смуглый, черный. Материал: TPR, эко кожа. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10519,17 +10833,17 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью</t>
+          <t>TPR, эко кожа</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -10547,23 +10861,23 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="n">
-        <v>7.7</v>
+        <v>17.05</v>
       </c>
       <c r="Z82" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="n">
-        <v>2.86</v>
+        <v>4.4</v>
       </c>
       <c r="AG82" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="AH82" t="inlineStr">
         <is>
@@ -10577,7 +10891,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>страпон-трусики, фаллос, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10597,7 +10911,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10608,21 +10922,29 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Страпон с вибрацией Ultra Passionate</t>
+          <t>Клиторальный вибромассажер в трусики на</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-26514-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+          <t>id-28032-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10632,10 +10954,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Поднимите свои игры с проникновением на новый уровень и побалуйте себя сеансом с потрясающим страпоном. Восхитительный фаллоимитатора с вибрацией покрыт прожилками и имеет головку идеальной формы, чтобы обеспечить вам максимальную стимуляцию и проникновение. С супермягким и реалистичным дилдо с реалистичной кожей вы получите удовольствие в совершенстве. В комплект входит фаллоимитатор для страпона, удобные и регулируемые эластичные ремни-трусики, мощный, но бесшумный вибратор. Страпон с вибрацией Ultra Passionate Harness.  Страпон с вибрацией Ultra Passionate Harness. Модель: baile-022064z. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; С вибрацией. Цвет: смуглый, черный. Материал: TPR, эко кожа. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Клиторальный вибромассажер в трусики Wild Rabbit для страстных женщин, которые в любой момент готовы испытать удовольствие! Массажер вкладывается в секси трусики и становится совсем не заметным для окружающих. Включается он при помощи пульта дистанционного управления, режимы переключаются им же. Клиторальный вибромассажер в трусики на ДУ Wild Rabbit.  Клиторальный вибромассажер в трусики на ДУ Wild Rabbit. Модель: baile-022071zw. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фуксия, леопардовый. Материал: высококачественный силикон с бархатистой поверхностью, полиэстер. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10645,17 +10971,17 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>TPR, эко кожа</t>
+          <t>высококачественный силикон с бархатистой поверхностью, полиэстер</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10672,25 +10998,15 @@
       </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10703,7 +11019,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>страпон-трусики, фаллос, мешочек для хранения</t>
+          <t>вибромассажер, дистанционный пульт управления, трусики, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10723,7 +11039,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -10734,29 +11050,21 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Клиторальный вибромассажер в трусики на</t>
+          <t>Эрекционное вибро-кольцо для члена и</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-28032-1299</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-26993-1299</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>99999</v>
@@ -10766,10 +11074,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_10_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиторальный вибромассажер в трусики Wild Rabbit для страстных женщин, которые в любой момент готовы испытать удовольствие! Массажер вкладывается в секси трусики и становится совсем не заметным для окружающих. Включается он при помощи пульта дистанционного управления, режимы переключаются им же. Клиторальный вибромассажер в трусики на ДУ Wild Rabbit.  Клиторальный вибромассажер в трусики на ДУ Wild Rabbit. Модель: baile-022071zw. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фуксия, леопардовый. Материал: высококачественный силикон с бархатистой поверхностью, полиэстер. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Эрекционное кольцо  многофункциональное изделие, которое используется для улучшения качества эрекции и усиления ощущений от сексуального контакта. Это не просто игрушка из магазина интимных товаров, а медицинское приспособление, применение которого показано мужчинам, имеющим проблемы с половой функцией. Кольцо сжимает половой член, позволяет задержать отток крови и поддерживать эрегированное состояние органа длительное время, кольцо для мошонки усилит ощущения во время эякуляции, а клиторальная подушечка с вибрацией доставит Вашей партнерше незабываемые ощущения. Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER.  Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER. Модель: baile-026218. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 3 шт (в комплекте)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -10789,7 +11101,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, полиэстер</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -10806,15 +11118,25 @@
       </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
+      <c r="Y84" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>10.3</v>
+      </c>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
+      <c r="AF84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2</v>
+      </c>
       <c r="AH84" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10827,7 +11149,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>вибромассажер, дистанционный пульт управления, трусики, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10847,7 +11169,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -10858,17 +11180,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Эрекционное вибро-кольцо для члена и</t>
+          <t>Перезаряжаемый массажер простаты Backie</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-26993-1299</t>
+          <t>id-17692-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -10882,10 +11204,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_10_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо  многофункциональное изделие, которое используется для улучшения качества эрекции и усиления ощущений от сексуального контакта. Это не просто игрушка из магазина интимных товаров, а медицинское приспособление, применение которого показано мужчинам, имеющим проблемы с половой функцией. Кольцо сжимает половой член, позволяет задержать отток крови и поддерживать эрегированное состояние органа длительное время, кольцо для мошонки усилит ощущения во время эякуляции, а клиторальная подушечка с вибрацией доставит Вашей партнерше незабываемые ощущения. Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER.  Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER. Модель: baile-026218. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 3 шт (в комплекте)Бренд: BAILE. </t>
+          <t xml:space="preserve">Отличный вибромассажёр для любителей особых удовольствий. Черный анальный стимулятор Backie изогнутой формы, что позволяет осуществлять точную стимуляцию самых чувствительных зон. Эргономичная форма интимного аксессуара способствует его лёгкому введению и извлечению. Ручка-ограничитель позволяет контролировать глубину проникновения.Работа 30 разнообразных режимов вибрации регулируется с помощью кнопок на корпусе изделия.Секс-игрушка может быть использована как соло, так и в парной любовной игре. Подходит для массажа простаты.Вибромассажёр изготовлен из мягкого, приятного на ощупь материала. Прост в использовании и уходе.Совместно с интимным аксессуаром рекомендуется применять гель-лубрикант на водной основе.Влагонепроницаем, перезаряжаем, гигиеничен, гипоаллергенен.ТИП ЗАРЯДКИ: USB-провод, который одним концом присоединяется к изделию, другим  вставляется в соответствующий разъём на корпусе ПК. Во время зарядки (при подсоединённом проводе) вибромассажёр не работает. Перезаряжаемый массажер простаты Backie (30 режимов).  Перезаряжаемый массажер простаты Backie (30 режимов). Модель: baile-040029. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхность, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10905,7 +11231,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхность, пластик</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -10923,23 +11249,27 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="n">
-        <v>11.33</v>
+        <v>13.97</v>
       </c>
       <c r="Z85" t="n">
-        <v>10.3</v>
+        <v>12.7</v>
       </c>
       <c r="AA85" t="n">
-        <v>10.3</v>
+        <v>12.7</v>
       </c>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
+      <c r="AD85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>10.45</v>
+      </c>
       <c r="AF85" t="n">
-        <v>2.2</v>
+        <v>2.805</v>
       </c>
       <c r="AG85" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AH85" t="inlineStr">
         <is>
@@ -10953,7 +11283,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -10973,7 +11303,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -10984,17 +11314,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер простаты Backie</t>
+          <t>Вибратор с подвижным G-стимулятором</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-17692-1299</t>
+          <t>id-22082-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11008,10 +11338,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличный вибромассажёр для любителей особых удовольствий. Черный анальный стимулятор Backie изогнутой формы, что позволяет осуществлять точную стимуляцию самых чувствительных зон. Эргономичная форма интимного аксессуара способствует его лёгкому введению и извлечению. Ручка-ограничитель позволяет контролировать глубину проникновения.Работа 30 разнообразных режимов вибрации регулируется с помощью кнопок на корпусе изделия.Секс-игрушка может быть использована как соло, так и в парной любовной игре. Подходит для массажа простаты.Вибромассажёр изготовлен из мягкого, приятного на ощупь материала. Прост в использовании и уходе.Совместно с интимным аксессуаром рекомендуется применять гель-лубрикант на водной основе.Влагонепроницаем, перезаряжаем, гигиеничен, гипоаллергенен.ТИП ЗАРЯДКИ: USB-провод, который одним концом присоединяется к изделию, другим  вставляется в соответствующий разъём на корпусе ПК. Во время зарядки (при подсоединённом проводе) вибромассажёр не работает. Перезаряжаемый массажер простаты Backie (30 режимов).  Перезаряжаемый массажер простаты Backie (30 режимов). Модель: baile-040029. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхность, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Конструкция вибратора позволяет массажировать все потаённые точки вашего тела наряду с клиторальной стимуляцией. Вибратор имеет семь видов вибраций, четыре режима движения шаловливого пальчика, которые порадуют даже самых взыскательных девушек. Дополнительно его подвижный основной ствол позволяет максимально воздействовать на точку G, увеличивая чувствительность за счёт эффекта шаловливого пальчика. Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора).  Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора). Модель: baile-068002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -11031,7 +11365,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхность, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11049,27 +11383,27 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="n">
-        <v>13.97</v>
+        <v>23.32</v>
       </c>
       <c r="Z86" t="n">
-        <v>12.7</v>
+        <v>21.2</v>
       </c>
       <c r="AA86" t="n">
-        <v>12.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>10.45</v>
+        <v>14.85</v>
       </c>
       <c r="AF86" t="n">
-        <v>2.805</v>
+        <v>3.63</v>
       </c>
       <c r="AG86" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AH86" t="inlineStr">
         <is>
@@ -11083,7 +11417,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство, мешочек для хранения</t>
+          <t>вибратор, зарядное USB-устройство, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11103,7 +11437,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11114,17 +11448,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер для G-точки</t>
+          <t>Эрекционное вибро-кольцо в клиторальной</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-28116-1299</t>
+          <t>id-27753-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11138,10 +11472,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_8_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличный вибромассажёр PIPER для сумасшедших женских оргазмов! Стимулятор имеет изогнутую форму, что позволяет осуществлять точную стимуляцию самой чувствительной и труднодоступной точки G. Эргономичная форма интимного аксессуара способствует его лёгкому введению и извлечению. Ручка-ограничитель позволяет контролировать глубину проникновения.Работа 12 разнообразных режимов регулируется с помощью кнопок на корпусе изделия. Особенность стимулятора PIPER - это волшебные режимы воздействия на точку G! Это не вибрация, это вращение внутри головки массажера выпирающих шариков с двух сторон, которые массируют самые заветные зоны, приводя к фееричным оргазмам!Секс-игрушка может быть использована как соло, так и в парной любовной игре. Кстати, массажер подходит и для массажа простаты.Вибромассажёр изготовлен из мягкого, приятного на ощупь силикона с бархатистой поверхностью. Прост в использовании и уходе.Совместно с интимным аксессуаром рекомендуется применять гель-лубрикант на водной основе.Влагонепроницаем, перезаряжаем, гигиеничен, гипоаллергенен.ТИП ЗАРЯДКИ: USB-провод, который одним концом присоединяется к изделию, другим  вставляется в соответствующий разъём на корпусе ПК. Во время зарядки (при подсоединённом проводе) вибромассажёр не работает. Перезаряжаемый массажер для G-точки PIPER (12 режимов).  Перезаряжаемый массажер для G-точки PIPER (12 режимов). Модель: baile-040111. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Добавьте дополнительный штрих в ваши отношения с этим двойным вибрирующим кольцом для полового члена с 10 функциями вибрации. Он имеет стимулятор клитора с щеточкой и с небольшими выпуклостями, так что ваша эрекция не только долговечнее и мощнее, но ваш партнер наслаждается, как никогда раньше. Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов).  Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов). Модель: baile-210205. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -11161,7 +11499,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11176,30 +11514,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="W87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.86</v>
+      </c>
       <c r="Y87" t="n">
-        <v>13.75</v>
+        <v>10.45</v>
       </c>
       <c r="Z87" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA87" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>11</v>
-      </c>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="n">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="AG87" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH87" t="inlineStr">
         <is>
@@ -11213,7 +11551,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11249,12 +11587,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Вибратор с подвижным G-стимулятором</t>
+          <t>Реалистичный ротационный фаллос с</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-22082-1299</t>
+          <t>id-18770-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11268,10 +11606,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конструкция вибратора позволяет массажировать все потаённые точки вашего тела наряду с клиторальной стимуляцией. Вибратор имеет семь видов вибраций, четыре режима движения шаловливого пальчика, которые порадуют даже самых взыскательных девушек. Дополнительно его подвижный основной ствол позволяет максимально воздействовать на точку G, увеличивая чувствительность за счёт эффекта шаловливого пальчика. Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора).  Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора). Модель: baile-068002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Фаллос с ротацией (вращением). Выполнен с четко выделенной головкой и рельефом из венок для дополнительной стимуляции стенок влагалища и точки G. Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong.  Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong. Модель: baile-bw-008080x. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; С ротацией (вращение). Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11281,17 +11623,17 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ПВХ</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11309,27 +11651,23 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="n">
-        <v>23.32</v>
+        <v>19.58</v>
       </c>
       <c r="Z88" t="n">
-        <v>21.2</v>
+        <v>17.8</v>
       </c>
       <c r="AA88" t="n">
-        <v>21.2</v>
+        <v>17.8</v>
       </c>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>14.85</v>
-      </c>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="n">
-        <v>3.63</v>
+        <v>4.62</v>
       </c>
       <c r="AG88" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AH88" t="inlineStr">
         <is>
@@ -11343,7 +11681,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство, мешочек для хранения, инструкция</t>
+          <t>фаллос, мешочек</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11363,32 +11701,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Эрекционное вибро-кольцо в клиторальной</t>
+          <t>Красный ошейник с мехом и поводком</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-27753-1299</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+          <t>id-27770-1299</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>99999</v>
@@ -11398,10 +11744,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27770/27770_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавьте дополнительный штрих в ваши отношения с этим двойным вибрирующим кольцом для полового члена с 10 функциями вибрации. Он имеет стимулятор клитора с щеточкой и с небольшими выпуклостями, так что ваша эрекция не только долговечнее и мощнее, но ваш партнер наслаждается, как никогда раньше. Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов).  Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов). Модель: baile-210205. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">С этим набором Вы сможете воплотить в жизнь свои самые смелые желания! С обратной стороны ошейника есть искусственный мех, который предотвращает натирание нежной кожи шеи. Красный ошейник с мехом и поводком.  Красный ошейник с мехом и поводком. Модель: bdsmars-00001. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: красный. Материал: эко кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11411,17 +11761,17 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>эко кожа, искусственный мех, металл</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11436,31 +11786,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W89" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X89" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11493,28 +11829,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Реалистичный ротационный фаллос с</t>
+          <t>Брелок маска кошки</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-18770-1299</t>
+          <t>id-27991-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11528,30 +11864,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фаллос с ротацией (вращением). Выполнен с четко выделенной головкой и рельефом из венок для дополнительной стимуляции стенок влагалища и точки G. Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong.  Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong. Модель: baile-bw-008080x. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; С ротацией (вращение). Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска кошки - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок маска кошки.  Брелок маска кошки. Модель: bdsmars-104. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11566,27 +11906,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
+      <c r="W90" t="n">
+        <v>5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>6.05</v>
+      </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11599,7 +11937,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>фаллос, мешочек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11619,7 +11957,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11630,29 +11968,21 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Красный ошейник с мехом и поводком</t>
+          <t>Плюшевая госпожа в белье и с плетью № 2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-27770-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-26766-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
@@ -11662,30 +11992,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26766/26766_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">С этим набором Вы сможете воплотить в жизнь свои самые смелые желания! С обратной стороны ошейника есть искусственный мех, который предотвращает натирание нежной кожи шеи. Красный ошейник с мехом и поводком.  Красный ошейник с мехом и поводком. Модель: bdsmars-00001. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: красный. Материал: эко кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Необычный БДСМ Мишка в образе госпожи - в маске, белье и с плетью - идеальный вариант, чтобы порадовать ценителей оригинальных подарков. Высота мишки в сидячем положении 30 см. Костюмчик выполнен из искусственной кожи. Одежда и аксессуары съемные. Плюшевая госпожа в белье и с плетью № 2.  Плюшевая госпожа в белье и с плетью № 2. Модель: bdsmars-111. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>эко кожа, искусственный мех, металл</t>
+          <t>искусственный мех, эко кожа, металл</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -11705,8 +12039,12 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
+      <c r="AB91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>33</v>
+      </c>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
@@ -11723,7 +12061,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мишка, трусики, лиф, маска, плетка</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -11759,12 +12097,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Плюшевая госпожа в белье и с плетью № 2</t>
+          <t>Плюшевый мишка супер-герой № 3</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-26766-1299</t>
+          <t>id-26770-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -11778,10 +12116,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычный БДСМ Мишка в образе госпожи - в маске, белье и с плетью - идеальный вариант, чтобы порадовать ценителей оригинальных подарков. Высота мишки в сидячем положении 30 см. Костюмчик выполнен из искусственной кожи. Одежда и аксессуары съемные. Плюшевая госпожа в белье и с плетью № 2.  Плюшевая госпожа в белье и с плетью № 2. Модель: bdsmars-111. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оригинальный БДСМ мишка в костюме супер-героя - первый в своем роде! Отличный подарок, который подарит массу положительных эмоций! Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка супер-герой № 3.  Плюшевый мишка супер-герой № 3. Модель: bdsmars-112. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, лакированная эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11801,7 +12143,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>искусственный мех, эко кожа, металл</t>
+          <t>искусственный мех, лакированная эко кожа, металл</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -11843,7 +12185,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>мишка, трусики, лиф, маска, плетка</t>
+          <t>мишка, боди с фаллосом, накидка, маска на глаза</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -11879,16 +12221,24 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Плюшевый мишка супер-герой № 3</t>
+          <t>Плюшевая БДСМ принцесса в боди № 4</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-26770-1299</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+          <t>id-26767-1299</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>99999</v>
@@ -11898,10 +12248,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный БДСМ мишка в костюме супер-героя - первый в своем роде! Отличный подарок, который подарит массу положительных эмоций! Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка супер-герой № 3.  Плюшевый мишка супер-герой № 3. Модель: bdsmars-112. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, лакированная эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Восхитительная плюшевая БДСМ принцесса с миниатюрным стеком-сердечко. Такой подарок никого не оставит равнодушным! Высота мишки 30 см. Костюмчик выполнен из искусственной лаковой кожи. Одежда и аксессуары съемные. Плюшевая БДСМ принцесса в боди № 4.  Плюшевая БДСМ принцесса в боди № 4. Модель: bdsmars-113. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11921,7 +12275,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>искусственный мех, лакированная эко кожа, металл</t>
+          <t>искусственный мех, эко кожа, металл</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -11941,12 +12295,8 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>33</v>
-      </c>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
@@ -11963,7 +12313,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>мишка, боди с фаллосом, накидка, маска на глаза</t>
+          <t>мишка, боди, корона, стек с сердечком</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -11999,24 +12349,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Плюшевая БДСМ принцесса в боди № 4</t>
+          <t>Плюшевый мишка-саб в маске и сбруе № 7</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26767-1299</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-26769-1299</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>99999</v>
@@ -12026,10 +12368,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительная плюшевая БДСМ принцесса с миниатюрным стеком-сердечко. Такой подарок никого не оставит равнодушным! Высота мишки 30 см. Костюмчик выполнен из искусственной лаковой кожи. Одежда и аксессуары съемные. Плюшевая БДСМ принцесса в боди № 4.  Плюшевая БДСМ принцесса в боди № 4. Модель: bdsmars-113. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оригинальный плюшевый БДСМ мишка-саб в маске и сбруе - отличная идея для подарка!  Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка-саб в маске и сбруе № 7.  Плюшевый мишка-саб в маске и сбруе № 7. Модель: bdsmars-116. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12069,8 +12415,12 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
+      <c r="AB94" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>33</v>
+      </c>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
@@ -12087,7 +12437,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>мишка, боди, корона, стек с сердечком</t>
+          <t>мишка, сбруя, маска на глаза</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12123,12 +12473,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Плюшевый мишка-саб в маске и сбруе № 7</t>
+          <t>Брелок в виде кожаных наручников</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-26769-1299</t>
+          <t>id-27988-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12142,10 +12492,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27988/27988_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный плюшевый БДСМ мишка-саб в маске и сбруе - отличная идея для подарка!  Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка-саб в маске и сбруе № 7.  Плюшевый мишка-саб в маске и сбруе № 7. Модель: bdsmars-116. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок наручники - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Брелок в виде кожаных наручников.  Брелок в виде кожаных наручников. Модель: bdsmars-124. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12165,7 +12519,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>искусственный мех, эко кожа, металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12185,16 +12539,16 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>33</v>
-      </c>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
+      <c r="AF95" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AH95" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12207,7 +12561,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>мишка, сбруя, маска на глаза</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12243,12 +12597,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаных наручников</t>
+          <t>Брелок в виде зайца из белой кожи</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-27988-1299</t>
+          <t>id-27997-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12262,10 +12616,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27997/27997_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок наручники - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Брелок в виде кожаных наручников.  Брелок в виде кожаных наручников. Модель: bdsmars-124. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок заяц - отличный подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок в виде зайца из белой кожи.  Брелок в виде зайца из белой кожи. Модель: bdsmars-125. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12302,19 +12660,21 @@
       </c>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
+      <c r="Y96" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12363,12 +12723,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Брелок в виде зайца из белой кожи</t>
+          <t>Брелок в виде кожаной плети</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-27997-1299</t>
+          <t>id-27999-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12382,10 +12742,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27999/27999_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок заяц - отличный подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок в виде зайца из белой кожи.  Брелок в виде зайца из белой кожи. Модель: bdsmars-125. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепkется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-127. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12423,13 +12787,13 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="n">
-        <v>8.800000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="Z97" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA97" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
@@ -12485,12 +12849,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плети</t>
+          <t>Брелок-плеть из натуральной замши</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-27999-1299</t>
+          <t>id-27996-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12504,10 +12868,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27996/27996_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепkется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-127. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из натуральной замши. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок-плеть из натуральной замши.  Брелок-плеть из натуральной замши. Модель: bdsmars-128. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа (замша), металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12527,7 +12895,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа (замша), металл</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12545,13 +12913,13 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="n">
-        <v>17.6</v>
+        <v>18.15</v>
       </c>
       <c r="Z98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA98" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
@@ -12607,12 +12975,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Брелок-плеть из натуральной замши</t>
+          <t>Брелок в виде кожаной плети</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-27996-1299</t>
+          <t>id-27998-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -12626,10 +12994,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27998/27998_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из натуральной замши. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок-плеть из натуральной замши.  Брелок-плеть из натуральной замши. Модель: bdsmars-128. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа (замша), металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-129. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12639,17 +13011,17 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>натуральная кожа (замша), металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -12667,13 +13039,13 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="n">
-        <v>18.15</v>
+        <v>19.25</v>
       </c>
       <c r="Z99" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
@@ -12729,12 +13101,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плети</t>
+          <t>Брелок в виде кожаной плетки</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-27998-1299</t>
+          <t>id-27995-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -12748,10 +13120,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27995/27995_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-129. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плетки.  Брелок в виде кожаной плетки. Модель: bdsmars-130. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12761,12 +13137,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -12789,13 +13165,13 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="n">
-        <v>19.25</v>
+        <v>13.2</v>
       </c>
       <c r="Z100" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA100" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
@@ -12851,12 +13227,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плетки</t>
+          <t>Брелок маска</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-27995-1299</t>
+          <t>id-27992-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -12870,10 +13246,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27992/27992_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плетки.  Брелок в виде кожаной плетки. Модель: bdsmars-130. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок маска.  Брелок маска. Модель: bdsmars-135. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с красным и серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12911,13 +13291,13 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="n">
-        <v>13.2</v>
+        <v>11.55</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA101" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>

--- a/!parsed_items_100/1299/1299_-1-100.xlsx
+++ b/!parsed_items_100/1299/1299_-1-100.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Англия</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2721,28 +2721,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADRIEN LASTIC</t>
+          <t>AFRODIZA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Перезаряжаемый фаллоимитатор с</t>
+          <t>Чай Afrodiza №1 Гуарана (15 саше)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-27436-1299</t>
+          <t>id-24746-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2758,71 +2758,57 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27436/27436_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_5_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фаллоимитатор двойной плотности высочайшего качества. Он имеет удлиненную форму и закругленный кончик, идеально подходит для простого, удобного и приятного введения и извлечения. В основании вы найдете прочную присоску, чтобы использовать вашу игрушку практически на любой поверхности.Также у этого фаллоимитатора любопытнейший материал, позволяющая изменять состояние ненадолго - при сжатии остаются временные вмятины - как у игрушек антистресс.В дополнении у игрушки есть вибрация и перезаряжаемый аккумулятор. Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов).  Перезаряжаемый фаллоимитатор с вибрацией Hitsens 2 (10 режимов). Модель: adrien-24511. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: ADRIEN LASTIC. </t>
+          <t xml:space="preserve">Гуарана является эффективным природным стимулятором. Бразильские индейцы использовали специфические свойства Гуараны еще за долго до того, как это растение открыли колонизаторы. Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ.Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ. Состав: индийский черный чай, молотые плоды гуараны, цедра апельсина, натуральный ароматизатор апельсин. Чай Afrodiza №1 Гуарана (15 саше).  Чай Afrodiza №1 Гуарана (15 саше). Модель: afrodiza-101. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Сенегал</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
+          <t>75 г</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>75 г</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2835,7 +2821,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>15 фильтр-саше</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2855,7 +2841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2866,17 +2852,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Чай Afrodiza №1 Гуарана (15 саше)</t>
+          <t>Чай Afrodiza №4 Йохимбе (15 саше)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-24746-1299</t>
+          <t>id-24748-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2892,12 +2878,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24746/24746_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_5_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гуарана является эффективным природным стимулятором. Бразильские индейцы использовали специфические свойства Гуараны еще за долго до того, как это растение открыли колонизаторы. Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ.Помимо тонизирующего эффекта, они выделяли способность Гуараны благотворно влиять на либидо, повышать силы, выносливость и концентрацию, а также улучшать обмен веществ. Состав: индийский черный чай, молотые плоды гуараны, цедра апельсина, натуральный ароматизатор апельсин. Чай Afrodiza №1 Гуарана (15 саше).  Чай Afrodiza №1 Гуарана (15 саше). Модель: afrodiza-101. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
+          <t xml:space="preserve">На протяжении веков коренными племенами стран Западной Африки Йохимбе применялся для придания выносливости и дополнительной энергии. Содержащийся в напитке алкалоид Йохимбин повышает двигательную активность и улучшает работу сердца. Этот алкалоид стимулирует активность либидо, вызывая приток мужской энергии.Состав: индийский черный чай, молотая кора йохимбе, стевия, натуральный ароматизатор манго. Чай Afrodiza №4 Йохимбе (15 саше).  Чай Afrodiza №4 Йохимбе (15 саше). Модель: afrodiza-104. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2975,28 +2961,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Виброяйца</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AFRODIZA</t>
+          <t>ALIVE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Чай Afrodiza №4 Йохимбе (15 саше)</t>
+          <t>Вибро-яйцо на дистанционном управлении</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-24748-1299</t>
+          <t>id-26932-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -3012,57 +2998,67 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24748/24748_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_2_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">На протяжении веков коренными племенами стран Западной Африки Йохимбе применялся для придания выносливости и дополнительной энергии. Содержащийся в напитке алкалоид Йохимбин повышает двигательную активность и улучшает работу сердца. Этот алкалоид стимулирует активность либидо, вызывая приток мужской энергии.Состав: индийский черный чай, молотая кора йохимбе, стевия, натуральный ароматизатор манго. Чай Afrodiza №4 Йохимбе (15 саше).  Чай Afrodiza №4 Йохимбе (15 саше). Модель: afrodiza-104. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: AFRODIZA. </t>
+          <t xml:space="preserve">Простой и удобный пульт управления имеет две кнопки  одна включает и выключает виброяйцо, другая предназначена для переключения между режимами вибрации. Виброяйцо Magic Egg 2.0 имеет один двигатель, который способен создавать очень мощную вибрацию. Игрушка изготовлена из ABS пластика и покрыта снаружи медицинским силиконом. Медицинский силикон безопасен для здоровья женщины, не имеет в своем составе фталатов, не вызывает раздражения и аллергии. Игрушка отлично подходит для игр в одиночку или с партнером. Эргономичное, компактное, надёжное и очень мощное виброяйцо Magic Egg 2.0 подарит Вам море удовольствия и сотни умопомрачительных оргазмов!.Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов).  Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов). Модель: alive-40523. Секс-игрушки. Женские стимуляторы &gt; Вибро-яйца. Цвет: фиолетовый. Материал: ABS пластик. AAA x 2 шт (в комплекте), 23 A (12 V) x 1 шт (в комплекте)Бренд: ALIVE. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Сенегал</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>ABS пластик</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>75 г</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>75 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>7</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3075,7 +3071,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>15 фильтр-саше</t>
+          <t>вибро-яйцо, пульт дистанционного управления</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3095,13 +3091,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Виброяйца</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ALIVE</t>
+          <t>ALLURE LINGERIE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3111,16 +3107,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Вибро-яйцо на дистанционном управлении</t>
+          <t>Синий атласный комплект с бабочками</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-26932-1299</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>id-20106-1299</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>99999</v>
@@ -3132,17 +3136,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26932/26932_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20106/20106_1_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Простой и удобный пульт управления имеет две кнопки  одна включает и выключает виброяйцо, другая предназначена для переключения между режимами вибрации. Виброяйцо Magic Egg 2.0 имеет один двигатель, который способен создавать очень мощную вибрацию. Игрушка изготовлена из ABS пластика и покрыта снаружи медицинским силиконом. Медицинский силикон безопасен для здоровья женщины, не имеет в своем составе фталатов, не вызывает раздражения и аллергии. Игрушка отлично подходит для игр в одиночку или с партнером. Эргономичное, компактное, надёжное и очень мощное виброяйцо Magic Egg 2.0 подарит Вам море удовольствия и сотни умопомрачительных оргазмов!.Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов).  Вибро-яйцо на дистанционном управлении ALIVE Magic Agg 2 (10 режимов). Модель: alive-40523. Секс-игрушки. Женские стимуляторы &gt; Вибро-яйца. Цвет: фиолетовый. Материал: ABS пластик. AAA x 2 шт (в комплекте), 23 A (12 V) x 1 шт (в комплекте)Бренд: ALIVE. </t>
+          <t xml:space="preserve">.Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг).  Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг). Модель: allure-S-100smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: синий, черный. Материал: 45% нейлон, 55% полиэстер. Батареек нет в комплекте. Бренд: ALLURE LINGERIE. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3157,7 +3161,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>ABS пластик</t>
+          <t>45% нейлон, 55% полиэстер</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3174,25 +3178,15 @@
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>7</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3205,7 +3199,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>вибро-яйцо, пульт дистанционного управления</t>
+          <t>Манжеты, стринги</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3225,40 +3219,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ALLURE LINGERIE</t>
+          <t>АЛТАВЕДЪ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Синий атласный комплект с бабочками</t>
+          <t>Концентрат в капсулах НАТУРВЕДЪ №6</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-20106-1299</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-28311-1299</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>99999</v>
@@ -3270,34 +3256,30 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20106/20106_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_3_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг).  Синий атласный комплект с бабочками (манжеты на шнуровке и трусики стринг). Модель: allure-S-100smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: синий, черный. Материал: 45% нейлон, 55% полиэстер. Батареек нет в комплекте. Бренд: ALLURE LINGERIE. </t>
+          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствуетпрофилактике простатита и воспалений мочеполовых путей.восстановлению эректильной функции и увеличению сперматогенеза.повышению полового влечения, удлинению полового акта, выносливости и работоспособности. нормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного тракта.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой. Пантогематоген способствует восстановлению гормонального баланса и эректильной дисфункции, снижает риск заболеваний мужской половой системы, усиливает половое влечение.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, простатита, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красный корень  негормональный стимулятор половой активности, способствующий увеличению сексуальной силы и восстановлению репродуктивной функции.Женьшень нормализует обменные процессы и функцию сердечно-сосудистой системы, улучшает кроветворение, обладает тонизирующими и восстанавливающими свойствами.Трибулус стимулирует работу половой системы, восстанавливает и улучшает потенцию, удлиняет время эрекции. Стимулирует сперматогенез, увеличивая количество сперматозоидов и их подвижность.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт). Модель: alta-03. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>45% нейлон, 55% полиэстер</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
@@ -3333,7 +3315,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>Манжеты, стринги</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3353,7 +3335,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3364,17 +3346,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Концентрат в капсулах НАТУРВЕДЪ №6</t>
+          <t>Травяной концентрат с Л-аргинином</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-28311-1299</t>
+          <t>id-28018-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3390,12 +3372,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28311/28311_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_5_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствуетпрофилактике простатита и воспалений мочеполовых путей.восстановлению эректильной функции и увеличению сперматогенеза.повышению полового влечения, удлинению полового акта, выносливости и работоспособности. нормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного тракта.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой. Пантогематоген способствует восстановлению гормонального баланса и эректильной дисфункции, снижает риск заболеваний мужской половой системы, усиливает половое влечение.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, простатита, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красный корень  негормональный стимулятор половой активности, способствующий увеличению сексуальной силы и восстановлению репродуктивной функции.Женьшень нормализует обменные процессы и функцию сердечно-сосудистой системы, улучшает кроветворение, обладает тонизирующими и восстанавливающими свойствами.Трибулус стимулирует работу половой системы, восстанавливает и улучшает потенцию, удлиняет время эрекции. Стимулирует сперматогенез, увеличивая количество сперматозоидов и их подвижность.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №6 Мужская Энергия (30 шт). Модель: alta-03. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Натуральный травяной концентрат Фитоведъ №1 с Пантогематогеном и Л-аргинином  эффективное средство для укрепления иммунитета и поддержания сексуального здоровья. Благодаря активным компонентам в составе бальзама:повышается умственная и физическая работоспособностьзамедляются процессы возрастных изменений мышц, костей и суставовактивизируются защитные силы организма и иммунной системыоказывается положительное влияние на нервную системуулучшается половая и репродуктивная функции.Пантогематоген  это уникальный натуральный продукт на основе крови алтайского марала: источник витаминов А, Е, аминокислот, липидов, пептидов, макро и микроэлементов. Помогает организму восстанавливать уровень гемоглобина в крови, повышает выносливость, ускоряет процесс заживления и регенерации тканей, повышает половую функцию и укрепляет иммунитет. Пантовая кровь алтайского марала обладает интенсивным восстанавливающим, тонизирующим и противовоспалительным действием.Красный корень содержит активные компоненты, направленные на восстановление функций половой системы, предотвращение воспалительных, бактериальных, вирусных процессов, импотенции, гормональных нарушений. Восстанавливает умственную и физическую активность, предупреждает изменения предстательной железы.Зверобой используют в качестве антибактериального, антисептического, болеутоляющего, ранозаживляющего, противоревматического, мочегонного, желчегонного, вяжущего, противоглистного средства, а также как регенерирующий препарат. Применяется при заболеваниях: сердца, ревматизма, простуды, гриппа, головных болей, заболеваний печени, желудка, мочевого пузыря, ночного недержания мочи, геморроя, воспаления женских половых органов. Зверобой положительно влияет на нервную систему и обладает антидепрессивным эффектом. Это делает зверобой ещё ценнее, так как он почти не имеет противопоказаний и не вызывает побочных явлений, в отличие от успокоительных лекарств химического происхождения.Чага  насыщает витаминами, полезные компоненты чаги способствуют укреплению иммунитета, улучшают состояние больных при опухолях любой локализации. Восстанавливающие процессы в тканях происходят за счет общеукрепляющих, тонизирующих свойств чаги. Содержит железо, магний, марганец, калий, ионы меди, алюминия, серебра, кобальта, цинка и никеля. Способствует снятию обострения хронических заболеваний и восстановлению функций желудочно-кишечного тракта, повышению общего иммунного статуса.Люцерна содержит омега-3 и омега-6 аминокислоты, витамины С, Е, В. Оказывает благоприятное воздействие на структуру волос, здоровье глаз, строение ногтевой пластины и ее укрепление. Восстанавливает энергетический баланс после перенесенных заболеваний, укрепляет кровеносные сосуды, способствует профилактике сахарного диабета. Укрепляет иммунитет, снимает боль в суставах, активизирует клетки организма на борьбу с вирусом или инфекциейЛ-аргинин  одна из самых важных аминокислот в нашем о</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3417,13 +3399,17 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3449,7 +3435,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>30 капсул</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3469,7 +3455,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3480,17 +3466,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Травяной концентрат с Л-аргинином</t>
+          <t>Струя бобровая Здоровье Женщины 60</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-28018-1299</t>
+          <t>id-27274-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3506,12 +3492,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28018/28018_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_4_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральный травяной концентрат Фитоведъ №1 с Пантогематогеном и Л-аргинином  эффективное средство для укрепления иммунитета и поддержания сексуального здоровья. Благодаря активным компонентам в составе бальзама:повышается умственная и физическая работоспособностьзамедляются процессы возрастных изменений мышц, костей и суставовактивизируются защитные силы организма и иммунной системыоказывается положительное влияние на нервную системуулучшается половая и репродуктивная функции.Пантогематоген  это уникальный натуральный продукт на основе крови алтайского марала: источник витаминов А, Е, аминокислот, липидов, пептидов, макро и микроэлементов. Помогает организму восстанавливать уровень гемоглобина в крови, повышает выносливость, ускоряет процесс заживления и регенерации тканей, повышает половую функцию и укрепляет иммунитет. Пантовая кровь алтайского марала обладает интенсивным восстанавливающим, тонизирующим и противовоспалительным действием.Красный корень содержит активные компоненты, направленные на восстановление функций половой системы, предотвращение воспалительных, бактериальных, вирусных процессов, импотенции, гормональных нарушений. Восстанавливает умственную и физическую активность, предупреждает изменения предстательной железы.Зверобой используют в качестве антибактериального, антисептического, болеутоляющего, ранозаживляющего, противоревматического, мочегонного, желчегонного, вяжущего, противоглистного средства, а также как регенерирующий препарат. Применяется при заболеваниях: сердца, ревматизма, простуды, гриппа, головных болей, заболеваний печени, желудка, мочевого пузыря, ночного недержания мочи, геморроя, воспаления женских половых органов. Зверобой положительно влияет на нервную систему и обладает антидепрессивным эффектом. Это делает зверобой ещё ценнее, так как он почти не имеет противопоказаний и не вызывает побочных явлений, в отличие от успокоительных лекарств химического происхождения.Чага  насыщает витаминами, полезные компоненты чаги способствуют укреплению иммунитета, улучшают состояние больных при опухолях любой локализации. Восстанавливающие процессы в тканях происходят за счет общеукрепляющих, тонизирующих свойств чаги. Содержит железо, магний, марганец, калий, ионы меди, алюминия, серебра, кобальта, цинка и никеля. Способствует снятию обострения хронических заболеваний и восстановлению функций желудочно-кишечного тракта, повышению общего иммунного статуса.Люцерна содержит омега-3 и омега-6 аминокислоты, витамины С, Е, В. Оказывает благоприятное воздействие на структуру волос, здоровье глаз, строение ногтевой пластины и ее укрепление. Восстанавливает энергетический баланс после перенесенных заболеваний, укрепляет кровеносные сосуды, способствует профилактике сахарного диабета. Укрепляет иммунитет, снимает боль в суставах, активизирует клетки организма на борьбу с вирусом или инфекциейЛ-аргинин  одна из самых важных аминокислот в нашем организме. Играет важную роль в процессах обмена веществ, усиливает выработку соматотропина (гормона роста). У мужчин усиливает приток крови к половым органам и увеличивается количество семенной жидкости, благодаря чему создаются оптимальные условия для продолжительной и устойчивой эрекции.Черника рекомендуется при заболевании глаз (катаракты, ночной слепоты, увеитов, ретинопатий), болезней сердечно-сосудистой системы (атеросклероза, артериальной гипертензии, ишемической болезни сердца, тромбозов, варикозной болезни вен), железодефицитной анемии, нарушений обмена веществ (сахарного диабета 2 типа, подагры, ожирения), неврологических патологий (старческой деменции, болезни Альцгеймера).Концентрат Фитоведъ №1 оказывает эффективное действие:при импотенции.при дегенеративных изменениях предстательной железы.при нарушении мочеиспускания.при нарушении сперматогенеза.при воспалительных процессах органов мочеполовой системы у мужчин и женщин.при бесплодии.при нарушении образования тестостерона у мужчин.при нарушении функций и состояния органов эндокринной системы (гипофиз, щитовидная железа, кора надпочечников, яичники или яички).при общей слабости.при железодефицитной анемии.при сниженном иммунитете.при хронической усталости, депрессивных состояниях.при нарушении обменных процессов (повышенном содержании сахара в крови, лишней массе тела).Состав: пантогематоген (кровь марала), водный настой лекарственных растений: красный корень, зверобой, чага, люцерна, лист черники, корень солодки, крапива, сахар, Л-аргинин, сорбат калия, аскорбиновая кислота. Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл).  Травяной концентрат с Л-аргинином ПАНТОГЕМАТОГЕН (100 мл). Модель: alta-10. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Увеличение количества спермы. Препараты и возбудители &gt; Предотвращение простатита. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Концентрат Натурведъ № 32 Здоровье женщины  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для женского здоровья и долголетия.Сбалансированный комплекс активных компонентов способствует:профилактике и уменьшению гормональных сбоев, симптомов ПМС и климатерических проявленийуменьшению воспалений и укреплению антивирусной защиты организмаснижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действиемвосстановлению функций и работы мочеполовой системы женщиныповышению либидо.Экстракт бобровой струи оказывает высокую эффективность при проблемах в половой сфере, активизирует защитные силы организма и укрепляет иммунитет.Экстракт горянки снимает воспаления мочеполовых путей, улучшает отток желчи и способствует выведению мелких конкрементов, повышает защитные силы организма, способствует восстановлению при хронической усталости, замедляет процессы старения и благотворно воздействует на кожу и волосы, ускоряет выздоровление после тяжелых болезней, препятствует развитию онкологических процессов, восстанавливает и поддерживает водный баланс в клетках эпидермиса, помогает вывести отеки за счет мочегонного действия.Экстракт заманихи эффективен при физических и психических проблемах у женщин в период менопаузы, при синдроме поликистозных яичников, восстановлении менструального цикла. Расслабляет гладкую мускулатуру, что снижает менструальные боли. Так же усиливает половое влечение. Оказывает бодрящее, тонизирующее действие, мобилизует защитные силы организма.Экстракт красной щётки помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и предклимактерических проявлений.Экстракт боровой матки улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях. Биологически активные вещества, входящие в состав боровой матки, участвуют во многих процессах женского организма, благотворно влияют на обмен веществ и энергетический обмен, повышают иммунитет. Содержание фитогормонов восстанавливает женскую репродуктивную систему, приостанавливает развитие опухолей, помогает при климаксе. Противовоспалительные, регенерирующие способности нашли свое применение при болезнях ЖКТ. Сильный природный антиоксидант позволяет сохранить природную красоту на долгие годы.Способ применения: по 1 капсуле 2 раза в день во время еды. Продолжительность курса 1 месяц, кратность приема не более 4 раз в год.Противопоказания: индивидуальная непереносимость компонентов, беременность, лактация.Состав: экстракт бобровой струи, экстракт горянки, экстракт заманихи, экстракт красной щётки, экстракт боровой матки, янтарная кислота, витамин С.Форма выпуска: в упаковке 60 капсул по 0,5 г. Струя бобровая Здоровье Женщины (60 капсул).  Струя бобровая Здоровье Женщины (60 капсул). Модель: alta-87-2. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3533,17 +3519,13 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3569,7 +3551,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>60 капсул</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3589,7 +3571,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3600,17 +3582,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Струя бобровая Сила Мужчины (60 капсул)</t>
+          <t>Концентрат в капсулах НАТУРВЕДЪ №7</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-27273-1299</t>
+          <t>id-27603-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3626,12 +3608,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27273/27273_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_4_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Концентрат Натурведъ № 31 Мужская сила  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для мужского здоровья и долголетия.Концентрат способствует:профилактике простатита и воспалений мочеполовых путейвосстановлению эректильной функции и увеличению сперматогенезанормализации и восстановлению функций мочеполовой, сердечно-сосудистой, иммунной систем, а также работы желудочно-кишечного трактаспособствует выработке тестостеронаулучшает приток крови к органам малого таза и увеличивает потенциюоказывает эффективное противовоспалительное действиеЭкстракт бобровой струи  природный антибиотик и адаптоген, оказывает высокую эффективность при всех формах полового бессилия, активизирует защитные силы организма, увеличивает работоспособность, омолаживает и очищает организм, обладает регенерирующим и восстанавливающим действием, улучшая работу каждого органа и организма в целом.L-аргинин расширяет кровеносные сосуды полового члена и усиливает приток крови к органам малого таза. В результате этого возникает твердая и длительная эрекция, увеличивается продолжительность полового акта. Помимо улучшения потенции, аргинин влияет на состав спермы и предотвращает мужское бесплодие. Аминокислота повышает уровень гормона роста соматотропина  основного вещества, которое отвечает за белковый синтез в мышечной ткани. Она также помогает спортсменам и бодибилдерам приобрести красивое рельефное тело. L-аргинин укрепляет иммунитет и борется со старением.Экстракт йохимбе используется как афродизиак (стимулирует половые органы мужчин, оказывает положительный эффект в лечении психогенной и функциональной эректильной дисфункции), способствует сжиганию жира, позволяет тренироваться дольше и интенсивнее. Обладает общим стимулирующим воздействием на организм, оказывает возбуждающее воздействие на ЦНС, улучшая когнитивные функции, ментальную концентрацию.Экстракт тонгкат али используется для повышения уровня тестостерона, эрекции, улучшения сексуальной жизни, при импотенции и прочих дисфункциях. Рекомендуется при простатите и раннем семяизвержении. Отвечает за выработку половых гормонов, а это в свою очередь помогает повысить общий тонус организма, улучшается самочувствие, прибавляются силы и желание.Экстракт красного корня способен длительное время поддерживать активную половую жизнь мужчины, оказывая стимулирующее действие на потенцию, помогает расслаблению гладкой мускулатуры протоков предстательной железы. Это восстанавливает процесс оттока простатического секрета, и улучшает кровоснабжение органов мочеполовой системы. Активизирует сексуальные возможности мужчины, восстанавливает его организм после тяжелых физических нагрузок, устраняет застои жидкости в простате, усиливает кровообращение во всей репродуктивной системе.Экстракт зверобоя ускоряет артериальный и венозный кровоток, расширяется просвет кровеносного русла, что положительно сказывается на качестве кровенаполнения полового члена при возбуждении. Так же эффективен при эректильной дисфункции психогенного характера, вызванной депрессивным состоянием и стрессами.Способ применения: по 1 капсуле 2 раза в день во время еды. Продолжительность курса 1 месяц, кратность приема не более 4 раз в год.Противопоказания: индивидуальная непереносимость компонентов.Состав: экстракт бобровой струи, L-аргинин, экстракт йохимбе, экстракт тонгкат али, экстракт красного корня, экстракт зверобоя, янтарная кислота, витамин С.Форма выпуска: в упаковке 60 капсул по 0,5 г. Струя бобровая Сила Мужчины (60 капсул).  Струя бобровая Сила Мужчины (60 капсул). Модель: alta-87-1. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Улучшение качества спермы. Препараты и возбудители &gt; Усиление выносливости. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствует профилактике гормональных сбоев.улучшению работы органов эндокринной системы, выступает в качестве мощного противодействия оксидативному стрессу, не допуская развития онкологических новообразований.снижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действием.восстановлению репродуктивной функции и работы мочеполовой системы в целом.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой.Пантогематоген восстанавливает гормональный баланс и либидо, возвращая чувствительность интимных мест.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красная щётка помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и климактерических проявлений.Боровая матка улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обм</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3685,7 +3667,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>60 капсул</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3716,17 +3698,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Струя бобровая Здоровье Женщины 60</t>
+          <t>Струя бобровая с живицей кедра 30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-27274-1299</t>
+          <t>id-27838-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3742,12 +3724,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27274/27274_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_4_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Концентрат Натурведъ № 32 Здоровье женщины  это натуральный комплекс на основе экстрактов лекарственных растений и бобровой струи для женского здоровья и долголетия.Сбалансированный комплекс активных компонентов способствует:профилактике и уменьшению гормональных сбоев, симптомов ПМС и климатерических проявленийуменьшению воспалений и укреплению антивирусной защиты организмаснижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действиемвосстановлению функций и работы мочеполовой системы женщиныповышению либидо.Экстракт бобровой струи оказывает высокую эффективность при проблемах в половой сфере, активизирует защитные силы организма и укрепляет иммунитет.Экстракт горянки снимает воспаления мочеполовых путей, улучшает отток желчи и способствует выведению мелких конкрементов, повышает защитные силы организма, способствует восстановлению при хронической усталости, замедляет процессы старения и благотворно воздействует на кожу и волосы, ускоряет выздоровление после тяжелых болезней, препятствует развитию онкологических процессов, восстанавливает и поддерживает водный баланс в клетках эпидермиса, помогает вывести отеки за счет мочегонного действия.Экстракт заманихи эффективен при физических и психических проблемах у женщин в период менопаузы, при синдроме поликистозных яичников, восстановлении менструального цикла. Расслабляет гладкую мускулатуру, что снижает менструальные боли. Так же усиливает половое влечение. Оказывает бодрящее, тонизирующее действие, мобилизует защитные силы организма.Экстракт красной щётки помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и предклимактерических проявлений.Экстракт боровой матки улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях. Биологически активные вещества, входящие в состав боровой матки, участвуют во многих процессах женского организма, благотворно влияют на обмен веществ и энергетический обмен, повышают иммунитет. Содержание фитогормонов восстанавливает женскую репродуктивную систему, приостанавливает развитие опухолей, помогает при климаксе. Противовоспалительные, регенерирующие способности нашли свое применение при болезнях ЖКТ. Сильный природный антиоксидант позволяет сохранить природную красоту на долгие годы.Способ применения: по 1 капсуле 2 раза в день во время еды. Продолжительность курса 1 месяц, кратность приема не более 4 раз в год.Противопоказания: индивидуальная непереносимость компонентов, беременность, лактация.Состав: экстракт бобровой струи, экстракт горянки, экстракт заманихи, экстракт красной щётки, экстракт боровой матки, янтарная кислота, витамин С.Форма выпуска: в упаковке 60 капсул по 0,5 г. Струя бобровая Здоровье Женщины (60 капсул).  Струя бобровая Здоровье Женщины (60 капсул). Модель: alta-87-2. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Живица кедра  это мощнейший антиоксидант природного происхождения и прекрасный иммуностимулятор. Регулярное употребление живицы включает процесс регенерации на клеточном уровне. Кедровая живица бережно очищает весь организм, восстанавливая структуру и функцию клеток печени и поджелудочной железы, выводит из организма соли тяжёлых металлов. Она обладает общеукрепляющим действием, снижает синдром хронической усталости, повышает умственную и физическую работоспособность, нормализует сердечную деятельность, в том числе при инфаркте миокарда.Витамин С весьма важен для нормальной работы сердечно-сосудистой системы, поскольку укрепляет сосудистую стенку и мешает развитию атеросклероза. Аскорбиновая кислота предохраняет организм от инфекций, укрепляя иммунитет, удлиняет продолжительность жизни. В случае курения, потребность в суточной дозе витамина С гораздо возрастает.Показания к применению:заболевания бронхо-легочной системы.неврологические расстройства.заболевания урологического характера у мужчин (простатит, импотенция, геморрой).гинекологические проблемы у женщин (молочница, миома и другие).болезни органов мочеполовой системы (цистит, пиелонефрит и другие).заболевания опорно-двигательного аппарата (травмы, восстановительный послеоперационный период).болезни органов зрения (катаракта, конъюнктивит, возрастное снижение качества зрения).заболевания сердечно-сосудистой системы (артериальная гипертензия, инфаркты, инсульты).сахарный диабет.гепатиты А и В.заболевания желудочно-кишечного тракта (язва желудка, поджелудочная железа).тромбофлебит.Способ применения: употреблять внутрь по 1капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок). Струя бобровая с живицей кедра (30 капсул).  Струя бобровая с живицей кедра (30 капсул). Модель: alta-89. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Усиление выносливости. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3801,7 +3783,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>60 капсул</t>
+          <t>30 капсул</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3821,28 +3803,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>АЛТАВЕДЪ</t>
+          <t>AMOR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Концентрат в капсулах НАТУРВЕДЪ №7</t>
+          <t>Классические презервативы AMOR NATURE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-27603-1299</t>
+          <t>id-24872-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3858,30 +3840,34 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27603/27603_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24872/24872_1_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сбалансированный комплекс активных компонентов способствует профилактике гормональных сбоев.улучшению работы органов эндокринной системы, выступает в качестве мощного противодействия оксидативному стрессу, не допуская развития онкологических новообразований.снижению эмоциональных всплесков и раздражительности, обладает выраженным седативным действием.восстановлению репродуктивной функции и работы мочеполовой системы в целом.Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Пантогематоген  натуральный источник железа, действие которого направлено на пробуждение и включение внутренних резервов организма, восстановление физиологических функций, подъём иммунного статуса. Результатом является повышение общей сопротивляемости организма к различным заболеваниям, вызванными инфекциями, несбалансированным питанием, условиями труда, стрессами или окружающей средой.Пантогематоген восстанавливает гормональный баланс и либидо, возвращая чувствительность интимных мест.Каменное масло - универсальный адаптоген, содержит рекордное количество микро и макроэлементов жизненно необходимых организму человека, обладает выраженными ранозаживляющими, гепатопротекторными, антибактериальными, противоопухолевыми и антиметастатическими свойствами. Каменное масло ускоряет заживление переломов, повреждений, эффективно при лечении бесплодия, применяется для профилактики возникновения и развития злокачественных новообразований. Каменное масло способствует активизации иммунной защиты организма, уничтожая вирусы и очищая кровь.Красная щётка помогает урегулировать гормональные циклические процессы в женском организме, предупредить развитие гормонозависимых заболеваний, уменьшая симптомы ПМС и климактерических проявлений.Боровая матка улучшает трофику сосудов, участвует в биохимических реакциях, улучшает клеточное дыхание и обменные процессы в тканях.Способ применения: употреблять внутрь по 1 капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок).Форма выпуска: капсулы (0,5 г) 30 штук. Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт).  Концентрат в капсулах НАТУРВЕДЪ №7 Женская Энергия (30 шт). Модель: alta-88. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Классические презервативы AMOR Nature обеспечивают прочную защиту и комфорт с 1968 года. Идеально для тех, кто ценит постоянство и простоту.    Гладкие, бесцветные, без запаха.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.СТАБИЛЬНО ВЫСОКОЕ КАЧЕСТВО ОТ AMOR- собственное производство латекса и готовой продукции обеспечивает 100% контроль производства- трехэтапная проверка электроникой готовой продукции.Классические презервативы AMOR NATURE 18 см (3 шт).  Классические презервативы AMOR NATURE 18 см (3 шт). Модель: amor-1001. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
@@ -3894,11 +3880,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>18</v>
+      </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -3917,7 +3913,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>30 капсул</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3937,28 +3933,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>АЛТАВЕДЪ</t>
+          <t>AMOR</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Струя бобровая с живицей кедра 30</t>
+          <t>Ароматизированные презервативы AMOR</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-27838-1299</t>
+          <t>id-24878-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3974,30 +3970,34 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27838/27838_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24878/24878_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бобровая струя улучшает работу многих систем: кровеносной, сердечно-сосудистой, иммунной, нервной, нормализует гормональный фон, останавливает воспалительные и опухолевые процессы, снимает судороги и даже нейтрализует последствия радиационного облучения. Представляет собой универсальное природное вещество, оказывающее общеукрепляющее, тонизирующее и омолаживающее действие на организм.Живица кедра  это мощнейший антиоксидант природного происхождения и прекрасный иммуностимулятор. Регулярное употребление живицы включает процесс регенерации на клеточном уровне. Кедровая живица бережно очищает весь организм, восстанавливая структуру и функцию клеток печени и поджелудочной железы, выводит из организма соли тяжёлых металлов. Она обладает общеукрепляющим действием, снижает синдром хронической усталости, повышает умственную и физическую работоспособность, нормализует сердечную деятельность, в том числе при инфаркте миокарда.Витамин С весьма важен для нормальной работы сердечно-сосудистой системы, поскольку укрепляет сосудистую стенку и мешает развитию атеросклероза. Аскорбиновая кислота предохраняет организм от инфекций, укрепляя иммунитет, удлиняет продолжительность жизни. В случае курения, потребность в суточной дозе витамина С гораздо возрастает.Показания к применению:заболевания бронхо-легочной системы.неврологические расстройства.заболевания урологического характера у мужчин (простатит, импотенция, геморрой).гинекологические проблемы у женщин (молочница, миома и другие).болезни органов мочеполовой системы (цистит, пиелонефрит и другие).заболевания опорно-двигательного аппарата (травмы, восстановительный послеоперационный период).болезни органов зрения (катаракта, конъюнктивит, возрастное снижение качества зрения).заболевания сердечно-сосудистой системы (артериальная гипертензия, инфаркты, инсульты).сахарный диабет.гепатиты А и В.заболевания желудочно-кишечного тракта (язва желудка, поджелудочная железа).тромбофлебит.Способ применения: употреблять внутрь по 1капсуле 3 раза в день во время еды, запивая жидкостью (вода, чай, сок). Струя бобровая с живицей кедра (30 капсул).  Струя бобровая с живицей кедра (30 капсул). Модель: alta-89. Косметика, препараты. Препараты и возбудители &gt; Усиление эрекции. Препараты и возбудители &gt; Усиление выносливости. Препараты и возбудители &gt; Предотвращение простатита. Батареек нет в комплекте. Бренд: АЛТАВЕДЪ. </t>
+          <t xml:space="preserve">Коллекция презервативов AMOR Fruit с тонкими ароматами для ярких, красочных впечатлений. Идеально для тех, кто стремится к легкости и игре.    Ароматизированные, цветные, гладкие.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.1 презерватив с ароматом апельсина, розового цвета1 презерватив с ароматом шоколада, черного цвета1 презерватив с ароматом банана, желтого цвета.Ароматизированные презервативы AMOR FRUIT 18 см (3 шт).  Ароматизированные презервативы AMOR FRUIT 18 см (3 шт). Модель: amor-1003. Презервативы. Презервативы &gt; Ароматизированные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
@@ -4010,11 +4010,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>18</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
@@ -4033,7 +4043,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>30 капсул</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4053,13 +4063,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>АЛВИТТА</t>
+          <t>AMOR EL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4069,16 +4079,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Сироп боровой матки с красной щеткой и</t>
+          <t>Бесшовное мини-платье с фантазийным</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-22026-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>id-27873-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -4090,44 +4108,44 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22026/22026_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сироп боровой матки с красной щеткой и шалфеем Женская стать - это натуральный профилактический напиток, обогащенный витамином С. Уникальная по своему составу и воздействию композиция, состоящая из боровой матки и красной щетки, считающихся женскими растениями, с добавлением клевера, шалфея и кедрового ореха в комплексе способствует сохранению и восстановлению женской молодости и привлекательности, словно бы поворачивая время вспять.Лист боровой матки (ортилия однобокая) - это природный источник женского гормона прогестерона, в том числе отвечающего за способность к оплодотворению и вынашиванию ребенка. Успешно используется при гормональном дисбалансе женщины в любом возрасте.Корень красной щетки (родиола четырехчленная) богат микро - и макроэлементами, витаминами, способствует нормализации гормонального баланса и устранению патологий, спровоцированных сбоями в работе эндокринной системы.Лист шалфея природный женский фитоэстроген. Сироп боровой матки с красной щеткой и шалфеем Женская стать (200 мл).  Сироп боровой матки с красной щеткой и шалфеем "Женская стать" (200 мл). Модель: alvitta-72. Косметика, препараты. Препараты и возбудители &gt; Улучшение репродуктивной функции женщин. Батареек нет в комплекте. Бренд: АЛВИТТА. </t>
+          <t xml:space="preserve">Эротическое мини-платье с глубоким круглым вырезом. Дизайн в виде кружевного рисунка и дополнен имитацией шнуровки спереди. Благодаря использованию большего количества нейлона белье сохраняет очертания, не деформируется, растягивается и выгодно облегает фигуру. А за счет эластана, даже после сильного растяжения, оно не деформируются, и всегда принимает исходную форму.Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на упаковке. Бесшовное мини-платье с фантазийным узором.  Бесшовное мини-платье с фантазийным узором. Модель: amor-el-071slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% эластан</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -4153,7 +4171,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4173,32 +4191,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AMOR</t>
+          <t>AMOR EL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Классические презервативы AMOR NATURE</t>
+          <t>Колготки с имтацией чулок и пояса Amor</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-24872-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>id-25285-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4210,17 +4236,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24872/24872_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_2_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические презервативы AMOR Nature обеспечивают прочную защиту и комфорт с 1968 года. Идеально для тех, кто ценит постоянство и простоту.    Гладкие, бесцветные, без запаха.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.СТАБИЛЬНО ВЫСОКОЕ КАЧЕСТВО ОТ AMOR- собственное производство латекса и готовой продукции обеспечивает 100% контроль производства- трехэтапная проверка электроникой готовой продукции.Классические презервативы AMOR NATURE 18 см (3 шт).  Классические презервативы AMOR NATURE 18 см (3 шт). Модель: amor-1001. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
+          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией на упаковке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-101slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4235,7 +4261,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>94% нейлон, 6% спандекс</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4250,21 +4276,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X30" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>18</v>
-      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -4283,7 +4299,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4303,32 +4319,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AMOR</t>
+          <t>AMOR EL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ароматизированные презервативы AMOR</t>
+          <t>Колготки с имтацией чулок и пояса Amor</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-24878-1299</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+          <t>id-25282-1299</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>99999</v>
@@ -4340,17 +4364,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24878/24878_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коллекция презервативов AMOR Fruit с тонкими ароматами для ярких, красочных впечатлений. Идеально для тех, кто стремится к легкости и игре.    Ароматизированные, цветные, гладкие.    Эластичный, с повышенной мягкостью натуральный латекс.    Гипоаллергенная смазка без спермицидов.    Анатомическая форма с накопителем.    Обильное количество смазки для большего комфорта.    Плотно облегающее латексное кольцо для прочной фиксации без эффекта сдавливания.1 презерватив с ароматом апельсина, розового цвета1 презерватив с ароматом шоколада, черного цвета1 презерватив с ароматом банана, желтого цвета.Ароматизированные презервативы AMOR FRUIT 18 см (3 шт).  Ароматизированные презервативы AMOR FRUIT 18 см (3 шт). Модель: amor-1003. Презервативы. Презервативы &gt; Ароматизированные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: AMOR. </t>
+          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на этикетке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-102slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4365,7 +4389,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>94% нейлон, 6% спандекс</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4380,21 +4404,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>18</v>
-      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
@@ -4413,7 +4427,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>колготки</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4433,7 +4447,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -4449,12 +4463,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Бесшовное мини-платье с фантазийным</t>
+          <t>Комплект эротического белья</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-27873-1299</t>
+          <t>id-25535-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4478,12 +4492,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27873/27873_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_2_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротическое мини-платье с глубоким круглым вырезом. Дизайн в виде кружевного рисунка и дополнен имитацией шнуровки спереди. Благодаря использованию большего количества нейлона белье сохраняет очертания, не деформируется, растягивается и выгодно облегает фигуру. А за счет эластана, даже после сильного растяжения, оно не деформируются, и всегда принимает исходную форму.Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на упаковке. Бесшовное мини-платье с фантазийным узором.  Бесшовное мини-платье с фантазийным узором. Модель: amor-el-071slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Комплект эротического белья, состоящего из кружевного бюстгальтера с вырезами в районе сосков и элегантных ажурных стринг с игривым вырезом. Комплект эротического белья.  Комплект эротического белья. Модель: amor-el-3010-1slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4493,12 +4507,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -4541,7 +4555,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4561,13 +4575,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AMOR EL</t>
+          <t>ANAIS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -4577,22 +4591,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Колготки с имтацией чулок и пояса Amor</t>
+          <t>Черные откровенные трусики Jill с</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-25285-1299</t>
+          <t>id-16562-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -4606,17 +4620,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25285/25285_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_2_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Изделие не вызывает аллергию, не окрашивает. Уход и стирку следует производить в соответствии с инструкцией на упаковке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-101slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">.Черные откровенные трусики Jill с бантом на ягодицах L.  Черные откровенные трусики Jill с бантом на ягодицах L. Модель: anais-1206lb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: ANAIS. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4631,7 +4645,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>94% нейлон, 6% спандекс</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4669,7 +4683,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4689,40 +4703,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AMOR EL</t>
+          <t>ARLETTE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Колготки с имтацией чулок и пояса Amor</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-25282-1299</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22301-1299</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>99999</v>
@@ -4734,32 +4740,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25282/25282_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22301/22301_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулки с поясом из мягкой эластичной сетчатой ткани. Уход и стирку следует производить в соответствии с инструкцией завода-изготовителя на этикетке. Колготки с имтацией чулок и пояса Amor El.  Колготки с имтацией чулок и пояса Amor El. Модель: amor-el-102slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 94% нейлон, 6% спандекс. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 3 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (3 шт).  Презервативы Arlette Light ультратонкие № 1 (3 шт). Модель: arlette-801. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>94% нейлон, 6% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4797,7 +4803,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>колготки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4817,40 +4823,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AMOR EL</t>
+          <t>ARLETTE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Комплект эротического белья</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-25535-1299</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22304-1299</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>99999</v>
@@ -4862,17 +4860,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25535/25535_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22304/22304_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья, состоящего из кружевного бюстгальтера с вырезами в районе сосков и элегантных ажурных стринг с игривым вырезом. Комплект эротического белья.  Комплект эротического белья. Модель: amor-el-3010-1slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: AMOR EL. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 3! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Практичная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (3 шт).  Презервативы Arlette Classic классические № 2 (3 шт). Модель: arlette-802. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4887,7 +4885,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4925,7 +4923,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4945,40 +4943,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ANAIS</t>
+          <t>ARLETTE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Черные откровенные трусики Jill с</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-16562-1299</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-22293-1299</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>99999</v>
@@ -4990,32 +4980,32 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16562/16562_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22293/22293_1_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные откровенные трусики Jill с бантом на ягодицах L.  Черные откровенные трусики Jill с бантом на ягодицах L. Модель: anais-1206lb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: ANAIS. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт). Модель: arlette-803. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -5032,9 +5022,15 @@
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="Y36" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
@@ -5053,7 +5049,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5089,12 +5085,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Точечные презервативы Arlette Dotted №</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-22301-1299</t>
+          <t>id-22291-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -5110,12 +5106,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22301/22301_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22291/22291_1_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 3 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (3 шт).  Презервативы Arlette Light ультратонкие № 1 (3 шт). Модель: arlette-801. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (3 шт).  Точечные презервативы Arlette Dotted № 4 (3 шт). Модель: arlette-804. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5135,7 +5131,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5152,9 +5148,15 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -5173,7 +5175,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5209,12 +5211,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-22304-1299</t>
+          <t>id-22302-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5230,12 +5232,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22304/22304_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22302/22302_1_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 3! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Практичная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (3 шт).  Презервативы Arlette Classic классические № 2 (3 шт). Модель: arlette-802. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 6 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (6 шт).  Презервативы Arlette Light ультратонкие № 1 (6 шт). Модель: arlette-806. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5329,12 +5331,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-22293-1299</t>
+          <t>id-22305-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5350,12 +5352,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22293/22293_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22305/22305_1_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (3 шт). Модель: arlette-803. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 6! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день.Презервативы Arlette Classic классические № 2 (6 шт).  Презервативы Arlette Classic классические № 2 (6 шт). Модель: arlette-807. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5375,7 +5377,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5392,15 +5394,9 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -5419,7 +5415,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5455,12 +5451,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Точечные презервативы Arlette Dotted №</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-22291-1299</t>
+          <t>id-22294-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5476,12 +5472,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22291/22291_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22294/22294_1_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (3 шт).  Точечные презервативы Arlette Dotted № 4 (3 шт). Модель: arlette-804. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт). Модель: arlette-808. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5545,7 +5541,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>3 презерватива</t>
+          <t>6 презервативов</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5581,12 +5577,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Точечные презервативы Arlette Dotted №</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-22302-1299</t>
+          <t>id-22292-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5602,12 +5598,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22302/22302_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22292/22292_1_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 6 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (6 шт).  Презервативы Arlette Light ультратонкие № 1 (6 шт). Модель: arlette-806. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (6 шт).  Точечные презервативы Arlette Dotted № 4 (6 шт). Модель: arlette-809. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5627,7 +5623,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5644,9 +5640,15 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
@@ -5665,7 +5667,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>6 презервативов</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5701,12 +5703,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы Arlette Strong</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-22305-1299</t>
+          <t>id-22299-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5722,17 +5724,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22305/22305_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22299/22299_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic № 6! Их гладкая поверхность обеспечивает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день.Презервативы Arlette Classic классические № 2 (6 шт).  Презервативы Arlette Classic классические № 2 (6 шт). Модель: arlette-807. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 6 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (6 шт).  Презервативы Arlette Strong ультрапрочные № 5 (6 шт). Модель: arlette-810. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5764,9 +5766,15 @@
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="Y42" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
@@ -5821,12 +5829,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Презервативы Arlette Light ультратонкие</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-22294-1299</t>
+          <t>id-22303-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5842,12 +5850,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22294/22294_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22303/22303_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (6 шт). Модель: arlette-808. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 12 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (12 шт).  Презервативы Arlette Light ультратонкие № 1 (12 шт). Модель: arlette-812. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5867,7 +5875,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5884,15 +5892,9 @@
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -5911,7 +5913,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5947,12 +5949,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Точечные презервативы Arlette Dotted №</t>
+          <t>Презервативы Arlette Classic</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22292-1299</t>
+          <t>id-22306-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5968,12 +5970,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22292/22292_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22306/22306_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Точечные презервативы Arlette Dotted № 3 - это непревзойденная защита для мужчины и чувственное наслаждение для женщины. Точечный рельеф дополнительно стимулирует партнершу, затрагивая во время полового акта большее количество нервных окончаний. Это делает стимуляцию более интенсивной, а кульминацию - громкой. Увеличенный до 185 мм размер обеспечивает безупречный комфорт во время секса - презерватив не сдавливает член и не скатывается в процессе. Приятный аромат тутти-фрутти задает особенное настроение и не раздражает в отличие от резинового запаха обычных презервативов. Мировые стандарты производства и строгий контроль качества на каждом этапе гарантируют первоклассную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Точечные презервативы Arlette Dotted - когда секс не просто безопасный, но и гарантированно яркий. Точечные презервативы Arlette Dotted № 4 (6 шт).  Точечные презервативы Arlette Dotted № 4 (6 шт). Модель: arlette-809. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic №12. Их гладкая поверхность дает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (12 шт).  Презервативы Arlette Classic классические № 2 (12 шт). Модель: arlette-813. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5993,7 +5995,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -6010,15 +6012,9 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
@@ -6037,7 +6033,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>6 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6073,12 +6069,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Strong</t>
+          <t>Презервативы с продлевающей смазкой</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-22299-1299</t>
+          <t>id-22295-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6094,17 +6090,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22299/22299_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22295/22295_1_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 6 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 6-ю презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (6 шт).  Презервативы Arlette Strong ультрапрочные № 5 (6 шт). Модель: arlette-810. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт). Модель: arlette-814. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -6119,7 +6115,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6163,7 +6159,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 презервативов</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6199,12 +6195,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Light ультратонкие</t>
+          <t>Презервативы Arlette Strong</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-22303-1299</t>
+          <t>id-22300-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6220,17 +6216,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22303/22303_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22300/22300_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие презервативы Arlette Light № 12 по достоинству оценят любители близости и естественных ощущений. Толщина их стенок составляет всего 0,05 мм и в полной мере передает весь спектр впечатлений. Длина на 5 мм больше, чем у обычных презервативов, поэтому Arlette Light не сжимают пенис и не стесняют движения. Высокое качество латекса строго контролируется и гарантирует надежную защиту обоим партнерам. Приятный аромат тутти-фрутти задает игривое настроение и не раздражает химическими запахами. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Станьте еще ближе с ультратонкими презервативами Arlette Light. Презервативы Arlette Light ультратонкие № 1 (12 шт).  Презервативы Arlette Light ультратонкие № 1 (12 шт). Модель: arlette-812. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 12 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (12 шт).  Презервативы Arlette Strong ультрапрочные № 5 (12 шт). Модель: arlette-816. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -6262,9 +6258,15 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
@@ -6319,12 +6321,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Classic</t>
+          <t>Презервативы увеличенного размера</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-22306-1299</t>
+          <t>id-22297-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6340,12 +6342,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22306/22306_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22297/22297_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классика - это слишком скучно? Только не с классическими презервативами Arlette Classic №12. Их гладкая поверхность дает отличный уровень скольжения и делает процесс не только приятным, но и комфортным. Длина 185 мм удобнее, чем стандартная 180 мм. Эти презервативы не сжимают пенис и не съезжают во время секса. Аромат тутти-фрутти задает игривое настроение и не раздражает в отличие от резинового запаха обычных презервативов. Высокое качество латекса, отслеживаемое на каждом этапе производства, гарантирует первоклассную защиту обоим партнерам. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Классические презервативы Arlette Classic - надежная защита на каждый день. Презервативы Arlette Classic классические № 2 (12 шт).  Презервативы Arlette Classic классические № 2 (12 шт). Модель: arlette-813. Презервативы. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Увеличенные презервативы Arlette XXL № 12 подходят мужчинам, которым повезло с размером. Их длина и диаметр больше стандартных - увеличены до 200х56 мм. Это дарит максимально комфортные ощущения. Презервативы быстро надеваются, не сдавливают пенис и не съезжают во время секса. Гладкая поверхность придает процессу легкость скольжения. Высокое качество латекса гарантирует полноценную защиту обоим партнерам. Приятный аромат без запаха резины не отвлекает от достоинств интимной встречи. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Увеличенные презервативы Arlette XXL помогут доказать, что размер имеет значение. Презервативы увеличенного размера Arlette XXL № 6 (12 шт).  Презервативы увеличенного размера Arlette XXL № 6 (12 шт). Модель: arlette-817. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6382,15 +6384,25 @@
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>20</v>
+      </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
+      <c r="AF47" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>5.6</v>
+      </c>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6439,12 +6451,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Презервативы с продлевающей смазкой</t>
+          <t>Презервативы Arlette Strong</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-22295-1299</t>
+          <t>id-22298-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6460,17 +6472,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22295/22295_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22298/22298_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Продлевающие презервативы Arlette Longer № 3 помогают не сойти с дистанции раньше времени. Анестетик немного притупляет чувствительность члена и делает половой акт дольше. Размер 185 мм комфортнее, чем стандартный 180 мм - он радует хорошим прилеганием и не дает презервативу скатываться в процессе. Аромат тутти-фрутти очень приятен и не раздражает химическим запахом. Высокие стандарты качества поддерживаются контролем на всех этапах производства и гарантируют надежную защиту обоим партнерам. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Когда нужно больше времени для удовольствия, выбирайте продлевающие презервативы Arlette Longer. Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт).  Презервативы с продлевающей смазкой Arlette Longer № 3 (12 шт). Модель: arlette-814. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 3 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (3 шт).  Презервативы Arlette Strong ультрапрочные № 5 (3 шт). Модель: arlette-821. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6485,7 +6497,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6529,7 +6541,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>12 презервативов</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6549,28 +6561,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ARLETTE</t>
+          <t>АРТ КОНСЕРВЫ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Strong</t>
+          <t>Лубрикант на водной основе КЛЕЙ ДЛЯ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-22300-1299</t>
+          <t>id-27388-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6586,17 +6598,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22300/22300_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_3_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 12 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (12 шт).  Презервативы Arlette Strong ультрапрочные № 5 (12 шт). Модель: arlette-816. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">В паре произошел разлад? На помощь придет Клей для отношений. Отношения охладели? Клей для отношений поможет их оживить.Клей для отношений - это интимный лубрикант, помогающий склеить и укрепить отношения. Качественный, безопасный состав повышает уровень комфорта и удовольствия в интимной близости.Яркая упаковка с оригинальным дизайном не только имеет привлекательный вид, но и гарантированно помогает разрядить обстановку и наладить контакт. Упаковка стилизована под тюбик клея. На лицевой стороне присутствует шуточная инструкция по применению. Клей для отношений может стать отличным подарком для половинки по поводу и без повода.Сертифицированный товар производится в России и имеет уникальный состав, не нарушает pH баланс естественной флоры. Достойная цена и высокое качество лубриканта на водной основе сделали его востребованным среди мужчин и женщин. Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл).  Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл). Модель: art-99. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: АРТ КОНСЕРВЫ. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6609,34 +6621,28 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
@@ -6675,28 +6681,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ARLETTE</t>
+          <t>ART STYLE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера</t>
+          <t>Пудра для бережного хранения</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-22297-1299</t>
+          <t>id-20360-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6712,12 +6718,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22297/22297_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20360/20360_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Увеличенные презервативы Arlette XXL № 12 подходят мужчинам, которым повезло с размером. Их длина и диаметр больше стандартных - увеличены до 200х56 мм. Это дарит максимально комфортные ощущения. Презервативы быстро надеваются, не сдавливают пенис и не съезжают во время секса. Гладкая поверхность придает процессу легкость скольжения. Высокое качество латекса гарантирует полноценную защиту обоим партнерам. Приятный аромат без запаха резины не отвлекает от достоинств интимной встречи. Удобная упаковка с 12-ю презервативами обеспечивает необходимый запас, а информативный дизайн позволяет выбрать желаемый формат без посторонней помощи.Увеличенные презервативы Arlette XXL помогут доказать, что размер имеет значение. Презервативы увеличенного размера Arlette XXL № 6 (12 шт).  Презервативы увеличенного размера Arlette XXL № 6 (12 шт). Модель: arlette-817. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Пудра предназначена для ухода и защиты изделий из самого нежного материала, имитирующего настоящую кожу. Впитывая влагу, пудра предотвращает преждевременное разрушение материала и сохраняет текстуру бархатистой. Способ применения: вымыть и просушить игрушку с помощью салфетки. Присыпать пудрой, равномерно распределяя ее по поверхности. Состав: кукурузный крахмал. Пудра для бережного хранения секс-игрушек Powder (30 г).  Пудра для бережного хранения секс-игрушек Powder (30 г). Модель: artstyle-040012. Секс-игрушки. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ART STYLE. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6735,11 +6741,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
@@ -6754,25 +6756,15 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6805,28 +6797,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ARLETTE</t>
+          <t>ARUELLE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Презервативы Arlette Strong</t>
+          <t>Пижама женская DOMINIQUE XXL 52</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-22298-1299</t>
+          <t>id-28312-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6842,32 +6834,32 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22298/22298_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_4_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультрапрочные презервативы Arlette Strong № 3 созданы для самых жарких игр. Утолщенная стенка гарантирует надежную защиту даже тем, кто любит пожестче, и сохраняет хороший уровень чувствительности. Размер 185 мм намного комфортнее, чем стандартный 180 мм. Он предотвращает сдавливание члена и сползание презерватива во время секса. Приятный аромат тутти-фрутти настраивает на игривый лад и не раздражает химическим запахом. Непревзойденное качество латекса, отслеживаемое на всех этапах изготовления, отлично защищает от ЗППП и нежелательной беременности. Удобная упаковка с 3-мя презервативами легко помещается в кармане, а информативный дизайн позволяет выбрать нужный формат без посторонней помощи.Не сдерживайте свою страсть - лучше держите при себе пачку ультрапрочных презервативов Arlette Strong. Презервативы Arlette Strong ультрапрочные № 5 (3 шт).  Презервативы Arlette Strong ультрапрочные № 5 (3 шт). Модель: arlette-821. Презервативы. Презервативы &gt; Обычные. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: ARLETTE. </t>
+          <t xml:space="preserve">Добавьте изысканности в свой день с помощью этой элегантной и романтичной пижамы Dominique. Верхняя часть пижамы украшена нежным кружевом. Штаны с карманами и эластичным поясом, дополнительно украшены небольшим бантиком. Пижама женская DOMINIQUE XXL (52 размер).  Пижама женская DOMINIQUE XXL (52 размер). Модель: aruelle-dominiquexxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 62% вискоза, 38% полиэстер. Батареек нет в комплекте. Бренд: ARUELLE. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Латвия</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>62% вискоза, 38% полиэстер</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6884,15 +6876,9 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
@@ -6911,7 +6897,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>майка и штаны</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6931,32 +6917,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>АРТ КОНСЕРВЫ</t>
+          <t>AVANUA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе КЛЕЙ ДЛЯ</t>
+          <t>Корсаж на косточках с открытой грудью</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-27388-1299</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>id-12081-1299</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>99999</v>
@@ -6968,44 +6962,44 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27388/27388_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12081/12081_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">В паре произошел разлад? На помощь придет Клей для отношений. Отношения охладели? Клей для отношений поможет их оживить.Клей для отношений - это интимный лубрикант, помогающий склеить и укрепить отношения. Качественный, безопасный состав повышает уровень комфорта и удовольствия в интимной близости.Яркая упаковка с оригинальным дизайном не только имеет привлекательный вид, но и гарантированно помогает разрядить обстановку и наладить контакт. Упаковка стилизована под тюбик клея. На лицевой стороне присутствует шуточная инструкция по применению. Клей для отношений может стать отличным подарком для половинки по поводу и без повода.Сертифицированный товар производится в России и имеет уникальный состав, не нарушает pH баланс естественной флоры. Достойная цена и высокое качество лубриканта на водной основе сделали его востребованным среди мужчин и женщин. Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл).  Лубрикант на водной основе КЛЕЙ ДЛЯ ОТНОШЕНИЙ (50 мл). Модель: art-99. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: АРТ КОНСЕРВЫ. </t>
+          <t xml:space="preserve">Мегасексуальная модель! Корсаж, который станет №1 в твоём арсенале для обольщений.  Белье выполнено из эластичной ткани с виниловым напылением. Корсаж сделан таким образом, что грудь прекрасно поддерживается, но при этом остается полностью открытой. Кроме того, его не нужно снимать во время любовных игр .).Корсаж на косточках с открытой грудью Debora SM.  Корсаж на косточках с открытой грудью Debora SM. Модель: avanua-03229smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 95% полиэстер, 5% эластан (наподобие винила). Батареек нет в комплекте. Бренд: AVANUA. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>95% полиэстер, 5% эластан (наподобие винила)</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -7031,7 +7025,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>корсаж, стринги</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7051,32 +7045,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ART STYLE</t>
+          <t>BACI</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Пудра для бережного хранения</t>
+          <t>Вишневый комплект с юбочкой</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-20360-1299</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+          <t>id-14755-1299</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>99999</v>
@@ -7088,30 +7090,34 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20360/20360_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пудра предназначена для ухода и защиты изделий из самого нежного материала, имитирующего настоящую кожу. Впитывая влагу, пудра предотвращает преждевременное разрушение материала и сохраняет текстуру бархатистой. Способ применения: вымыть и просушить игрушку с помощью салфетки. Присыпать пудрой, равномерно распределяя ее по поверхности. Состав: кукурузный крахмал. Пудра для бережного хранения секс-игрушек Powder (30 г).  Пудра для бережного хранения секс-игрушек Powder (30 г). Модель: artstyle-040012. Секс-игрушки. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ART STYLE. </t>
+          <t xml:space="preserve">.Вишневый комплект с юбочкой.  Вишневый комплект с юбочкой. Модель: baci-1039sl. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Цвет: вишневый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>100% нейлон</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
@@ -7147,7 +7153,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>лиф, юбочка</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7167,13 +7173,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ARUELLE</t>
+          <t>BACI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7183,16 +7189,24 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Пижама женская DOMINIQUE XXL 52</t>
+          <t>Бюстгальтер на плотных чашечках 32 B</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-28312-1299</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>id-15569-1299</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>99999</v>
@@ -7204,17 +7218,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28312/28312_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_3_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавьте изысканности в свой день с помощью этой элегантной и романтичной пижамы Dominique. Верхняя часть пижамы украшена нежным кружевом. Штаны с карманами и эластичным поясом, дополнительно украшены небольшим бантиком. Пижама женская DOMINIQUE XXL (52 размер).  Пижама женская DOMINIQUE XXL (52 размер). Модель: aruelle-dominiquexxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 62% вискоза, 38% полиэстер. Батареек нет в комплекте. Бренд: ARUELLE. </t>
+          <t xml:space="preserve">.Бюстгальтер на плотных чашечках 32 B.  Бюстгальтер на плотных чашечках 32 B. Модель: baci-1058-32b. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Латвия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -7227,11 +7241,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>62% вискоза, 38% полиэстер</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
@@ -7267,7 +7277,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>майка и штаны</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7287,13 +7297,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AVANUA</t>
+          <t>BACI</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7303,12 +7313,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Корсаж на косточках с открытой грудью</t>
+          <t>Бюстгальтер кружевной на косточках 32 С</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-12081-1299</t>
+          <t>id-15568-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7332,17 +7342,17 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12081/12081_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_3_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мегасексуальная модель! Корсаж, который станет №1 в твоём арсенале для обольщений.  Белье выполнено из эластичной ткани с виниловым напылением. Корсаж сделан таким образом, что грудь прекрасно поддерживается, но при этом остается полностью открытой. Кроме того, его не нужно снимать во время любовных игр .).Корсаж на косточках с открытой грудью Debora SM.  Корсаж на косточках с открытой грудью Debora SM. Модель: avanua-03229smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 95% полиэстер, 5% эластан (наподобие винила). Батареек нет в комплекте. Бренд: AVANUA. </t>
+          <t xml:space="preserve">.Бюстгальтер кружевной на косточках 32 С.  Бюстгальтер кружевной на косточках 32 С. Модель: baci-1103-32c. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7355,11 +7365,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>95% полиэстер, 5% эластан (наподобие винила)</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
@@ -7395,7 +7401,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>корсаж, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7415,7 +7421,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Топы эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -7431,12 +7437,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Вишневый комплект с юбочкой</t>
+          <t>Бюстгальтер в цветочек на косточках 36</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-14755-1299</t>
+          <t>id-15570-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7460,12 +7466,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14755/14755_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_3_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вишневый комплект с юбочкой.  Вишневый комплект с юбочкой. Модель: baci-1039sl. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Цвет: вишневый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бюстгальтер в цветочек на косточках 36 D.  Бюстгальтер в цветочек на косточках 36 D. Модель: baci-1108-36d. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: черный, красный, зеленый. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7483,11 +7489,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>100% нейлон</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
@@ -7523,7 +7525,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>лиф, юбочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7543,7 +7545,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -7559,22 +7561,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Бюстгальтер на плотных чашечках 32 B</t>
+          <t>Комплект белья Mafia</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-15569-1299</t>
+          <t>id-3848-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7588,12 +7590,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15569/15569_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_2_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер на плотных чашечках 32 B.  Бюстгальтер на плотных чашечках 32 B. Модель: baci-1058-32b. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Особый покрой для особых случаев - привлекательный ярко-розовый комплект бебидолл из слегка прозрачного материала поражает тонкой черной каймой и экстремально укороченным дизайном. Цветные стринги G-образной формы с милым бантиком дополняют чувственный гарнитур.Комплект белья Mafia.  Комплект белья Mafia. Модель: baci-237slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый с черным. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7647,7 +7649,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Топ, стринги</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7667,7 +7669,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -7683,22 +7685,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Бюстгальтер кружевной на косточках 32 С</t>
+          <t>Бежевый комплект с черным кружевом ML</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-15568-1299</t>
+          <t>id-10782-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7712,12 +7714,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15568/15568_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер кружевной на косточках 32 С.  Бюстгальтер кружевной на косточках 32 С. Модель: baci-1103-32c. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Бежевый комплект с черным кружевом ML.  Бежевый комплект с черным кружевом ML. Модель: baci-877mlb. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: бежевый, черный. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7771,7 +7773,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>лиф на косточках, стринги</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7791,7 +7793,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -7807,12 +7809,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Бюстгальтер в цветочек на косточках 36</t>
+          <t>Черная маскарадная маска со стразами</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-15570-1299</t>
+          <t>id-12726-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7836,12 +7838,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15570/15570_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12726/12726_1_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстгальтер в цветочек на косточках 36 D.  Бюстгальтер в цветочек на косточках 36 D. Модель: baci-1108-36d. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье Baci. Цвет: черный, красный, зеленый. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">.Черная маскарадная маска со стразами Masq Madame.  Черная маскарадная маска со стразами Masq Madame. Модель: baci-masq-5. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: металл, стразы. Батареек нет в комплекте. Бренд: BACI. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7859,7 +7861,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>металл, стразы</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
@@ -7915,40 +7921,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Секс куклы</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BACI</t>
+          <t>BAILE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Комплект белья Mafia</t>
+          <t>Реалистичная секс-кукла Margo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-3848-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25846-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -7960,17 +7958,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/3848/3848_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_12_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Особый покрой для особых случаев - привлекательный ярко-розовый комплект бебидолл из слегка прозрачного материала поражает тонкой черной каймой и экстремально укороченным дизайном. Цветные стринги G-образной формы с милым бантиком дополняют чувственный гарнитур.Комплект белья Mafia.  Комплект белья Mafia. Модель: baci-237slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: розовый с черным. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Привет всем! Я Margo, и я буду твоим спасателем сегодня! Я девушка живущая мечтой и весело проводящая время на солнце! Я авантюрная и общительная, я люблю танцевать, я люблю плавать, и я люблю играть. В старших классах я была капитаном команды черлидеров, и у меня все еще есть пластичность движений, но скажу тебе так - плавать веселее, одежда тебя не стесняет! Я не буду лгать, я горжусь своим телом, мне нравится, какая у меня узкая талия, какие у меня большие классные сиськи, и насколько я сильная и гибкая. Я хвастаюсь своим телом, но не обманывайся - только мой единственный сможет прикоснуться ко мне. Может показаться, что я дикая тусовщица и не особо разборчива в связях, но я однолюбка, и я очень надеюсь, что мой мужчина это ты!Хочешь узнать меня немного ближе?● у меня нежная кожа из реалистичного материала● я могу меняться по твоему настроению  у меня сменный парик● я могу обнимать тебя и принимать разные позы  у меня гибкие конечности● я могу принимать тебя тремя способами  орально, анально и вагинально● глубина влагалища 18 см, глубина ануса 18 см, глубина полости рта 15 см● мои параметры: 93х56х89 см, рост 168 см, длина стопы 21 см, вес 37 кгВо избежание окрашивания и деформации поверхности куклы рекомендуется использовать бельё и принадлежности, идущие в комплекте. Реалистичная секс-кукла Margo.  Реалистичная секс-кукла Margo. Модель: baile-00012693. Секс-игрушки. Секс куклы &gt; Живые куклы. Цвет: светлокожая блондинка. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7983,7 +7981,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>нежный TPE (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -8003,8 +8005,12 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AD60" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>19.8</v>
+      </c>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr">
@@ -8012,14 +8018,24 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AI60" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>37000</v>
+      </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>Топ, стринги</t>
+          <t>нижнее белье, парик, расческа, белая комбинация, USB-нагреватель, очищающее устройство, белые перчатки, типсы</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8039,13 +8055,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BACI</t>
+          <t>BAILE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -8055,24 +8071,16 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Бежевый комплект с черным кружевом ML</t>
+          <t>Смуглый фаллоимитатор-реалистик на</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-10782-1299</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-26512-1299</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>99999</v>
@@ -8084,30 +8092,34 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10782/10782_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_9_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бежевый комплект с черным кружевом ML.  Бежевый комплект с черным кружевом ML. Модель: baci-877mlb. Белье. Насадки и кольца. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье Baci. Цвет: бежевый, черный. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Этот потрясающий супер мягкий и реалистичный фаллоимитатор с реалистичной кожей имеет великолепную гибкую форму, которая потрясающе ощущается в руке и еще более приятна в спальне! Идеальный для вагинального или анального проникновения, этот соблазнительный фаллоимитатор имеет крепкую присоску у основания для возможности использовать его на разных гладких поверхностях. Смуглый фаллоимитатор-реалистик на присоске Baron.  Смуглый фаллоимитатор-реалистик на присоске Baron. Модель: baile-008101n. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: смуглый. Материал: гибкий TPR. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>гибкий TPR</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
@@ -8122,15 +8134,25 @@
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="Y61" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AF61" t="n">
+        <v>4.235</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>3.85</v>
+      </c>
       <c r="AH61" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8143,7 +8165,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>лиф на косточках, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8163,40 +8185,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BACI</t>
+          <t>BAILE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Черная маскарадная маска со стразами</t>
+          <t>Мастурбатор-вагина в форме фонарика</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-12726-1299</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19241-1299</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>99999</v>
@@ -8208,32 +8222,32 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12726/12726_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_6_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черная маскарадная маска со стразами Masq Madame.  Черная маскарадная маска со стразами Masq Madame. Модель: baci-masq-5. Белье. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: черный. Материал: металл, стразы. Батареек нет в комплекте. Бренд: BACI. </t>
+          <t xml:space="preserve">Ваши мечты наконец осуществились! Что может быть лучше, чем киска из материала, имитирующего живое тело. Испытайте вершину блаженства. Супермягкая плоть точно такая же как реальная, только лучше. Теплая как живое тело вагина обнимает вашу плоть. Специальные воздушные полости внутри создают эффект посасывания при использовании. Наслаждение гарантировано. Мастурбатор-вагина в форме фонарика Baby Pussy.  Мастурбатор-вагина в форме фонарика Baby Pussy. Модель: baile-00900t27n. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>металл, стразы</t>
+          <t>нежный TPE (вторая кожа), пластик</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -8250,15 +8264,25 @@
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
+      <c r="Y62" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>23.5</v>
+      </c>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
+      <c r="AF62" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>7.35</v>
+      </c>
       <c r="AH62" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8291,7 +8315,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Секс куклы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8307,12 +8331,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Реалистичная секс-кукла Margo</t>
+          <t>Вагина-реалистик в тубе с вибрацией</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-25846-1299</t>
+          <t>id-13493-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8323,17 +8347,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>вагина-мастурбатор, пульт  управления</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25846/25846_12_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13493/13493_13493_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Привет всем! Я Margo, и я буду твоим спасателем сегодня! Я девушка живущая мечтой и весело проводящая время на солнце! Я авантюрная и общительная, я люблю танцевать, я люблю плавать, и я люблю играть. В старших классах я была капитаном команды черлидеров, и у меня все еще есть пластичность движений, но скажу тебе так - плавать веселее, одежда тебя не стесняет! Я не буду лгать, я горжусь своим телом, мне нравится, какая у меня узкая талия, какие у меня большие классные сиськи, и насколько я сильная и гибкая. Я хвастаюсь своим телом, но не обманывайся - только мой единственный сможет прикоснуться ко мне. Может показаться, что я дикая тусовщица и не особо разборчива в связях, но я однолюбка, и я очень надеюсь, что мой мужчина это ты!Хочешь узнать меня немного ближе?● у меня нежная кожа из реалистичного материала● я могу меняться по твоему настроению  у меня сменный парик● я могу обнимать тебя и принимать разные позы  у меня гибкие конечности● я могу принимать тебя тремя способами  орально, анально и вагинально● глубина влагалища 18 см, глубина ануса 18 см, глубина полости рта 15 см● мои параметры: 93х56х89 см, рост 168 см, длина стопы 21 см, вес 37 кгВо избежание окрашивания и деформации поверхности куклы рекомендуется использовать бельё и принадлежности, идущие в комплекте. Реалистичная секс-кукла Margo.  Реалистичная секс-кукла Margo. Модель: baile-00012693. Секс-игрушки. Секс куклы &gt; Живые куклы. Цвет: светлокожая блондинка. Материал: нежный TPE (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Для мужчин, которые не отказывают себе в исполнении эротических желаний, предлагаем замечательный реалистичный мастурбатор. Эта секс-игрушка выполнена в виде женской вагины из материала, имитирующего настоящую кожу. Мастурбатор имеет рельефную внутреннюю поверхность, что позволит ласкать и возбуждать пенис. Растягивается до нужных размеров. Секс-игрушка имеет несколько различных режимов вибрации, легко регулирующихся с помощью выносного пульта управления, который входит в комплект. Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима).  Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима). Модель: baile-00900t29z. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: черный, телесный. TPR (вторая кожа), пластикБренд: BAILE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8351,11 +8375,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>нежный TPE (вторая кожа)</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
@@ -8370,17 +8390,19 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="Y63" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>25</v>
+      </c>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr">
@@ -8388,24 +8410,14 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI63" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>37000</v>
-      </c>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>нижнее белье, парик, расческа, белая комбинация, USB-нагреватель, очищающее устройство, белые перчатки, типсы</t>
+          <t xml:space="preserve"> глубина проникновения 23 см, внутренний диаметр 1 см, макс. ширина 9,4 см</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8425,7 +8437,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8436,17 +8448,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Смуглый фаллоимитатор-реалистик на</t>
+          <t>Вакуумный мастурбатор-анус 55 в корпусе</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-26512-1299</t>
+          <t>id-26936-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8462,12 +8474,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26512/26512_9_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_4_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот потрясающий супер мягкий и реалистичный фаллоимитатор с реалистичной кожей имеет великолепную гибкую форму, которая потрясающе ощущается в руке и еще более приятна в спальне! Идеальный для вагинального или анального проникновения, этот соблазнительный фаллоимитатор имеет крепкую присоску у основания для возможности использовать его на разных гладких поверхностях. Смуглый фаллоимитатор-реалистик на присоске Baron.  Смуглый фаллоимитатор-реалистик на присоске Baron. Модель: baile-008101n. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: смуглый. Материал: гибкий TPR. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Мастурбатор из реалистичного материала, напоминающего по ощущениям кожу человека, помещён в пластиковый корпус. Отверстие на вершине корпуса позволяет как нагнетать вакуум во время использования мастурбатора, так и быстро его сбрасывать. Вставка мастурбатора имеет богатый внутренний рельеф и может использоваться в ручном режиме вне корпуса. Форма мастурбатора делает удобным его использование, он не скользит в руках. Вакуумный мастурбатор-анус 55 в корпусе.  Вакуумный мастурбатор-анус 55 в корпусе. Модель: baile-00900t58-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8487,7 +8499,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>гибкий TPR</t>
+          <t>нежный TPR (вторая кожа), пластик</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8505,23 +8517,23 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="n">
-        <v>17.05</v>
+        <v>19.8</v>
       </c>
       <c r="Z64" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AA64" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="n">
-        <v>4.235</v>
+        <v>6.93</v>
       </c>
       <c r="AG64" t="n">
-        <v>3.85</v>
+        <v>6.3</v>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
@@ -8571,12 +8583,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в форме фонарика</t>
+          <t>Мастурбатор-ротик Baile Pretty Love</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-19241-1299</t>
+          <t>id-25752-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8592,12 +8604,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19241/19241_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_7_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ваши мечты наконец осуществились! Что может быть лучше, чем киска из материала, имитирующего живое тело. Испытайте вершину блаженства. Супермягкая плоть точно такая же как реальная, только лучше. Теплая как живое тело вагина обнимает вашу плоть. Специальные воздушные полости внутри создают эффект посасывания при использовании. Наслаждение гарантировано. Мастурбатор-вагина в форме фонарика Baby Pussy.  Мастурбатор-вагина в форме фонарика Baby Pussy. Модель: baile-00900t27n. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины без вибрации. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Представляем Вашему вниманию вакуумную колбу - мастурбатор-ротик с вакуумной чашкой Pretty Love. Достигните новых высот чувственного удовольствия с этим сверхмягким высококачественным продуктом, который по ощущениям ничем не хуже настоящего минета. Мягкие, но очень эластичные вставки и рукава в стильном и удобном внешнем футляре позволяют контролировать всасывание. Используйте с вашей любимой смазкой на водной основе для достижения наилучших результатов. Сам рукав снимается с футляра, что упрощает очистку. Мастурбатор-ротик Baile Pretty Love.  Мастурбатор-ротик Baile Pretty Love. Модель: baile-00900t58-2. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8607,17 +8619,17 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>нежный TPE (вторая кожа), пластик</t>
+          <t>нежный TPR (вторая кожа)</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8635,23 +8647,23 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="n">
-        <v>25.85</v>
+        <v>19.58</v>
       </c>
       <c r="Z65" t="n">
-        <v>23.5</v>
+        <v>17.8</v>
       </c>
       <c r="AA65" t="n">
-        <v>23.5</v>
+        <v>17.8</v>
       </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="n">
-        <v>8.085000000000001</v>
+        <v>6.82</v>
       </c>
       <c r="AG65" t="n">
-        <v>7.35</v>
+        <v>6.2</v>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
@@ -8701,12 +8713,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Вагина-реалистик в тубе с вибрацией</t>
+          <t>Мастурбатор вагина-анус с вибрацией</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-13493-1299</t>
+          <t>id-21762-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8717,17 +8729,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>вагина-мастурбатор, пульт  управления</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13493/13493_13493_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_9_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Для мужчин, которые не отказывают себе в исполнении эротических желаний, предлагаем замечательный реалистичный мастурбатор. Эта секс-игрушка выполнена в виде женской вагины из материала, имитирующего настоящую кожу. Мастурбатор имеет рельефную внутреннюю поверхность, что позволит ласкать и возбуждать пенис. Растягивается до нужных размеров. Секс-игрушка имеет несколько различных режимов вибрации, легко регулирующихся с помощью выносного пульта управления, который входит в комплект. Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима).  Вагина-реалистик в тубе с вибрацией Pink Lady (4 режима). Модель: baile-00900t29z. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. С вибрацией. Цвет: черный, телесный. TPR (вторая кожа), пластикБренд: BAILE. </t>
+          <t xml:space="preserve">Мастурбатор с двумя любовными отверстиями, реалистичным анусом и узкой девственной вагиной. Текстурированные любовные отверстия обеспечивают максимально реалистичные ощущения, приводящие к фантастическому оргазму. Мастурбатор выполнен из материала напоминающего на ощупь человеческую кожу. Оснащен съемными виброяйцами с проводным пультом управления и классической многоскоростной аибрацией. Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt.  Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt. Модель: baile-009141z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8737,15 +8749,19 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>нежный TPR (вторая кожа)</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
@@ -8758,21 +8774,29 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>18.15</v>
+      </c>
       <c r="Y66" t="n">
-        <v>27.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AA66" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
+      <c r="AD66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>14.3</v>
+      </c>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr">
@@ -8787,7 +8811,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> глубина проникновения 23 см, внутренний диаметр 1 см, макс. ширина 9,4 см</t>
+          <t>вагина-мастурбатор, 2 вибро-яйца, пудра для бережного хранения игрушки</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8823,12 +8847,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Вакуумный мастурбатор-анус 55 в корпусе</t>
+          <t>Мастурбатор анус с яичками Crazy Bull</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-26936-1299</t>
+          <t>id-26937-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8844,12 +8868,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26936/26936_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_5_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мастурбатор из реалистичного материала, напоминающего по ощущениям кожу человека, помещён в пластиковый корпус. Отверстие на вершине корпуса позволяет как нагнетать вакуум во время использования мастурбатора, так и быстро его сбрасывать. Вставка мастурбатора имеет богатый внутренний рельеф и может использоваться в ручном режиме вне корпуса. Форма мастурбатора делает удобным его использование, он не скользит в руках. Вакуумный мастурбатор-анус 55 в корпусе.  Вакуумный мастурбатор-анус 55 в корпусе. Модель: baile-00900t58-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа), пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Супермягкая плоть точно такая же, как реальная, только лучше. Теплая как живое тело попка обнимает вашу плоть, делает восхитительный массаж, и вы улетаете в мир удовольствия. Мастурбатор анус с яичками Crazy Bull.  Мастурбатор анус с яичками Crazy Bull. Модель: baile-009151. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8859,17 +8883,17 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа), пластик</t>
+          <t>нежный TPR (вторая кожа)</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8884,27 +8908,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>8.25</v>
+      </c>
       <c r="Y67" t="n">
-        <v>19.8</v>
+        <v>14.85</v>
       </c>
       <c r="Z67" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8953,12 +8977,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Мастурбатор-ротик Baile Pretty Love</t>
+          <t>Небольшой полуторс вагина-анус с</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-25752-1299</t>
+          <t>id-25214-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8974,12 +8998,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25752/25752_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_5_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Представляем Вашему вниманию вакуумную колбу - мастурбатор-ротик с вакуумной чашкой Pretty Love. Достигните новых высот чувственного удовольствия с этим сверхмягким высококачественным продуктом, который по ощущениям ничем не хуже настоящего минета. Мягкие, но очень эластичные вставки и рукава в стильном и удобном внешнем футляре позволяют контролировать всасывание. Используйте с вашей любимой смазкой на водной основе для достижения наилучших результатов. Сам рукав снимается с футляра, что упрощает очистку. Мастурбатор-ротик Baile Pretty Love.  Мастурбатор-ротик Baile Pretty Love. Модель: baile-00900t58-2. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Небольшой полуторс Crazy Bull Jessica имитирует попку молоденькой девушки с эротично разорванным сексуальным бельем в черную сеточку. Кто откажется от такого эксперимента?Мастурбатор имеет две заманчивые дырочки, в которые можно входить поочередно. Внутри дырочек восхитительный тоннель любви с диковинным рельефом для остроты ощущений. В комплекте идут два вибро-яйца, которые усиливают ощущения, приводя к неминуемому яркому оргазму. Вибрация классическая многоскоростная, управляется колесиком на пульте.Кстати, материал, из которого сделан полуторс, имитирует нежную кожу человека, быстро принимает температуру тела, поэтому ощущения будут максимально реалистичными! Вы еще раздумываете?.Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica.  Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica. Модель: baile-009182z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный с черным. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -9014,27 +9038,35 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="W68" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.176</v>
+      </c>
       <c r="Y68" t="n">
-        <v>19.58</v>
+        <v>17.05</v>
       </c>
       <c r="Z68" t="n">
-        <v>17.8</v>
+        <v>15.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>6.2</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9047,7 +9079,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>полуторс, сеточка для мастубатора, пульт управления с двумя вибро-яичками</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9067,7 +9099,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -9078,17 +9110,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Мастурбатор вагина-анус с вибрацией</t>
+          <t>G-вибратор с вибрирующей головкой и</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-21762-1299</t>
+          <t>id-26931-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -9104,12 +9136,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21762/21762_9_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_7_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мастурбатор с двумя любовными отверстиями, реалистичным анусом и узкой девственной вагиной. Текстурированные любовные отверстия обеспечивают максимально реалистичные ощущения, приводящие к фантастическому оргазму. Мастурбатор выполнен из материала напоминающего на ощупь человеческую кожу. Оснащен съемными виброяйцами с проводным пультом управления и классической многоскоростной аибрацией. Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt.  Мастурбатор вагина-анус с вибрацией Crazy Bull Busty Butt. Модель: baile-009141z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Вибратор Bruno выполнен из 100% силикона, оснащен двумя вибраторами которые имеют 7 различных программ управления. Уникальный дизайн игрушки позволяет во время использования максимально воздействовать на зону точки G, при этом не прекращая стимулировать клитор. G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов).  G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов). Модель: baile-014218-1. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -9119,17 +9151,17 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9144,31 +9176,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W69" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="X69" t="n">
-        <v>18.15</v>
-      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
       <c r="Y69" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Z69" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="n">
-        <v>13</v>
+        <v>10.3</v>
       </c>
       <c r="AE69" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
+        <v>11.33</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2.25</v>
+      </c>
       <c r="AH69" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9181,7 +9213,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>вагина-мастурбатор, 2 вибро-яйца, пудра для бережного хранения игрушки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9201,7 +9233,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9212,17 +9244,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Мастурбатор анус с яичками Crazy Bull</t>
+          <t>Небольшой перезаряжаемый вибратор для G</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-26937-1299</t>
+          <t>id-27782-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -9238,12 +9270,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26937/26937_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_9_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Супермягкая плоть точно такая же, как реальная, только лучше. Теплая как живое тело попка обнимает вашу плоть, делает восхитительный массаж, и вы улетаете в мир удовольствия. Мастурбатор анус с яичками Crazy Bull.  Мастурбатор анус с яичками Crazy Bull. Модель: baile-009151. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Небольшой рельефный вибрато с увеличенной головкой для массажа точки G. Вибратор имеет 30 режимов вибрации и управляется при помощи одной кнопки.Сделан массажер из гигиеничного бархатистого силикона без запаха. С эти материалом рекомендуется использовать смазку на водной основе. Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов).  Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов). Модель: baile-014358. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9263,7 +9295,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9278,27 +9310,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W70" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X70" t="n">
-        <v>8.25</v>
-      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
       <c r="Y70" t="n">
-        <v>14.85</v>
+        <v>15.95</v>
       </c>
       <c r="Z70" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
+      <c r="AF70" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.65</v>
+      </c>
       <c r="AH70" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9311,7 +9343,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9331,7 +9363,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9342,17 +9374,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Небольшой полуторс вагина-анус с</t>
+          <t>Изогнутый вибратор для G-стимуляции</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-25214-1299</t>
+          <t>id-21016-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -9368,12 +9400,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25214/25214_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_7_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Небольшой полуторс Crazy Bull Jessica имитирует попку молоденькой девушки с эротично разорванным сексуальным бельем в черную сеточку. Кто откажется от такого эксперимента?Мастурбатор имеет две заманчивые дырочки, в которые можно входить поочередно. Внутри дырочек восхитительный тоннель любви с диковинным рельефом для остроты ощущений. В комплекте идут два вибро-яйца, которые усиливают ощущения, приводя к неминуемому яркому оргазму. Вибрация классическая многоскоростная, управляется колесиком на пульте.Кстати, материал, из которого сделан полуторс, имитирует нежную кожу человека, быстро принимает температуру тела, поэтому ощущения будут максимально реалистичными! Вы еще раздумываете?.Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica.  Небольшой полуторс вагина-анус с вибрацией и сеточкой Crazy Bull Jessica. Модель: baile-009182z-1. Секс-игрушки. Мастурбаторы и вагины &gt; Вагины с вибрацией. Мастурбаторы и вагины &gt; Полуторсы, торсы. С вибрацией. Цвет: телесный с черным. Материал: нежный TPR (вторая кожа). Батареек нет в комплекте. AAA x 3 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Изогнутый вибратор со скошенной головкой для прямой стимуляции точки G.Моторчик, расположенный в верхней части вибратора, позволяет насладиться в полной мере 12-ю программами стимуляции.Высококачественный силикон и пластик, из которых выполнена игрушка, делают вибратор долговечным и легким в уходе. Кейс для хранения ELMER также предусмотрен производителем и идет в комплекте.Вибратор работает от встроенного аккумулятора, который может быть повторно заряжен с помощью USB кабеля. Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора).  Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора). Модель: baile-014412. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия, серебро. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9393,7 +9425,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>нежный TPR (вторая кожа)</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9408,35 +9440,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W71" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.176</v>
-      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
       <c r="Y71" t="n">
-        <v>17.05</v>
+        <v>22</v>
       </c>
       <c r="Z71" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH71" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9449,7 +9473,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>полуторс, сеточка для мастубатора, пульт управления с двумя вибро-яичками</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9485,12 +9509,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>G-вибратор с вибрирующей головкой и</t>
+          <t>Перезаряжаемый G-вибратор с</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-26931-1299</t>
+          <t>id-26949-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9506,12 +9530,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26931/26931_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_7_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор Bruno выполнен из 100% силикона, оснащен двумя вибраторами которые имеют 7 различных программ управления. Уникальный дизайн игрушки позволяет во время использования максимально воздействовать на зону точки G, при этом не прекращая стимулировать клитор. G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов).  G-вибратор с вибрирующей головкой и клиторальным стимулятором Pretty Love BRUNO (7 режимов). Модель: baile-014218-1. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Утончённый и элегантный дизайн разработан с учётом женской анатомии. Изгиб головки стимулирует точку G. Мягкий и нежный силикон приятен к телу, а также прост в уходе. Вибратор генерирует разряды микротока, которые ощущаются как нежное покалывание. Электростимуляция сокращает интимные мышцы, таким образом повышая их тонус. Оргазм с вибратором Hector глубокий и насыщенный, благодаря притоку крови и кислорода к органам тазового дна.Игрушка имеет 7 режимов вибрации, 5 режимов электростимуляции. Работает Hector от встроенного перезаряжаемого аккумулятора. Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов).  Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов). Модель: baile-014765. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Вибраторы и фаллоимитаторы &gt; С электростимуляцией. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9531,7 +9555,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9549,27 +9573,23 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="n">
-        <v>22</v>
+        <v>21.45</v>
       </c>
       <c r="Z72" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="n">
-        <v>2.475</v>
+        <v>3.52</v>
       </c>
       <c r="AG72" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
@@ -9619,12 +9639,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Небольшой перезаряжаемый вибратор для G</t>
+          <t>Вибратор для точки G с клиторальным</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-27782-1299</t>
+          <t>id-25818-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -9640,12 +9660,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27782/27782_9_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_7_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Небольшой рельефный вибрато с увеличенной головкой для массажа точки G. Вибратор имеет 30 режимов вибрации и управляется при помощи одной кнопки.Сделан массажер из гигиеничного бархатистого силикона без запаха. С эти материалом рекомендуется использовать смазку на водной основе. Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов).  Небольшой перезаряжаемый вибратор для G точки REUBEN (30 режимов). Модель: baile-014358. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Эта игрушка привлечет ваше внимание - целых 30 функций вибрации! Да, Cerberus  знает как устроить шоу. Позвольте основной части вибратора наполнить вас удовольствием, пока маленький отросток вибрирует на вашем клиторе. Переключайтесь между скоростями и пульсациями одним нажатием кнопки, найдите тот, который подойдет вам больше всего!.Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора).  Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора). Модель: baile-014795. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9665,7 +9685,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9683,23 +9703,27 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="n">
-        <v>15.95</v>
+        <v>22.77</v>
       </c>
       <c r="Z73" t="n">
-        <v>14.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA73" t="n">
-        <v>14.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AD73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>11</v>
+      </c>
       <c r="AF73" t="n">
-        <v>2.915</v>
+        <v>3.08</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
@@ -9713,7 +9737,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9733,7 +9757,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9744,17 +9768,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Изогнутый вибратор для G-стимуляции</t>
+          <t>Двусторонний мини-мастурбатор Fantastic</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-21016-1299</t>
+          <t>id-25059-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -9770,12 +9794,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21016/21016_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_6_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изогнутый вибратор со скошенной головкой для прямой стимуляции точки G.Моторчик, расположенный в верхней части вибратора, позволяет насладиться в полной мере 12-ю программами стимуляции.Высококачественный силикон и пластик, из которых выполнена игрушка, делают вибратор долговечным и легким в уходе. Кейс для хранения ELMER также предусмотрен производителем и идет в комплекте.Вибратор работает от встроенного аккумулятора, который может быть повторно заряжен с помощью USB кабеля. Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора).  Изогнутый вибратор для G-стимуляции Alson (12 режимов, 2 мотора). Модель: baile-014412. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фуксия, серебро. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Инновационные мини мастурбаторы готовы подарить вам мощный кульминационный момент. Раскройте Fantastic Egg Hard Boiled и насладитесь целым рядом новых ощущений с тонко стимулирующей внутренней текстурой мастурбатора. Изготовленный из сверх эластичного материала, не содержащего фталатов, который может растягиваться, чтобы соответствовать буквально любому размеру пениса.Egg Hard Boiled - фантастическое удовольствие, которое понравится всем и каждому. Яйца двусторонние - просто выверните их и получите совершенно другие ощущения!.Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled.  Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled. Модель: baile-014832-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9785,17 +9809,17 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9810,27 +9834,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>4.73</v>
+      </c>
       <c r="Y74" t="n">
-        <v>22</v>
+        <v>9.35</v>
       </c>
       <c r="Z74" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -9843,7 +9867,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9879,12 +9903,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Перезаряжаемый G-вибратор с</t>
+          <t>Вибратор-кролик с вакуумным</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-26949-1299</t>
+          <t>id-28000-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -9900,12 +9924,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26949/26949_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_8_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Утончённый и элегантный дизайн разработан с учётом женской анатомии. Изгиб головки стимулирует точку G. Мягкий и нежный силикон приятен к телу, а также прост в уходе. Вибратор генерирует разряды микротока, которые ощущаются как нежное покалывание. Электростимуляция сокращает интимные мышцы, таким образом повышая их тонус. Оргазм с вибратором Hector глубокий и насыщенный, благодаря притоку крови и кислорода к органам тазового дна.Игрушка имеет 7 режимов вибрации, 5 режимов электростимуляции. Работает Hector от встроенного перезаряжаемого аккумулятора. Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов).  Перезаряжаемый G-вибратор с электростимуляцией Hector (5+7 режимов). Модель: baile-014765. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Вибраторы и фаллоимитаторы &gt; С электростимуляцией. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Вы хотите одновременно ощущать невероятные ощущения от оральных ласк, наслаждаясь проникновением? На ваши запросы ответит симпатичный вибратор с вакуумным стимулятором клитора и с необычным силиконовым язычком на головке, чтобы доставить еще более интенсивное возбуждение и удовольствие.Phoenix имеет 4 режима вакуумной стимуляции и 7 режимов вибрации основного массажера. Работает от батареек.Сделана игрушка из гигиеничного силикона без запаха с бархатистой поверхностью. Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов).  Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов). Модель: baile-014854. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9943,23 +9967,27 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="n">
-        <v>21.45</v>
+        <v>23.1</v>
       </c>
       <c r="Z75" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA75" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
+      <c r="AD75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF75" t="n">
-        <v>3.52</v>
+        <v>3.355</v>
       </c>
       <c r="AG75" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AH75" t="inlineStr">
         <is>
@@ -9973,7 +10001,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9993,7 +10021,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -10009,12 +10037,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Вибратор для точки G с клиторальным</t>
+          <t>Вибро-зажимы для сосков с</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-25818-1299</t>
+          <t>id-28134-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -10030,12 +10058,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25818/25818_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_10_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта игрушка привлечет ваше внимание - целых 30 функций вибрации! Да, Cerberus  знает как устроить шоу. Позвольте основной части вибратора наполнить вас удовольствием, пока маленький отросток вибрирует на вашем клиторе. Переключайтесь между скоростями и пульсациями одним нажатием кнопки, найдите тот, который подойдет вам больше всего!.Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора).  Вибратор для точки G с клиторальным стимулятором с язычком Cerberus (30 режимов, 2 мотора). Модель: baile-014795. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия, белый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Потрясающие вибро-зажимы для сосков с электростимуляцией Romantic Wave II доставят Вам огромное удовольствие, если Вы получаете кайф от стимуляции сосков! Сила сжатия не регулируется, она оптимальна и достаточна. Тут акцент делается на вибрацию (представлено 7 режимов вибрации) и электростимуляцию (имеется 3 степени интенсивности).Мощные функции вибрации добавят острые ощущения, чтобы вы были на грани и за его пределами.Зажимы работают от встроенного перезаряжаемого аккумулятора. Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.).  Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.). Модель: baile-014861. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Шоковая терапия (электростимуляция). Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10070,31 +10098,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
+      <c r="W76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.65</v>
+      </c>
       <c r="Y76" t="n">
-        <v>22.77</v>
+        <v>5.94</v>
       </c>
       <c r="Z76" t="n">
-        <v>20.7</v>
+        <v>5.4</v>
       </c>
       <c r="AA76" t="n">
-        <v>20.7</v>
+        <v>5.4</v>
       </c>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10107,7 +10131,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>два зажима, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10127,7 +10151,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -10138,17 +10162,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Двусторонний мини-мастурбатор Fantastic</t>
+          <t>Вакуумно-вибрационный стимулятор Pretty</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-25059-1299</t>
+          <t>id-28029-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -10164,12 +10188,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25059/25059_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_2_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационные мини мастурбаторы готовы подарить вам мощный кульминационный момент. Раскройте Fantastic Egg Hard Boiled и насладитесь целым рядом новых ощущений с тонко стимулирующей внутренней текстурой мастурбатора. Изготовленный из сверх эластичного материала, не содержащего фталатов, который может растягиваться, чтобы соответствовать буквально любому размеру пениса.Egg Hard Boiled - фантастическое удовольствие, которое понравится всем и каждому. Яйца двусторонние - просто выверните их и получите совершенно другие ощущения!.Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled.  Двусторонний мини-мастурбатор Fantastic Egg Hard Boiled. Модель: baile-014832-1. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: розовый. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Великолепная игрушка, которая должна быть в арсенале каждой пары! Подходит как для совместного использования, так и для соло стимуляции. Вибро-йцо может использоваться во время прелюдии как мужчиной, так и женщиной, а вот вакуумный стимулятор по достоинству оценят женщины. С ним каждая сможет испытать оргазм за считанные секунды! Вакуумный клиторальный стимулятор имеет петельку, которую можно надевать на палец для более удобной стимуляции. Каждый массажер имеет по 12 режимов, так что Вы сможете подобрать для себя любимую комбинацию.Сделаны стимуляторы из гигиеничного высококачественного силикона без запаха с нежной бархатистой поверхностью. Пульт сделан из бархатистого пластика. Вакуумно-вибрационный стимулятор Pretty Love (12 режимов).  Вакуумно-вибрационный стимулятор Pretty Love (12 режимов). Модель: baile-014925. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10179,17 +10203,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>эластичный TPE</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10204,27 +10228,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W77" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X77" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
       <c r="Y77" t="n">
-        <v>9.35</v>
+        <v>7.7</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA77" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
+      <c r="AF77" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH77" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10257,7 +10281,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -10268,17 +10292,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Мега мощный перезаряжаемый</t>
+          <t>Страпон с вибрацией Ultra Passionate</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-28002-1299</t>
+          <t>id-26514-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -10294,12 +10318,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28002/28002_11_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_9_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот очаровательный вибро-массажер имеет супер мощный двигатель для сильных вибраций! С его прекрасной круглой головкой стимулятор можно использовать для массажа любых зон. WAND имеет 5 скоростей и 7 настроек вибрации, которыми Вы управляете с помощью кнопок на ручке.Игрушка производит очень мощную вибрацию, но которая, благодаря идеально рассчитанной конструкции, не передается в ручку массажера, что делает его уникальным среди других аналогов! Так же стоит отметить саму рукоятку массажера. Она имеет закругленную форму, за счет чего массажер удобно лежит в руке, а не скользит, благодаря комбинированной поверхности. То есть рукоятка сделана не только из пластика, она со вставкой из силикона, как и сама головка.Массажер работает от встроенного перезаряжаемого аккумулятора, поэтому забудьте о неудобных проводах, которые привязывают Вас к месту у розетки.WAND может быть идеальным подарком буквально для любого человека, ведь кто-то мечтает о расслабляющем массаже после тяжелого дня, кто-то об антицеллюлитном массаже, а кто-то о жаркой и возбуждающей стимуляции клитора, которая приведет к мощному оргазму!.Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей).  Мега мощный перезаряжаемый вибро-массажер WAND (7 режимов, 5 скоростей). Модель: baile-014848. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Поднимите свои игры с проникновением на новый уровень и побалуйте себя сеансом с потрясающим страпоном. Восхитительный фаллоимитатора с вибрацией покрыт прожилками и имеет головку идеальной формы, чтобы обеспечить вам максимальную стимуляцию и проникновение. С супермягким и реалистичным дилдо с реалистичной кожей вы получите удовольствие в совершенстве. В комплект входит фаллоимитатор для страпона, удобные и регулируемые эластичные ремни-трусики, мощный, но бесшумный вибратор. Страпон с вибрацией Ultra Passionate Harness.  Страпон с вибрацией Ultra Passionate Harness. Модель: baile-022064z. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; С вибрацией. Цвет: смуглый, черный. Материал: TPR, эко кожа. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10309,17 +10333,17 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>TPR, эко кожа</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10337,23 +10361,23 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
-        <v>26.95</v>
+        <v>17.05</v>
       </c>
       <c r="Z78" t="n">
-        <v>24.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>24.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="n">
-        <v>4.95</v>
+        <v>4.4</v>
       </c>
       <c r="AG78" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AH78" t="inlineStr">
         <is>
@@ -10367,7 +10391,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>массажер, зарядное USB-устройство, мешочек для хранения</t>
+          <t>страпон-трусики, фаллос, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10403,16 +10427,24 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Вибратор-кролик с вакуумным</t>
+          <t>Клиторальный вибромассажер в трусики на</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-28000-1299</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+          <t>id-28032-1299</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>99999</v>
@@ -10424,12 +10456,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28000/28000_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_4_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вы хотите одновременно ощущать невероятные ощущения от оральных ласк, наслаждаясь проникновением? На ваши запросы ответит симпатичный вибратор с вакуумным стимулятором клитора и с необычным силиконовым язычком на головке, чтобы доставить еще более интенсивное возбуждение и удовольствие.Phoenix имеет 4 режима вакуумной стимуляции и 7 режимов вибрации основного массажера. Работает от батареек.Сделана игрушка из гигиеничного силикона без запаха с бархатистой поверхностью. Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов).  Вибратор-кролик с вакуумным стимулятором и подвижным язычком Phoenix (4+7 режимов). Модель: baile-014854. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Клиторальный вибромассажер в трусики Wild Rabbit для страстных женщин, которые в любой момент готовы испытать удовольствие! Массажер вкладывается в секси трусики и становится совсем не заметным для окружающих. Включается он при помощи пульта дистанционного управления, режимы переключаются им же. Клиторальный вибромассажер в трусики на ДУ Wild Rabbit.  Клиторальный вибромассажер в трусики на ДУ Wild Rabbit. Модель: baile-022071zw. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фуксия, леопардовый. Материал: высококачественный силикон с бархатистой поверхностью, полиэстер. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10449,7 +10481,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, полиэстер</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10466,29 +10498,15 @@
       </c>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>3.355</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10501,7 +10519,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>стимулятор, мешочек для хранения</t>
+          <t>вибромассажер, дистанционный пульт управления, трусики, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10521,7 +10539,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -10532,17 +10550,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Вибро-зажимы для сосков с</t>
+          <t>Эрекционное вибро-кольцо для члена и</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-28134-1299</t>
+          <t>id-26993-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -10558,12 +10576,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28134/28134_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_10_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Потрясающие вибро-зажимы для сосков с электростимуляцией Romantic Wave II доставят Вам огромное удовольствие, если Вы получаете кайф от стимуляции сосков! Сила сжатия не регулируется, она оптимальна и достаточна. Тут акцент делается на вибрацию (представлено 7 режимов вибрации) и электростимуляцию (имеется 3 степени интенсивности).Мощные функции вибрации добавят острые ощущения, чтобы вы были на грани и за его пределами.Зажимы работают от встроенного перезаряжаемого аккумулятора. Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.).  Вибро-зажимы для сосков с электростимуляцией Romantic Wave II (7 реж. вибрации, 3 реж. электрост.). Модель: baile-014861. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Шоковая терапия (электростимуляция). Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Эрекционное кольцо  многофункциональное изделие, которое используется для улучшения качества эрекции и усиления ощущений от сексуального контакта. Это не просто игрушка из магазина интимных товаров, а медицинское приспособление, применение которого показано мужчинам, имеющим проблемы с половой функцией. Кольцо сжимает половой член, позволяет задержать отток крови и поддерживать эрегированное состояние органа длительное время, кольцо для мошонки усилит ощущения во время эякуляции, а клиторальная подушечка с вибрацией доставит Вашей партнерше незабываемые ощущения. Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER.  Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER. Модель: baile-026218. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 3 шт (в комплекте)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10583,7 +10601,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10598,27 +10616,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X80" t="n">
-        <v>1.65</v>
-      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
       <c r="Y80" t="n">
-        <v>5.94</v>
+        <v>11.33</v>
       </c>
       <c r="Z80" t="n">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.4</v>
+        <v>10.3</v>
       </c>
       <c r="AB80" t="inlineStr"/>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
+      <c r="AF80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2</v>
+      </c>
       <c r="AH80" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10631,7 +10649,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>два зажима, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10651,7 +10669,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10662,17 +10680,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Вакуумно-вибрационный стимулятор Pretty</t>
+          <t>Перезаряжаемый массажер простаты Backie</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-28029-1299</t>
+          <t>id-17692-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -10688,12 +10706,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28029/28029_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_10_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепная игрушка, которая должна быть в арсенале каждой пары! Подходит как для совместного использования, так и для соло стимуляции. Вибро-йцо может использоваться во время прелюдии как мужчиной, так и женщиной, а вот вакуумный стимулятор по достоинству оценят женщины. С ним каждая сможет испытать оргазм за считанные секунды! Вакуумный клиторальный стимулятор имеет петельку, которую можно надевать на палец для более удобной стимуляции. Каждый массажер имеет по 12 режимов, так что Вы сможете подобрать для себя любимую комбинацию.Сделаны стимуляторы из гигиеничного высококачественного силикона без запаха с нежной бархатистой поверхностью. Пульт сделан из бархатистого пластика. Вакуумно-вибрационный стимулятор Pretty Love (12 режимов).  Вакуумно-вибрационный стимулятор Pretty Love (12 режимов). Модель: baile-014925. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Отличный вибромассажёр для любителей особых удовольствий. Черный анальный стимулятор Backie изогнутой формы, что позволяет осуществлять точную стимуляцию самых чувствительных зон. Эргономичная форма интимного аксессуара способствует его лёгкому введению и извлечению. Ручка-ограничитель позволяет контролировать глубину проникновения.Работа 30 разнообразных режимов вибрации регулируется с помощью кнопок на корпусе изделия.Секс-игрушка может быть использована как соло, так и в парной любовной игре. Подходит для массажа простаты.Вибромассажёр изготовлен из мягкого, приятного на ощупь материала. Прост в использовании и уходе.Совместно с интимным аксессуаром рекомендуется применять гель-лубрикант на водной основе.Влагонепроницаем, перезаряжаем, гигиеничен, гипоаллергенен.ТИП ЗАРЯДКИ: USB-провод, который одним концом присоединяется к изделию, другим  вставляется в соответствующий разъём на корпусе ПК. Во время зарядки (при подсоединённом проводе) вибромассажёр не работает. Перезаряжаемый массажер простаты Backie (30 режимов).  Перезаряжаемый массажер простаты Backie (30 режимов). Модель: baile-040029. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхность, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10713,7 +10731,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхность, пластик</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10731,23 +10749,27 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="n">
-        <v>7.7</v>
+        <v>13.97</v>
       </c>
       <c r="Z81" t="n">
-        <v>7</v>
+        <v>12.7</v>
       </c>
       <c r="AA81" t="n">
-        <v>7</v>
+        <v>12.7</v>
       </c>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="AD81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>10.45</v>
+      </c>
       <c r="AF81" t="n">
-        <v>2.86</v>
+        <v>2.805</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
@@ -10761,7 +10783,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10781,7 +10803,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -10792,17 +10814,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Страпон с вибрацией Ultra Passionate</t>
+          <t>Вибратор с подвижным G-стимулятором</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-26514-1299</t>
+          <t>id-22082-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -10818,12 +10840,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26514/26514_9_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_5_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Поднимите свои игры с проникновением на новый уровень и побалуйте себя сеансом с потрясающим страпоном. Восхитительный фаллоимитатора с вибрацией покрыт прожилками и имеет головку идеальной формы, чтобы обеспечить вам максимальную стимуляцию и проникновение. С супермягким и реалистичным дилдо с реалистичной кожей вы получите удовольствие в совершенстве. В комплект входит фаллоимитатор для страпона, удобные и регулируемые эластичные ремни-трусики, мощный, но бесшумный вибратор. Страпон с вибрацией Ultra Passionate Harness.  Страпон с вибрацией Ultra Passionate Harness. Модель: baile-022064z. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; С вибрацией. Цвет: смуглый, черный. Материал: TPR, эко кожа. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Конструкция вибратора позволяет массажировать все потаённые точки вашего тела наряду с клиторальной стимуляцией. Вибратор имеет семь видов вибраций, четыре режима движения шаловливого пальчика, которые порадуют даже самых взыскательных девушек. Дополнительно его подвижный основной ствол позволяет максимально воздействовать на точку G, увеличивая чувствительность за счёт эффекта шаловливого пальчика. Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора).  Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора). Модель: baile-068002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10833,17 +10855,17 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>TPR, эко кожа</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -10861,23 +10883,27 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="n">
-        <v>17.05</v>
+        <v>23.32</v>
       </c>
       <c r="Z82" t="n">
-        <v>15.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA82" t="n">
-        <v>15.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
+      <c r="AD82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>14.85</v>
+      </c>
       <c r="AF82" t="n">
-        <v>4.4</v>
+        <v>3.63</v>
       </c>
       <c r="AG82" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AH82" t="inlineStr">
         <is>
@@ -10891,7 +10917,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>страпон-трусики, фаллос, мешочек для хранения</t>
+          <t>вибратор, зарядное USB-устройство, мешочек для хранения, инструкция</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10911,7 +10937,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10922,29 +10948,21 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Клиторальный вибромассажер в трусики на</t>
+          <t>Эрекционное вибро-кольцо в клиторальной</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-28032-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-27753-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10956,12 +10974,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/28032/28032_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_8_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиторальный вибромассажер в трусики Wild Rabbit для страстных женщин, которые в любой момент готовы испытать удовольствие! Массажер вкладывается в секси трусики и становится совсем не заметным для окружающих. Включается он при помощи пульта дистанционного управления, режимы переключаются им же. Клиторальный вибромассажер в трусики на ДУ Wild Rabbit.  Клиторальный вибромассажер в трусики на ДУ Wild Rabbit. Модель: baile-022071zw. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фуксия, леопардовый. Материал: высококачественный силикон с бархатистой поверхностью, полиэстер. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Добавьте дополнительный штрих в ваши отношения с этим двойным вибрирующим кольцом для полового члена с 10 функциями вибрации. Он имеет стимулятор клитора с щеточкой и с небольшими выпуклостями, так что ваша эрекция не только долговечнее и мощнее, но ваш партнер наслаждается, как никогда раньше. Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов).  Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов). Модель: baile-210205. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10981,7 +10999,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, полиэстер</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10996,17 +11014,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
+      <c r="W83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>9.5</v>
+      </c>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
+      <c r="AF83" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH83" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11019,7 +11051,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>вибромассажер, дистанционный пульт управления, трусики, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -11039,7 +11071,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -11050,17 +11082,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Эрекционное вибро-кольцо для члена и</t>
+          <t>Реалистичный ротационный фаллос с</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-26993-1299</t>
+          <t>id-18770-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -11076,12 +11108,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26993/26993_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_3_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционное кольцо  многофункциональное изделие, которое используется для улучшения качества эрекции и усиления ощущений от сексуального контакта. Это не просто игрушка из магазина интимных товаров, а медицинское приспособление, применение которого показано мужчинам, имеющим проблемы с половой функцией. Кольцо сжимает половой член, позволяет задержать отток крови и поддерживать эрегированное состояние органа длительное время, кольцо для мошонки усилит ощущения во время эякуляции, а клиторальная подушечка с вибрацией доставит Вашей партнерше незабываемые ощущения. Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER.  Эрекционное вибро-кольцо для члена и мошонки с массажером клитора Pretty Love ESTHER. Модель: baile-026218. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 3 шт (в комплекте)Бренд: BAILE. </t>
+          <t xml:space="preserve">Фаллос с ротацией (вращением). Выполнен с четко выделенной головкой и рельефом из венок для дополнительной стимуляции стенок влагалища и точки G. Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong.  Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong. Модель: baile-bw-008080x. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; С ротацией (вращение). Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -11091,17 +11123,17 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>ПВХ</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -11119,23 +11151,23 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="n">
-        <v>11.33</v>
+        <v>19.58</v>
       </c>
       <c r="Z84" t="n">
-        <v>10.3</v>
+        <v>17.8</v>
       </c>
       <c r="AA84" t="n">
-        <v>10.3</v>
+        <v>17.8</v>
       </c>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="n">
-        <v>2.2</v>
+        <v>4.62</v>
       </c>
       <c r="AG84" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="AH84" t="inlineStr">
         <is>
@@ -11149,7 +11181,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>фаллос, мешочек</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11169,32 +11201,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Перезаряжаемый массажер простаты Backie</t>
+          <t>Красный ошейник с мехом и поводком</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-17692-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+          <t>id-27770-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -11206,12 +11246,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17692/17692_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27770/27770_1_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличный вибромассажёр для любителей особых удовольствий. Черный анальный стимулятор Backie изогнутой формы, что позволяет осуществлять точную стимуляцию самых чувствительных зон. Эргономичная форма интимного аксессуара способствует его лёгкому введению и извлечению. Ручка-ограничитель позволяет контролировать глубину проникновения.Работа 30 разнообразных режимов вибрации регулируется с помощью кнопок на корпусе изделия.Секс-игрушка может быть использована как соло, так и в парной любовной игре. Подходит для массажа простаты.Вибромассажёр изготовлен из мягкого, приятного на ощупь материала. Прост в использовании и уходе.Совместно с интимным аксессуаром рекомендуется применять гель-лубрикант на водной основе.Влагонепроницаем, перезаряжаем, гигиеничен, гипоаллергенен.ТИП ЗАРЯДКИ: USB-провод, который одним концом присоединяется к изделию, другим  вставляется в соответствующий разъём на корпусе ПК. Во время зарядки (при подсоединённом проводе) вибромассажёр не работает. Перезаряжаемый массажер простаты Backie (30 режимов).  Перезаряжаемый массажер простаты Backie (30 режимов). Модель: baile-040029. Секс-игрушки. Анальные стимуляторы и пробки &gt; Стимуляторы простаты. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный с серебряным. Материал: высококачественный силикон с бархатистой поверхность, пластик. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">С этим набором Вы сможете воплотить в жизнь свои самые смелые желания! С обратной стороны ошейника есть искусственный мех, который предотвращает натирание нежной кожи шеи. Красный ошейник с мехом и поводком.  Красный ошейник с мехом и поводком. Модель: bdsmars-00001. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: красный. Материал: эко кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -11221,17 +11261,17 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхность, пластик</t>
+          <t>эко кожа, искусственный мех, металл</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -11248,29 +11288,15 @@
       </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>2.805</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11283,7 +11309,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11303,28 +11329,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Вибратор с подвижным G-стимулятором</t>
+          <t>Брелок маска кошки</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-22082-1299</t>
+          <t>id-27991-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -11340,17 +11366,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22082/22082_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_2_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Конструкция вибратора позволяет массажировать все потаённые точки вашего тела наряду с клиторальной стимуляцией. Вибратор имеет семь видов вибраций, четыре режима движения шаловливого пальчика, которые порадуют даже самых взыскательных девушек. Дополнительно его подвижный основной ствол позволяет максимально воздействовать на точку G, увеличивая чувствительность за счёт эффекта шаловливого пальчика. Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора).  Вибратор с подвижным G-стимулятором DYLAN (7 реж. вибрации, 4 реж. движения, 2 мотора). Модель: baile-068002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: BAILE. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска кошки - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок маска кошки.  Брелок маска кошки. Модель: bdsmars-104. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -11365,7 +11391,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11380,31 +11406,25 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="W86" t="n">
+        <v>5</v>
+      </c>
+      <c r="X86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11417,7 +11437,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство, мешочек для хранения, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11437,28 +11457,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Эрекционное вибро-кольцо в клиторальной</t>
+          <t>Плюшевая госпожа в белье и с плетью № 2</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-27753-1299</t>
+          <t>id-26766-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -11474,17 +11494,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27753/27753_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26766/26766_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавьте дополнительный штрих в ваши отношения с этим двойным вибрирующим кольцом для полового члена с 10 функциями вибрации. Он имеет стимулятор клитора с щеточкой и с небольшими выпуклостями, так что ваша эрекция не только долговечнее и мощнее, но ваш партнер наслаждается, как никогда раньше. Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов).  Эрекционное вибро-кольцо в клиторальной щеточкой Vibrant Penis Ring II (10 режимов). Модель: baile-210205. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Необычный БДСМ Мишка в образе госпожи - в маске, белье и с плетью - идеальный вариант, чтобы порадовать ценителей оригинальных подарков. Высота мишки в сидячем положении 30 см. Костюмчик выполнен из искусственной кожи. Одежда и аксессуары съемные. Плюшевая госпожа в белье и с плетью № 2.  Плюшевая госпожа в белье и с плетью № 2. Модель: bdsmars-111. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -11499,7 +11519,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>искусственный мех, эко кожа, металл</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11514,31 +11534,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X87" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>33</v>
+      </c>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11551,7 +11561,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мишка, трусики, лиф, маска, плетка</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11571,28 +11581,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BAILE</t>
+          <t>BDSM АРСЕНАЛ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Реалистичный ротационный фаллос с</t>
+          <t>Плюшевый мишка супер-герой № 3</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-18770-1299</t>
+          <t>id-26770-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -11608,32 +11618,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18770/18770_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_3_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фаллос с ротацией (вращением). Выполнен с четко выделенной головкой и рельефом из венок для дополнительной стимуляции стенок влагалища и точки G. Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong.  Реалистичный ротационный фаллос с мошонкой на присоске Super Rota Dong. Модель: baile-bw-008080x. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Вибраторы и фаллоимитаторы &gt; С ротацией (вращение). Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: BAILE. </t>
+          <t xml:space="preserve">Оригинальный БДСМ мишка в костюме супер-героя - первый в своем роде! Отличный подарок, который подарит массу положительных эмоций! Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка супер-герой № 3.  Плюшевый мишка супер-герой № 3. Модель: bdsmars-112. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, лакированная эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>искусственный мех, лакированная эко кожа, металл</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11650,25 +11660,19 @@
       </c>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>33</v>
+      </c>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11681,7 +11685,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>фаллос, мешочек</t>
+          <t>мишка, боди с фаллосом, накидка, маска на глаза</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11701,7 +11705,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11712,17 +11716,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Красный ошейник с мехом и поводком</t>
+          <t>Плюшевая БДСМ принцесса в боди № 4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-27770-1299</t>
+          <t>id-26767-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -11746,32 +11750,32 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27770/27770_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_2_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">С этим набором Вы сможете воплотить в жизнь свои самые смелые желания! С обратной стороны ошейника есть искусственный мех, который предотвращает натирание нежной кожи шеи. Красный ошейник с мехом и поводком.  Красный ошейник с мехом и поводком. Модель: bdsmars-00001. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: красный. Материал: эко кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Восхитительная плюшевая БДСМ принцесса с миниатюрным стеком-сердечко. Такой подарок никого не оставит равнодушным! Высота мишки 30 см. Костюмчик выполнен из искусственной лаковой кожи. Одежда и аксессуары съемные. Плюшевая БДСМ принцесса в боди № 4.  Плюшевая БДСМ принцесса в боди № 4. Модель: bdsmars-113. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>эко кожа, искусственный мех, металл</t>
+          <t>искусственный мех, эко кожа, металл</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11809,7 +11813,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мишка, боди, корона, стек с сердечком</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11845,12 +11849,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Брелок маска кошки</t>
+          <t>Плюшевый мишка-саб в маске и сбруе № 7</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-27991-1299</t>
+          <t>id-26769-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -11866,12 +11870,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27991/27991_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_2_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска кошки - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок маска кошки.  Брелок маска кошки. Модель: bdsmars-104. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Оригинальный плюшевый БДСМ мишка-саб в маске и сбруе - отличная идея для подарка!  Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка-саб в маске и сбруе № 7.  Плюшевый мишка-саб в маске и сбруе № 7. Модель: bdsmars-116. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11891,7 +11895,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>искусственный мех, эко кожа, металл</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11906,20 +11910,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W90" t="n">
-        <v>5</v>
-      </c>
-      <c r="X90" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>5.5</v>
+        <v>30</v>
       </c>
       <c r="AC90" t="n">
-        <v>6.05</v>
+        <v>33</v>
       </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
@@ -11937,7 +11937,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мишка, сбруя, маска на глаза</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11973,12 +11973,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Плюшевая госпожа в белье и с плетью № 2</t>
+          <t>Брелок в виде кожаных наручников</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-26766-1299</t>
+          <t>id-27988-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -11994,12 +11994,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26766/26766_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27988/27988_1_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Необычный БДСМ Мишка в образе госпожи - в маске, белье и с плетью - идеальный вариант, чтобы порадовать ценителей оригинальных подарков. Высота мишки в сидячем положении 30 см. Костюмчик выполнен из искусственной кожи. Одежда и аксессуары съемные. Плюшевая госпожа в белье и с плетью № 2.  Плюшевая госпожа в белье и с плетью № 2. Модель: bdsmars-111. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок наручники - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Брелок в виде кожаных наручников.  Брелок в виде кожаных наручников. Модель: bdsmars-124. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>искусственный мех, эко кожа, металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -12039,16 +12039,16 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>33</v>
-      </c>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
+      <c r="AF91" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12061,7 +12061,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>мишка, трусики, лиф, маска, плетка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -12097,12 +12097,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Плюшевый мишка супер-герой № 3</t>
+          <t>Брелок в виде зайца из белой кожи</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-26770-1299</t>
+          <t>id-27997-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -12118,12 +12118,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26770/26770_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27997/27997_1_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный БДСМ мишка в костюме супер-героя - первый в своем роде! Отличный подарок, который подарит массу положительных эмоций! Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка супер-герой № 3.  Плюшевый мишка супер-герой № 3. Модель: bdsmars-112. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, лакированная эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок заяц - отличный подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок в виде зайца из белой кожи.  Брелок в виде зайца из белой кожи. Модель: bdsmars-125. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>искусственный мех, лакированная эко кожа, металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12160,15 +12160,17 @@
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y92" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
@@ -12185,7 +12187,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>мишка, боди с фаллосом, накидка, маска на глаза</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -12221,24 +12223,16 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Плюшевая БДСМ принцесса в боди № 4</t>
+          <t>Брелок в виде кожаной плети</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-26767-1299</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-27999-1299</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>99999</v>
@@ -12250,12 +12244,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26767/26767_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27999/27999_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Восхитительная плюшевая БДСМ принцесса с миниатюрным стеком-сердечко. Такой подарок никого не оставит равнодушным! Высота мишки 30 см. Костюмчик выполнен из искусственной лаковой кожи. Одежда и аксессуары съемные. Плюшевая БДСМ принцесса в боди № 4.  Плюшевая БДСМ принцесса в боди № 4. Модель: bdsmars-113. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепkется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-127. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12275,7 +12269,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>искусственный мех, эко кожа, металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -12292,9 +12286,15 @@
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
+      <c r="Y93" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>16</v>
+      </c>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
@@ -12313,7 +12313,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>мишка, боди, корона, стек с сердечком</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12349,12 +12349,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Плюшевый мишка-саб в маске и сбруе № 7</t>
+          <t>Брелок-плеть из натуральной замши</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-26769-1299</t>
+          <t>id-27996-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -12370,12 +12370,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26769/26769_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27996/27996_1_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный плюшевый БДСМ мишка-саб в маске и сбруе - отличная идея для подарка!  Высота мишки 30 см. Костюмчик выполнен из искусственной кожи. Все аксессуары съемные. Плюшевый мишка-саб в маске и сбруе № 7.  Плюшевый мишка-саб в маске и сбруе № 7. Модель: bdsmars-116. Секс-игрушки. Эротические сувениры &gt; Сувениры. Цвет: белый с черным. Материал: искусственный мех, эко кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из натуральной замши. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок-плеть из натуральной замши.  Брелок-плеть из натуральной замши. Модель: bdsmars-128. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа (замша), металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>искусственный мех, эко кожа, металл</t>
+          <t>натуральная кожа (замша), металл</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -12412,15 +12412,17 @@
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y94" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
@@ -12437,7 +12439,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>мишка, сбруя, маска на глаза</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12473,12 +12475,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаных наручников</t>
+          <t>Брелок в виде кожаной плети</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-27988-1299</t>
+          <t>id-27998-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -12494,12 +12496,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27988/27988_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27998/27998_1_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок наручники - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Брелок в виде кожаных наручников.  Брелок в виде кожаных наручников. Модель: bdsmars-124. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-129. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12509,12 +12511,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -12536,19 +12538,21 @@
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
+      <c r="Y95" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>17.5</v>
+      </c>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12597,12 +12601,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Брелок в виде зайца из белой кожи</t>
+          <t>Брелок в виде кожаной плетки</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-27997-1299</t>
+          <t>id-27995-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -12618,12 +12622,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27997/27997_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27995/27995_1_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок заяц - отличный подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепается. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок в виде зайца из белой кожи.  Брелок в виде зайца из белой кожи. Модель: bdsmars-125. Приколы. Эротические сувениры &gt; Сувениры. Цвет: белый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плетки.  Брелок в виде кожаной плетки. Модель: bdsmars-130. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12661,13 +12665,13 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="n">
-        <v>8.800000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="Z96" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
@@ -12723,12 +12727,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плети</t>
+          <t>Брелок маска</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-27999-1299</t>
+          <t>id-27992-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -12744,12 +12748,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27999/27999_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27992/27992_1_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растрепkется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-127. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок маска.  Брелок маска. Модель: bdsmars-135. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с красным и серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12787,13 +12791,13 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="n">
-        <v>17.6</v>
+        <v>11.55</v>
       </c>
       <c r="Z97" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
@@ -12849,12 +12853,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Брелок-плеть из натуральной замши</t>
+          <t>Брелок-гитара</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-27996-1299</t>
+          <t>id-27993-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -12870,12 +12874,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27996/27996_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27993/27993_2_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из натуральной замши. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок-плеть из натуральной замши.  Брелок-плеть из натуральной замши. Модель: bdsmars-128. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа (замша), металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок-гитара - отличный подарок для мужчины, подарок для ребенка, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, корпус гитары двуслойный кожаный, прошит по краю, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Очень оригинальный и стильный аксессуар. Яркий подарок ребенку, подарок парню, подарок девушке!.Брелок-гитара.  Брелок-гитара. Модель: bdsmars-141. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый, серебряный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12895,7 +12899,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>натуральная кожа (замша), металл</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12910,16 +12914,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
+      <c r="W98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.44</v>
+      </c>
       <c r="Y98" t="n">
-        <v>18.15</v>
+        <v>10.45</v>
       </c>
       <c r="Z98" t="n">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA98" t="n">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
@@ -12959,7 +12967,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -12970,21 +12978,29 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плети</t>
+          <t>Кожаная красная маска с мехом</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-27998-1299</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+          <t>id-27324-1299</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>99999</v>
@@ -12996,12 +13012,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27998/27998_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27324/27324_2_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плети.  Брелок в виде кожаной плети. Модель: bdsmars-129. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Игривая маска красного цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная красная маска с мехом.  Кожаная красная маска с мехом. Модель: bdsmars-20022. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: красный с белым. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -13011,17 +13027,17 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, искусственный мех</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13038,15 +13054,9 @@
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
@@ -13085,7 +13095,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -13096,21 +13106,29 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Брелок в виде кожаной плетки</t>
+          <t>Кожаная белая маска с мехом</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-27995-1299</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+          <t>id-27323-1299</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>99999</v>
@@ -13122,12 +13140,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27995/27995_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27323/27323_2_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок плеть - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок в виде кожаной плетки.  Брелок в виде кожаной плетки. Модель: bdsmars-130. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Игривая маска белого цвета выполнена из натуральной кожи. Ушки маски украшены нежным белым эко-мехом, что придаёт ей изящности. Фиксируется сзади с помощью металлической пряжки, позволяя выбрать комфортный обхват головы. Форма макси эффектно подчеркивает глаза и создаёт необычный образ. Кожаная белая маска с мехом.  Кожаная белая маска с мехом. Модель: bdsmars-20023. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Аксессуары, украшения для тела &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Эротическое белье для женщин &gt; Маскарадные маски. Цвет: белый. Материал: натуральная кожа, искусственный мех. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -13147,7 +13165,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>натуральная кожа, искусственный мех</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13164,15 +13182,9 @@
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>12</v>
-      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
@@ -13211,7 +13223,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Стрэпы эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -13222,21 +13234,29 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Брелок маска</t>
+          <t>Портупея Demetra из черной кожи</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-27992-1299</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+          <t>id-26777-1299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>99999</v>
@@ -13248,12 +13268,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27992/27992_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26777/26777_5_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брелок для ключей, выполненный из качественной натуральной кожи. Оригинальный брелок маска - отличный подарок для друга, подарок для девушки, подарок коллегам или просто подарок на память. Кожаный брелок имеет надежное металлическое кольцо для крепления, кожа плотная, поэтому прослужит долго и не растреплется. Брелок из кожи на ключи имеет удобную форму, теперь Ваши ключи не затеряются в сумке! Аксессуар прекрасно подойдет, как брелок для сумки, брелок детский, брелок для кошелька, брелок для машины, ключница автомобильная, брелок на рюкзак, брелок для авто или любой вещи по вашему желанию. Брелок маска.  Брелок маска. Модель: bdsmars-135. Приколы. Эротические сувениры &gt; Сувениры. Цвет: черный с красным и серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
+          <t xml:space="preserve">Стильная черная портупея из натуральной кожи, декорирована металлическими кольцами. Модель аксессуара позволяет надевать его любой стороной, как кольцом вперед, так и назад, что делает портупею отличным ярким дополнением для любого образа! Благодаря трём металлическим пряжкам размер регулируется и прекрасно подойдет на размер от 40 до 48. Расстояние от кольца до поясного ремешка 22 см, максимальный обхват талии 100 см. Портупея Demetra из черной кожи.  Портупея Demetra из черной кожи. Модель: bdsmars-300-01. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: BDSM АРСЕНАЛ. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -13263,12 +13283,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -13290,15 +13310,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
